--- a/use_cases/LWR_MeOH_2023/data/HERON_data.xlsx
+++ b/use_cases/LWR_MeOH_2023/data/HERON_data.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/LWR_MeOH_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3E6A09-5B11-8B47-A675-73923213F4B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0A7C72-F21B-6B49-89F4-D830255495A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36100" yWindow="-380" windowWidth="38800" windowHeight="21140" activeTab="2" xr2:uid="{3CE7F202-39F9-48AF-B0C7-575379157397}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{3CE7F202-39F9-48AF-B0C7-575379157397}"/>
   </bookViews>
   <sheets>
-    <sheet name="MACRS" sheetId="1" r:id="rId1"/>
-    <sheet name="Transfer_rates" sheetId="4" r:id="rId2"/>
-    <sheet name="MeOH" sheetId="14" r:id="rId3"/>
-    <sheet name="MeOH_original_data" sheetId="13" r:id="rId4"/>
-    <sheet name="HTSE" sheetId="2" r:id="rId5"/>
-    <sheet name="Sweep values" sheetId="10" r:id="rId6"/>
+    <sheet name="Sweep values" sheetId="10" r:id="rId1"/>
+    <sheet name="MACRS" sheetId="1" r:id="rId2"/>
+    <sheet name="Transfer_rates" sheetId="4" r:id="rId3"/>
+    <sheet name="MeOH" sheetId="14" r:id="rId4"/>
+    <sheet name="MeOH_original_data" sheetId="13" r:id="rId5"/>
+    <sheet name="HTSE" sheetId="2" r:id="rId6"/>
     <sheet name="Capacity_Market" sheetId="3" r:id="rId7"/>
     <sheet name="NPP_capacities" sheetId="12" r:id="rId8"/>
   </sheets>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="204">
   <si>
     <t>Source</t>
   </si>
@@ -509,24 +509,15 @@
     <t>1000MW combined HTSE+FT power req</t>
   </si>
   <si>
-    <t>Constant Ft power req (MW)</t>
-  </si>
-  <si>
     <t>HTSE (MWe)</t>
   </si>
   <si>
-    <t>FT (kg-H2)</t>
-  </si>
-  <si>
     <t>H2 storage (kg-H2)</t>
   </si>
   <si>
     <t>Hydrogen storage steps</t>
   </si>
   <si>
-    <t>For SA cases only 5 points</t>
-  </si>
-  <si>
     <t>Max elec. Price</t>
   </si>
   <si>
@@ -624,14 +615,54 @@
   </si>
   <si>
     <t>naphtha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAPEX regression </t>
+  </si>
+  <si>
+    <t>ln(CAPEX) = ln(alpha)+x.ln(driver/ref)</t>
+  </si>
+  <si>
+    <t>ln(driver/ref)</t>
+  </si>
+  <si>
+    <t>ln(CAPEX)</t>
+  </si>
+  <si>
+    <t>Identification</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Scaling factor</t>
+  </si>
+  <si>
+    <t>Constant MeOH power req (MW)</t>
+  </si>
+  <si>
+    <t>Ask Hernan about this</t>
+  </si>
+  <si>
+    <t>H2 to MWe rate</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>H2 to MW rate MeOH</t>
+  </si>
+  <si>
+    <t>MeOH (kg-H2/h)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -679,7 +710,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,6 +725,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,7 +873,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -862,22 +899,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -887,10 +922,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -909,6 +952,1054 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>MeOH!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ln(CAPEX)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>MeOH!$C$37:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-2.3025850929940455</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.69314718055994529</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>MeOH!$D$37:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18.939006744588596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.747578800835441</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.300187874021002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30B2-0F45-83AD-7D6A2038D89E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="712821632"/>
+        <c:axId val="712799008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="712821632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712799008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="712799008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712821632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DBF04C5-6207-A072-DBA5-22A9E948388E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1207,6 +2298,1406 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9241F20-95C4-42A2-B03A-23B9DD4DBFA3}">
+  <dimension ref="A1:K54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:K44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>14.9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-9.9999999999999997E+199</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-9.9999999999999997E+199</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-9.9999999999999997E+199</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-9.9999999999999997E+199</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="46">
+        <v>0</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="40">
+        <f>MeOH!B47</f>
+        <v>22.260273972602739</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="H18" s="43"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G19" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="40"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="40">
+        <v>1194</v>
+      </c>
+      <c r="C20" s="40">
+        <f>MAX(-B20+$B$15, -1000+$B$15)</f>
+        <v>-1000</v>
+      </c>
+      <c r="D20" s="40">
+        <f>-100+$B$15</f>
+        <v>-100</v>
+      </c>
+      <c r="E20" s="47">
+        <f>C20*$B$16</f>
+        <v>-22260.273972602739</v>
+      </c>
+      <c r="F20" s="47">
+        <f>D20*$B$16</f>
+        <v>-2226.027397260274</v>
+      </c>
+      <c r="G20" s="45">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="45">
+        <f>ABS(E20)*24*I20</f>
+        <v>1068493.1506849315</v>
+      </c>
+      <c r="I20" s="40">
+        <f t="shared" ref="I20:I22" si="0">ROUNDUP(J20*$I$24/$J$24,0)</f>
+        <v>2</v>
+      </c>
+      <c r="J20" s="40">
+        <v>934</v>
+      </c>
+      <c r="K20" s="40"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="40">
+        <v>769</v>
+      </c>
+      <c r="C21" s="40">
+        <f t="shared" ref="C21:C24" si="1">MAX(-B21+$B$15, -1000+$B$15)</f>
+        <v>-769</v>
+      </c>
+      <c r="D21" s="40">
+        <f t="shared" ref="D21:D24" si="2">-100+$B$15</f>
+        <v>-100</v>
+      </c>
+      <c r="E21" s="47">
+        <f t="shared" ref="E21:E24" si="3">C21*$B$16</f>
+        <v>-17118.150684931508</v>
+      </c>
+      <c r="F21" s="47">
+        <f t="shared" ref="F21:F24" si="4">D21*$B$16</f>
+        <v>-2226.027397260274</v>
+      </c>
+      <c r="G21" s="45">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="45">
+        <f t="shared" ref="H21:H23" si="5">ABS(E21)*24*I21</f>
+        <v>2875849.3150684936</v>
+      </c>
+      <c r="I21" s="40">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J21" s="40">
+        <v>4231</v>
+      </c>
+      <c r="K21" s="40"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="40">
+        <v>894</v>
+      </c>
+      <c r="C22" s="40">
+        <f t="shared" si="1"/>
+        <v>-894</v>
+      </c>
+      <c r="D22" s="40">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="E22" s="47">
+        <f t="shared" si="3"/>
+        <v>-19900.68493150685</v>
+      </c>
+      <c r="F22" s="47">
+        <f t="shared" si="4"/>
+        <v>-2226.027397260274</v>
+      </c>
+      <c r="G22" s="45">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="45">
+        <f t="shared" si="5"/>
+        <v>955232.87671232875</v>
+      </c>
+      <c r="I22" s="40">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="J22" s="40">
+        <v>934</v>
+      </c>
+      <c r="K22" s="40"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="40">
+        <v>522</v>
+      </c>
+      <c r="C23" s="40">
+        <f t="shared" si="1"/>
+        <v>-522</v>
+      </c>
+      <c r="D23" s="40">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="E23" s="47">
+        <f t="shared" si="3"/>
+        <v>-11619.86301369863</v>
+      </c>
+      <c r="F23" s="47">
+        <f t="shared" si="4"/>
+        <v>-2226.027397260274</v>
+      </c>
+      <c r="G23" s="45">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="45">
+        <f t="shared" si="5"/>
+        <v>278876.71232876711</v>
+      </c>
+      <c r="I23" s="40">
+        <f>ROUNDUP(J23*$I$24/$J$24,0)</f>
+        <v>1</v>
+      </c>
+      <c r="J23" s="40">
+        <v>97</v>
+      </c>
+      <c r="K23" s="40"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="40">
+        <v>1280</v>
+      </c>
+      <c r="C24" s="40">
+        <f t="shared" si="1"/>
+        <v>-1000</v>
+      </c>
+      <c r="D24" s="40">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="E24" s="47">
+        <f t="shared" si="3"/>
+        <v>-22260.273972602739</v>
+      </c>
+      <c r="F24" s="47">
+        <f t="shared" si="4"/>
+        <v>-2226.027397260274</v>
+      </c>
+      <c r="G24" s="45">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="45">
+        <f>ABS(E24)*24*I24</f>
+        <v>7479452.0547945211</v>
+      </c>
+      <c r="I24" s="40">
+        <v>14</v>
+      </c>
+      <c r="J24" s="40">
+        <v>8997</v>
+      </c>
+      <c r="K24" s="40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="40">
+        <v>0</v>
+      </c>
+      <c r="C27" s="40">
+        <v>1</v>
+      </c>
+      <c r="D27" s="40">
+        <v>2</v>
+      </c>
+      <c r="E27" s="40">
+        <v>3</v>
+      </c>
+      <c r="F27" s="40">
+        <v>4</v>
+      </c>
+      <c r="G27" s="40">
+        <v>5</v>
+      </c>
+      <c r="H27" s="40">
+        <v>6</v>
+      </c>
+      <c r="I27" s="40">
+        <v>7</v>
+      </c>
+      <c r="J27" s="40">
+        <v>8</v>
+      </c>
+      <c r="K27" s="40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="45">
+        <f>$C20+B$27*ABS($C20-$D20)/9</f>
+        <v>-1000</v>
+      </c>
+      <c r="C28" s="45">
+        <f t="shared" ref="C28:K28" si="6">$C20+C$27*ABS($C20-$D20)/9</f>
+        <v>-900</v>
+      </c>
+      <c r="D28" s="45">
+        <f t="shared" si="6"/>
+        <v>-800</v>
+      </c>
+      <c r="E28" s="45">
+        <f t="shared" si="6"/>
+        <v>-700</v>
+      </c>
+      <c r="F28" s="45">
+        <f t="shared" si="6"/>
+        <v>-600</v>
+      </c>
+      <c r="G28" s="45">
+        <f t="shared" si="6"/>
+        <v>-500</v>
+      </c>
+      <c r="H28" s="45">
+        <f t="shared" si="6"/>
+        <v>-400</v>
+      </c>
+      <c r="I28" s="45">
+        <f t="shared" si="6"/>
+        <v>-300</v>
+      </c>
+      <c r="J28" s="45">
+        <f t="shared" si="6"/>
+        <v>-200</v>
+      </c>
+      <c r="K28" s="45">
+        <f t="shared" si="6"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="45">
+        <f t="shared" ref="B29:K32" si="7">$C21+B$27*ABS($C21-$D21)/9</f>
+        <v>-769</v>
+      </c>
+      <c r="C29" s="45">
+        <f t="shared" si="7"/>
+        <v>-694.66666666666663</v>
+      </c>
+      <c r="D29" s="45">
+        <f t="shared" si="7"/>
+        <v>-620.33333333333337</v>
+      </c>
+      <c r="E29" s="45">
+        <f t="shared" si="7"/>
+        <v>-546</v>
+      </c>
+      <c r="F29" s="45">
+        <f t="shared" si="7"/>
+        <v>-471.66666666666669</v>
+      </c>
+      <c r="G29" s="45">
+        <f t="shared" si="7"/>
+        <v>-397.33333333333331</v>
+      </c>
+      <c r="H29" s="45">
+        <f t="shared" si="7"/>
+        <v>-323</v>
+      </c>
+      <c r="I29" s="45">
+        <f t="shared" si="7"/>
+        <v>-248.66666666666663</v>
+      </c>
+      <c r="J29" s="45">
+        <f t="shared" si="7"/>
+        <v>-174.33333333333337</v>
+      </c>
+      <c r="K29" s="45">
+        <f t="shared" si="7"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="45">
+        <f t="shared" si="7"/>
+        <v>-894</v>
+      </c>
+      <c r="C30" s="45">
+        <f t="shared" si="7"/>
+        <v>-805.77777777777783</v>
+      </c>
+      <c r="D30" s="45">
+        <f t="shared" si="7"/>
+        <v>-717.55555555555554</v>
+      </c>
+      <c r="E30" s="45">
+        <f t="shared" si="7"/>
+        <v>-629.33333333333326</v>
+      </c>
+      <c r="F30" s="45">
+        <f t="shared" si="7"/>
+        <v>-541.11111111111109</v>
+      </c>
+      <c r="G30" s="45">
+        <f t="shared" si="7"/>
+        <v>-452.88888888888891</v>
+      </c>
+      <c r="H30" s="45">
+        <f t="shared" si="7"/>
+        <v>-364.66666666666663</v>
+      </c>
+      <c r="I30" s="45">
+        <f t="shared" si="7"/>
+        <v>-276.44444444444446</v>
+      </c>
+      <c r="J30" s="45">
+        <f t="shared" si="7"/>
+        <v>-188.22222222222217</v>
+      </c>
+      <c r="K30" s="45">
+        <f t="shared" si="7"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="45">
+        <f t="shared" si="7"/>
+        <v>-522</v>
+      </c>
+      <c r="C31" s="45">
+        <f t="shared" si="7"/>
+        <v>-475.11111111111109</v>
+      </c>
+      <c r="D31" s="45">
+        <f t="shared" si="7"/>
+        <v>-428.22222222222223</v>
+      </c>
+      <c r="E31" s="45">
+        <f t="shared" si="7"/>
+        <v>-381.33333333333337</v>
+      </c>
+      <c r="F31" s="45">
+        <f t="shared" si="7"/>
+        <v>-334.44444444444446</v>
+      </c>
+      <c r="G31" s="45">
+        <f t="shared" si="7"/>
+        <v>-287.55555555555554</v>
+      </c>
+      <c r="H31" s="45">
+        <f t="shared" si="7"/>
+        <v>-240.66666666666669</v>
+      </c>
+      <c r="I31" s="45">
+        <f t="shared" si="7"/>
+        <v>-193.77777777777777</v>
+      </c>
+      <c r="J31" s="45">
+        <f t="shared" si="7"/>
+        <v>-146.88888888888891</v>
+      </c>
+      <c r="K31" s="45">
+        <f t="shared" si="7"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B32" s="45">
+        <f t="shared" si="7"/>
+        <v>-1000</v>
+      </c>
+      <c r="C32" s="45">
+        <f t="shared" si="7"/>
+        <v>-900</v>
+      </c>
+      <c r="D32" s="45">
+        <f t="shared" si="7"/>
+        <v>-800</v>
+      </c>
+      <c r="E32" s="45">
+        <f t="shared" si="7"/>
+        <v>-700</v>
+      </c>
+      <c r="F32" s="45">
+        <f t="shared" si="7"/>
+        <v>-600</v>
+      </c>
+      <c r="G32" s="45">
+        <f t="shared" si="7"/>
+        <v>-500</v>
+      </c>
+      <c r="H32" s="45">
+        <f t="shared" si="7"/>
+        <v>-400</v>
+      </c>
+      <c r="I32" s="45">
+        <f t="shared" si="7"/>
+        <v>-300</v>
+      </c>
+      <c r="J32" s="45">
+        <f t="shared" si="7"/>
+        <v>-200</v>
+      </c>
+      <c r="K32" s="45">
+        <f t="shared" si="7"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="40">
+        <v>0</v>
+      </c>
+      <c r="C35" s="40">
+        <v>1</v>
+      </c>
+      <c r="D35" s="40">
+        <v>2</v>
+      </c>
+      <c r="E35" s="40">
+        <v>3</v>
+      </c>
+      <c r="F35" s="40">
+        <v>4</v>
+      </c>
+      <c r="G35" s="40">
+        <v>5</v>
+      </c>
+      <c r="H35" s="40">
+        <v>6</v>
+      </c>
+      <c r="I35" s="40">
+        <v>7</v>
+      </c>
+      <c r="J35" s="40">
+        <v>8</v>
+      </c>
+      <c r="K35" s="40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="45">
+        <f>$E20+B$35*ABS($E20-$F20)/9</f>
+        <v>-22260.273972602739</v>
+      </c>
+      <c r="C36" s="45">
+        <f t="shared" ref="C36:K36" si="8">$E20+C$35*ABS($E20-$F20)/9</f>
+        <v>-20034.246575342466</v>
+      </c>
+      <c r="D36" s="45">
+        <f t="shared" si="8"/>
+        <v>-17808.219178082192</v>
+      </c>
+      <c r="E36" s="45">
+        <f t="shared" si="8"/>
+        <v>-15582.191780821917</v>
+      </c>
+      <c r="F36" s="45">
+        <f t="shared" si="8"/>
+        <v>-13356.164383561643</v>
+      </c>
+      <c r="G36" s="45">
+        <f t="shared" si="8"/>
+        <v>-11130.13698630137</v>
+      </c>
+      <c r="H36" s="45">
+        <f t="shared" si="8"/>
+        <v>-8904.1095890410943</v>
+      </c>
+      <c r="I36" s="45">
+        <f t="shared" si="8"/>
+        <v>-6678.0821917808207</v>
+      </c>
+      <c r="J36" s="45">
+        <f t="shared" si="8"/>
+        <v>-4452.0547945205471</v>
+      </c>
+      <c r="K36" s="45">
+        <f t="shared" si="8"/>
+        <v>-2226.0273972602736</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="45">
+        <f t="shared" ref="B37:K40" si="9">$E21+B$35*ABS($E21-$F21)/9</f>
+        <v>-17118.150684931508</v>
+      </c>
+      <c r="C37" s="45">
+        <f t="shared" si="9"/>
+        <v>-15463.470319634704</v>
+      </c>
+      <c r="D37" s="45">
+        <f t="shared" si="9"/>
+        <v>-13808.789954337901</v>
+      </c>
+      <c r="E37" s="45">
+        <f t="shared" si="9"/>
+        <v>-12154.109589041096</v>
+      </c>
+      <c r="F37" s="45">
+        <f t="shared" si="9"/>
+        <v>-10499.429223744293</v>
+      </c>
+      <c r="G37" s="45">
+        <f t="shared" si="9"/>
+        <v>-8844.7488584474886</v>
+      </c>
+      <c r="H37" s="45">
+        <f t="shared" si="9"/>
+        <v>-7190.0684931506839</v>
+      </c>
+      <c r="I37" s="45">
+        <f t="shared" si="9"/>
+        <v>-5535.3881278538811</v>
+      </c>
+      <c r="J37" s="45">
+        <f t="shared" si="9"/>
+        <v>-3880.7077625570782</v>
+      </c>
+      <c r="K37" s="45">
+        <f t="shared" si="9"/>
+        <v>-2226.0273972602718</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="45">
+        <f t="shared" si="9"/>
+        <v>-19900.68493150685</v>
+      </c>
+      <c r="C38" s="45">
+        <f t="shared" si="9"/>
+        <v>-17936.834094368343</v>
+      </c>
+      <c r="D38" s="45">
+        <f t="shared" si="9"/>
+        <v>-15972.983257229833</v>
+      </c>
+      <c r="E38" s="45">
+        <f t="shared" si="9"/>
+        <v>-14009.132420091326</v>
+      </c>
+      <c r="F38" s="45">
+        <f t="shared" si="9"/>
+        <v>-12045.281582952815</v>
+      </c>
+      <c r="G38" s="45">
+        <f t="shared" si="9"/>
+        <v>-10081.430745814307</v>
+      </c>
+      <c r="H38" s="45">
+        <f t="shared" si="9"/>
+        <v>-8117.5799086757997</v>
+      </c>
+      <c r="I38" s="45">
+        <f t="shared" si="9"/>
+        <v>-6153.729071537291</v>
+      </c>
+      <c r="J38" s="45">
+        <f t="shared" si="9"/>
+        <v>-4189.8782343987823</v>
+      </c>
+      <c r="K38" s="45">
+        <f t="shared" si="9"/>
+        <v>-2226.0273972602736</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="45">
+        <f t="shared" si="9"/>
+        <v>-11619.86301369863</v>
+      </c>
+      <c r="C39" s="45">
+        <f t="shared" si="9"/>
+        <v>-10576.103500761035</v>
+      </c>
+      <c r="D39" s="45">
+        <f t="shared" si="9"/>
+        <v>-9532.3439878234403</v>
+      </c>
+      <c r="E39" s="45">
+        <f t="shared" si="9"/>
+        <v>-8488.5844748858453</v>
+      </c>
+      <c r="F39" s="45">
+        <f t="shared" si="9"/>
+        <v>-7444.8249619482494</v>
+      </c>
+      <c r="G39" s="45">
+        <f t="shared" si="9"/>
+        <v>-6401.0654490106544</v>
+      </c>
+      <c r="H39" s="45">
+        <f t="shared" si="9"/>
+        <v>-5357.3059360730595</v>
+      </c>
+      <c r="I39" s="45">
+        <f t="shared" si="9"/>
+        <v>-4313.5464231354645</v>
+      </c>
+      <c r="J39" s="45">
+        <f t="shared" si="9"/>
+        <v>-3269.7869101978686</v>
+      </c>
+      <c r="K39" s="45">
+        <f t="shared" si="9"/>
+        <v>-2226.0273972602736</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="45">
+        <f t="shared" si="9"/>
+        <v>-22260.273972602739</v>
+      </c>
+      <c r="C40" s="45">
+        <f t="shared" si="9"/>
+        <v>-20034.246575342466</v>
+      </c>
+      <c r="D40" s="45">
+        <f t="shared" si="9"/>
+        <v>-17808.219178082192</v>
+      </c>
+      <c r="E40" s="45">
+        <f t="shared" si="9"/>
+        <v>-15582.191780821917</v>
+      </c>
+      <c r="F40" s="45">
+        <f t="shared" si="9"/>
+        <v>-13356.164383561643</v>
+      </c>
+      <c r="G40" s="45">
+        <f t="shared" si="9"/>
+        <v>-11130.13698630137</v>
+      </c>
+      <c r="H40" s="45">
+        <f t="shared" si="9"/>
+        <v>-8904.1095890410943</v>
+      </c>
+      <c r="I40" s="45">
+        <f t="shared" si="9"/>
+        <v>-6678.0821917808207</v>
+      </c>
+      <c r="J40" s="45">
+        <f t="shared" si="9"/>
+        <v>-4452.0547945205471</v>
+      </c>
+      <c r="K40" s="45">
+        <f t="shared" si="9"/>
+        <v>-2226.0273972602736</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="40"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="40"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="40">
+        <v>0</v>
+      </c>
+      <c r="C43" s="40">
+        <v>1</v>
+      </c>
+      <c r="D43" s="40">
+        <v>2</v>
+      </c>
+      <c r="E43" s="40">
+        <v>3</v>
+      </c>
+      <c r="F43" s="40">
+        <v>4</v>
+      </c>
+      <c r="G43" s="40">
+        <v>5</v>
+      </c>
+      <c r="H43" s="40">
+        <v>6</v>
+      </c>
+      <c r="I43" s="40">
+        <v>7</v>
+      </c>
+      <c r="J43" s="40">
+        <v>8</v>
+      </c>
+      <c r="K43" s="40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="45">
+        <f>B$43*ABS($G20-$H20)/9</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="45">
+        <f t="shared" ref="C44:J44" si="10">C$43*ABS($G20-$H20)/9</f>
+        <v>118721.46118721462</v>
+      </c>
+      <c r="D44" s="45">
+        <f t="shared" si="10"/>
+        <v>237442.92237442924</v>
+      </c>
+      <c r="E44" s="45">
+        <f t="shared" si="10"/>
+        <v>356164.38356164389</v>
+      </c>
+      <c r="F44" s="45">
+        <f t="shared" si="10"/>
+        <v>474885.84474885848</v>
+      </c>
+      <c r="G44" s="45">
+        <f t="shared" si="10"/>
+        <v>593607.30593607307</v>
+      </c>
+      <c r="H44" s="45">
+        <f t="shared" si="10"/>
+        <v>712328.76712328778</v>
+      </c>
+      <c r="I44" s="45">
+        <f t="shared" si="10"/>
+        <v>831050.22831050237</v>
+      </c>
+      <c r="J44" s="45">
+        <f t="shared" si="10"/>
+        <v>949771.68949771696</v>
+      </c>
+      <c r="K44" s="45">
+        <f>K$43*ABS($G20-$H20)/9</f>
+        <v>1068493.1506849315</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="45">
+        <f t="shared" ref="B45:K45" si="11">B$43*ABS($G21-$H21)/9</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="45">
+        <f t="shared" si="11"/>
+        <v>319538.8127853882</v>
+      </c>
+      <c r="D45" s="45">
+        <f t="shared" si="11"/>
+        <v>639077.62557077641</v>
+      </c>
+      <c r="E45" s="45">
+        <f t="shared" si="11"/>
+        <v>958616.43835616438</v>
+      </c>
+      <c r="F45" s="45">
+        <f t="shared" si="11"/>
+        <v>1278155.2511415528</v>
+      </c>
+      <c r="G45" s="45">
+        <f t="shared" si="11"/>
+        <v>1597694.063926941</v>
+      </c>
+      <c r="H45" s="45">
+        <f t="shared" si="11"/>
+        <v>1917232.8767123288</v>
+      </c>
+      <c r="I45" s="45">
+        <f t="shared" si="11"/>
+        <v>2236771.6894977172</v>
+      </c>
+      <c r="J45" s="45">
+        <f t="shared" si="11"/>
+        <v>2556310.5022831056</v>
+      </c>
+      <c r="K45" s="45">
+        <f t="shared" si="11"/>
+        <v>2875849.3150684936</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="45">
+        <f t="shared" ref="B46:K46" si="12">B$43*ABS($G22-$H22)/9</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="45">
+        <f t="shared" si="12"/>
+        <v>106136.98630136986</v>
+      </c>
+      <c r="D46" s="45">
+        <f t="shared" si="12"/>
+        <v>212273.97260273973</v>
+      </c>
+      <c r="E46" s="45">
+        <f t="shared" si="12"/>
+        <v>318410.9589041096</v>
+      </c>
+      <c r="F46" s="45">
+        <f t="shared" si="12"/>
+        <v>424547.94520547945</v>
+      </c>
+      <c r="G46" s="45">
+        <f t="shared" si="12"/>
+        <v>530684.93150684936</v>
+      </c>
+      <c r="H46" s="45">
+        <f t="shared" si="12"/>
+        <v>636821.91780821921</v>
+      </c>
+      <c r="I46" s="45">
+        <f t="shared" si="12"/>
+        <v>742958.90410958906</v>
+      </c>
+      <c r="J46" s="45">
+        <f t="shared" si="12"/>
+        <v>849095.89041095891</v>
+      </c>
+      <c r="K46" s="45">
+        <f t="shared" si="12"/>
+        <v>955232.87671232887</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B47" s="45">
+        <f t="shared" ref="B47:K47" si="13">B$43*ABS($G23-$H23)/9</f>
+        <v>0</v>
+      </c>
+      <c r="C47" s="45">
+        <f t="shared" si="13"/>
+        <v>30986.301369863013</v>
+      </c>
+      <c r="D47" s="45">
+        <f t="shared" si="13"/>
+        <v>61972.602739726026</v>
+      </c>
+      <c r="E47" s="45">
+        <f t="shared" si="13"/>
+        <v>92958.904109589028</v>
+      </c>
+      <c r="F47" s="45">
+        <f t="shared" si="13"/>
+        <v>123945.20547945205</v>
+      </c>
+      <c r="G47" s="45">
+        <f t="shared" si="13"/>
+        <v>154931.50684931508</v>
+      </c>
+      <c r="H47" s="45">
+        <f t="shared" si="13"/>
+        <v>185917.80821917806</v>
+      </c>
+      <c r="I47" s="45">
+        <f t="shared" si="13"/>
+        <v>216904.10958904109</v>
+      </c>
+      <c r="J47" s="45">
+        <f t="shared" si="13"/>
+        <v>247890.4109589041</v>
+      </c>
+      <c r="K47" s="45">
+        <f t="shared" si="13"/>
+        <v>278876.71232876711</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48" s="45">
+        <f t="shared" ref="B48:K48" si="14">B$43*ABS($G24-$H24)/9</f>
+        <v>0</v>
+      </c>
+      <c r="C48" s="45">
+        <f t="shared" si="14"/>
+        <v>831050.22831050237</v>
+      </c>
+      <c r="D48" s="45">
+        <f t="shared" si="14"/>
+        <v>1662100.4566210047</v>
+      </c>
+      <c r="E48" s="45">
+        <f t="shared" si="14"/>
+        <v>2493150.6849315073</v>
+      </c>
+      <c r="F48" s="45">
+        <f t="shared" si="14"/>
+        <v>3324200.9132420095</v>
+      </c>
+      <c r="G48" s="45">
+        <f t="shared" si="14"/>
+        <v>4155251.1415525121</v>
+      </c>
+      <c r="H48" s="45">
+        <f t="shared" si="14"/>
+        <v>4986301.3698630147</v>
+      </c>
+      <c r="I48" s="45">
+        <f t="shared" si="14"/>
+        <v>5817351.5981735168</v>
+      </c>
+      <c r="J48" s="45">
+        <f t="shared" si="14"/>
+        <v>6648401.8264840189</v>
+      </c>
+      <c r="K48" s="45">
+        <f t="shared" si="14"/>
+        <v>7479452.054794522</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="40"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="K49" s="40"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="40"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="40"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="40"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="40"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="40"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="K53" s="40"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="40"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="G18:H18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17762179-2135-43B7-98DA-D4A6A7868310}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -1232,10 +3723,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
+      <c r="B2" s="36"/>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -1363,7 +3854,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926ACCEB-6613-41C3-AB8E-7E632C9D30FD}">
   <dimension ref="A1:H20"/>
   <sheetViews>
@@ -1403,26 +3894,26 @@
       <c r="B4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -1494,15 +3985,15 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -1580,22 +4071,22 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -1609,11 +4100,11 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -1654,38 +4145,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E49A404-39E7-6B45-B584-7FD70EB84AF5}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B2">
         <v>1.2E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H2">
         <v>3.7854100000000002</v>
@@ -1693,12 +4184,12 @@
     </row>
     <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
-        <v>165</v>
+      <c r="A4" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="B4" s="23">
         <v>100</v>
@@ -1706,11 +4197,11 @@
       <c r="C4" s="23">
         <v>500</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="29">
         <v>1000</v>
       </c>
       <c r="G4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H4">
         <v>0.77</v>
@@ -1720,20 +4211,20 @@
       <c r="A5" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5">
         <f>MeOH_original_data!B2*(1+MeOH!$B$2)</f>
         <v>167921429.192</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5">
         <f>MeOH_original_data!C2*(1+MeOH!$B$2)</f>
         <v>376933297.796</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="27">
         <f>MeOH_original_data!D2*(1+MeOH!$B$2)</f>
         <v>655027563.25600004</v>
       </c>
       <c r="G5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H5">
         <v>0.8</v>
@@ -1741,22 +4232,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="31">
+        <v>163</v>
+      </c>
+      <c r="B6">
         <f>MeOH_original_data!B3*(1+MeOH!$B$2)</f>
         <v>11297541.948000001</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6">
         <f>MeOH_original_data!C3*(1+MeOH!$B$2)</f>
         <v>19962889.100000001</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="27">
         <f>MeOH_original_data!D3*(1+MeOH!$B$2)</f>
         <v>27050057.672000002</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="H6">
         <v>0.85</v>
@@ -1764,35 +4255,33 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B8" s="31">
+        <v>171</v>
+      </c>
+      <c r="B8">
         <f>SUM(B9:B13)</f>
         <v>631442.96600000001</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8">
         <f t="shared" ref="C8:D8" si="0">SUM(C9:C13)</f>
         <v>3156650.1339999996</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="27">
         <f t="shared" si="0"/>
         <v>6314321.8819999993</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="31">
+        <v>164</v>
+      </c>
+      <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" s="13">
@@ -1801,12 +4290,12 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="31">
+        <v>165</v>
+      </c>
+      <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" s="13">
@@ -1815,12 +4304,12 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" s="31">
+        <v>166</v>
+      </c>
+      <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" s="13">
@@ -1829,13 +4318,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B12" s="31">
+        <v>167</v>
+      </c>
+      <c r="B12">
         <f>0.25*MeOH_original_data!B8*(1+MeOH!$B$2)</f>
         <v>125952.00200000001</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12">
         <f>0.25*MeOH_original_data!C8*(1+MeOH!$B$2)</f>
         <v>629646.91899999999</v>
       </c>
@@ -1846,7 +4335,7 @@
     </row>
     <row r="13" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B13" s="22">
         <f>0.25*MeOH_original_data!B9*(1+MeOH!$B$2)</f>
@@ -1863,25 +4352,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="33" t="s">
-        <v>165</v>
+      <c r="A19" s="28" t="s">
+        <v>162</v>
       </c>
       <c r="B19" s="23">
         <v>100</v>
@@ -1895,7 +4384,7 @@
     </row>
     <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="37" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B20" s="38"/>
       <c r="C20" s="38"/>
@@ -1903,41 +4392,41 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="40">
+        <v>164</v>
+      </c>
+      <c r="B21" s="32">
         <f>MeOH_original_data!B18*1000/(365*24)</f>
         <v>2226.027397260274</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="32">
         <f>MeOH_original_data!C18*1000/(365*24)</f>
         <v>11130.13698630137</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="33">
         <f>MeOH_original_data!D18*1000/(365*24)</f>
         <v>22260.273972602739</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B22" s="40">
+        <v>176</v>
+      </c>
+      <c r="B22" s="32">
         <f>MeOH_original_data!B19*1000/(365*24)</f>
         <v>13384.817351598174</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="32">
         <f>MeOH_original_data!C19*1000/(365*24)</f>
         <v>66917.922374429225</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="33">
         <f>MeOH_original_data!D19*1000/(365*24)</f>
         <v>133848.74429223745</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B23" s="38"/>
       <c r="C23" s="38"/>
@@ -1945,58 +4434,58 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B24" s="35">
+        <v>174</v>
+      </c>
+      <c r="B24" s="30">
         <f>MeOH_original_data!B21*1000000/(365*24)</f>
         <v>70.776255707762559</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="30">
         <f>MeOH_original_data!C21*1000000/(365*24)</f>
         <v>352.73972602739724</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="31">
         <f>MeOH_original_data!D21*1000000/(365*24)</f>
         <v>705.47945205479448</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B25" s="35">
+        <v>178</v>
+      </c>
+      <c r="B25" s="30">
         <f>MeOH_original_data!B22*1000000/(365*24)</f>
         <v>303.65296803652967</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="30">
         <f>MeOH_original_data!C22*1000000/(365*24)</f>
         <v>1519.4063926940639</v>
       </c>
-      <c r="D25" s="36">
+      <c r="D25" s="31">
         <f>MeOH_original_data!D22*1000000/(365*24)</f>
         <v>3039.9543378995436</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="B26" s="35">
+        <v>179</v>
+      </c>
+      <c r="B26" s="30">
         <f>MeOH_original_data!B23*1000000/(365*24)</f>
         <v>1114.1552511415525</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="30">
         <f>MeOH_original_data!C23*1000000/(365*24)</f>
         <v>5567.3515981735163</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="31">
         <f>MeOH_original_data!D23*1000000/(365*24)</f>
         <v>11135.844748858448</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B27" s="38"/>
       <c r="C27" s="38"/>
@@ -2007,15 +4496,15 @@
         <f>A24</f>
         <v xml:space="preserve">naphtha </v>
       </c>
-      <c r="B28" s="40">
+      <c r="B28" s="32">
         <f>B24*$H$2*$H4</f>
         <v>206.29620251141554</v>
       </c>
-      <c r="C28" s="40">
+      <c r="C28" s="32">
         <f t="shared" ref="C28:D28" si="1">C24*$H$2*$H4</f>
         <v>1028.1536544520548</v>
       </c>
-      <c r="D28" s="41">
+      <c r="D28" s="33">
         <f t="shared" si="1"/>
         <v>2056.3073089041095</v>
       </c>
@@ -2025,15 +4514,15 @@
         <f t="shared" ref="A29:A30" si="2">A25</f>
         <v>jet fuel</v>
       </c>
-      <c r="B29" s="40">
+      <c r="B29" s="32">
         <f t="shared" ref="B29:D29" si="3">B25*$H$2*$H5</f>
         <v>919.5607853881279</v>
       </c>
-      <c r="C29" s="40">
+      <c r="C29" s="32">
         <f t="shared" si="3"/>
         <v>4601.2609223744294</v>
       </c>
-      <c r="D29" s="41">
+      <c r="D29" s="33">
         <f t="shared" si="3"/>
         <v>9205.9788401826499</v>
       </c>
@@ -2043,17 +4532,180 @@
         <f t="shared" si="2"/>
         <v>diesel</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="34">
         <f t="shared" ref="B30:D30" si="4">B26*$H$2*$H6</f>
         <v>3584.9042648401823</v>
       </c>
-      <c r="C30" s="42">
+      <c r="C30" s="34">
         <f t="shared" si="4"/>
         <v>17913.502151255707</v>
       </c>
-      <c r="D30" s="43">
+      <c r="D30" s="35">
         <f t="shared" si="4"/>
         <v>35830.677360159818</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>500</v>
+      </c>
+      <c r="D34">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35">
+        <v>167921429.192</v>
+      </c>
+      <c r="C35">
+        <v>376933297.796</v>
+      </c>
+      <c r="D35">
+        <v>655027563.25600004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>193</v>
+      </c>
+      <c r="D36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>100</v>
+      </c>
+      <c r="B37">
+        <v>167921429.192</v>
+      </c>
+      <c r="C37">
+        <f>LN(A37/$A$39)</f>
+        <v>-2.3025850929940455</v>
+      </c>
+      <c r="D37">
+        <f>LN(B37)</f>
+        <v>18.939006744588596</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>500</v>
+      </c>
+      <c r="B38">
+        <v>376933297.796</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:C39" si="5">LN(A38/$A$39)</f>
+        <v>-0.69314718055994529</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:D39" si="6">LN(B38)</f>
+        <v>19.747578800835441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1000</v>
+      </c>
+      <c r="B39">
+        <v>655027563.25600004</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="6"/>
+        <v>20.300187874021002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="25">
+        <f>EXP(20.237)</f>
+        <v>614918317.57584751</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" s="25">
+        <v>0.57550000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>201</v>
+      </c>
+      <c r="B45">
+        <f>B19</f>
+        <v>100</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:D45" si="7">C19</f>
+        <v>500</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46">
+        <f>B21/B45</f>
+        <v>22.260273972602739</v>
+      </c>
+      <c r="C46">
+        <f t="shared" ref="C46:D46" si="8">C21/C45</f>
+        <v>22.260273972602739</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="8"/>
+        <v>22.260273972602739</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47">
+        <f>B46</f>
+        <v>22.260273972602739</v>
       </c>
     </row>
   </sheetData>
@@ -2063,10 +4715,11 @@
     <mergeCell ref="A27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDBD3A5-912B-984E-9A90-BB156C754950}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -2082,7 +4735,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1">
         <v>100</v>
@@ -2110,7 +4763,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B3">
         <v>11163579</v>
@@ -2124,7 +4777,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B4">
         <v>41496911</v>
@@ -2138,7 +4791,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B5">
         <v>33150</v>
@@ -2152,7 +4805,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B6">
         <v>3972302</v>
@@ -2166,7 +4819,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B7">
         <v>2878787</v>
@@ -2180,7 +4833,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B8">
         <v>497834</v>
@@ -2194,7 +4847,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B9">
         <v>1997988</v>
@@ -2207,28 +4860,28 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
-        <v>172</v>
+      <c r="A11" s="26" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B16">
         <v>100</v>
@@ -2242,12 +4895,12 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B18">
         <v>19500</v>
@@ -2261,7 +4914,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B19">
         <v>117251</v>
@@ -2275,12 +4928,12 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B21">
         <v>0.62</v>
@@ -2294,7 +4947,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B22">
         <v>2.66</v>
@@ -2308,7 +4961,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B23">
         <v>9.76</v>
@@ -2326,7 +4979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0215393-90AE-4217-9780-C6903F6FBFD3}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -2497,1217 +5150,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9241F20-95C4-42A2-B03A-23B9DD4DBFA3}">
-  <dimension ref="A1:K48"/>
-  <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="11.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5">
-        <v>14.9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="2">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="2">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="2">
-        <v>-9.9999999999999997E+199</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15">
-        <v>14.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="H18" s="28"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" t="s">
-        <v>163</v>
-      </c>
-      <c r="J19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20">
-        <v>1194</v>
-      </c>
-      <c r="C20">
-        <f>MAX(-B20+$B$15, -1000+$B$15)</f>
-        <v>-985.1</v>
-      </c>
-      <c r="D20">
-        <f>-100+$B$15</f>
-        <v>-85.1</v>
-      </c>
-      <c r="E20">
-        <f>C20*25.13</f>
-        <v>-24755.562999999998</v>
-      </c>
-      <c r="F20">
-        <f>D20*25.13</f>
-        <v>-2138.5629999999996</v>
-      </c>
-      <c r="G20">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <f>ABS(E20)*24*I20</f>
-        <v>1188267.024</v>
-      </c>
-      <c r="I20">
-        <f t="shared" ref="I20:I22" si="0">ROUNDUP(J20*$I$24/$J$24,0)</f>
-        <v>2</v>
-      </c>
-      <c r="J20">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>164</v>
-      </c>
-      <c r="B21">
-        <v>769</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ref="C21:C24" si="1">MAX(-B21+$B$15, -1000+$B$15)</f>
-        <v>-754.1</v>
-      </c>
-      <c r="D21">
-        <f t="shared" ref="D21:D24" si="2">-100+$B$15</f>
-        <v>-85.1</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ref="E21" si="3">C21*25.13</f>
-        <v>-18950.532999999999</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ref="F21" si="4">D21*25.13</f>
-        <v>-2138.5629999999996</v>
-      </c>
-      <c r="G21">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <f t="shared" ref="H21:H23" si="5">ABS(E21)*24*I21</f>
-        <v>3183689.5440000002</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="J21">
-        <v>4231</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22">
-        <v>894</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="1"/>
-        <v>-879.1</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>-85.1</v>
-      </c>
-      <c r="E22">
-        <f>C22*25.13</f>
-        <v>-22091.782999999999</v>
-      </c>
-      <c r="F22">
-        <f>D22*25.13</f>
-        <v>-2138.5629999999996</v>
-      </c>
-      <c r="G22">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="5"/>
-        <v>1060405.584</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J22">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23">
-        <v>522</v>
-      </c>
-      <c r="C23">
-        <f t="shared" si="1"/>
-        <v>-507.1</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="2"/>
-        <v>-85.1</v>
-      </c>
-      <c r="E23">
-        <f t="shared" ref="E23" si="6">C23*25.13</f>
-        <v>-12743.423000000001</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ref="F23" si="7">D23*25.13</f>
-        <v>-2138.5629999999996</v>
-      </c>
-      <c r="G23">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="5"/>
-        <v>305842.152</v>
-      </c>
-      <c r="I23">
-        <f>ROUNDUP(J23*$I$24/$J$24,0)</f>
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24">
-        <v>1280</v>
-      </c>
-      <c r="C24">
-        <f t="shared" si="1"/>
-        <v>-985.1</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="2"/>
-        <v>-85.1</v>
-      </c>
-      <c r="E24">
-        <f>C24*25.13</f>
-        <v>-24755.562999999998</v>
-      </c>
-      <c r="F24">
-        <f>D24*25.13</f>
-        <v>-2138.5629999999996</v>
-      </c>
-      <c r="G24">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <f>ABS(E24)*24*I24</f>
-        <v>8317869.1679999996</v>
-      </c>
-      <c r="I24">
-        <v>14</v>
-      </c>
-      <c r="J24">
-        <v>8997</v>
-      </c>
-      <c r="K24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27" s="26">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="26">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27" s="26">
-        <v>4</v>
-      </c>
-      <c r="G27">
-        <v>5</v>
-      </c>
-      <c r="H27" s="26">
-        <v>6</v>
-      </c>
-      <c r="I27">
-        <v>7</v>
-      </c>
-      <c r="J27" s="26">
-        <v>8</v>
-      </c>
-      <c r="K27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="27">
-        <f>$C20+B$27*ABS($C20-$D20)/9</f>
-        <v>-985.1</v>
-      </c>
-      <c r="C28" s="25">
-        <f t="shared" ref="C28:K28" si="8">$C20+C$27*ABS($C20-$D20)/9</f>
-        <v>-885.1</v>
-      </c>
-      <c r="D28" s="27">
-        <f t="shared" si="8"/>
-        <v>-785.1</v>
-      </c>
-      <c r="E28" s="25">
-        <f t="shared" si="8"/>
-        <v>-685.1</v>
-      </c>
-      <c r="F28" s="27">
-        <f t="shared" si="8"/>
-        <v>-585.1</v>
-      </c>
-      <c r="G28" s="25">
-        <f t="shared" si="8"/>
-        <v>-485.1</v>
-      </c>
-      <c r="H28" s="27">
-        <f t="shared" si="8"/>
-        <v>-385.1</v>
-      </c>
-      <c r="I28" s="25">
-        <f t="shared" si="8"/>
-        <v>-285.10000000000002</v>
-      </c>
-      <c r="J28" s="27">
-        <f t="shared" si="8"/>
-        <v>-185.10000000000002</v>
-      </c>
-      <c r="K28" s="25">
-        <f t="shared" si="8"/>
-        <v>-85.100000000000023</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="27">
-        <f t="shared" ref="B29:K32" si="9">$C21+B$27*ABS($C21-$D21)/9</f>
-        <v>-754.1</v>
-      </c>
-      <c r="C29" s="25">
-        <f t="shared" si="9"/>
-        <v>-679.76666666666665</v>
-      </c>
-      <c r="D29" s="27">
-        <f t="shared" si="9"/>
-        <v>-605.43333333333339</v>
-      </c>
-      <c r="E29" s="25">
-        <f t="shared" si="9"/>
-        <v>-531.1</v>
-      </c>
-      <c r="F29" s="27">
-        <f t="shared" si="9"/>
-        <v>-456.76666666666671</v>
-      </c>
-      <c r="G29" s="25">
-        <f t="shared" si="9"/>
-        <v>-382.43333333333334</v>
-      </c>
-      <c r="H29" s="27">
-        <f t="shared" si="9"/>
-        <v>-308.10000000000002</v>
-      </c>
-      <c r="I29" s="25">
-        <f t="shared" si="9"/>
-        <v>-233.76666666666665</v>
-      </c>
-      <c r="J29" s="27">
-        <f t="shared" si="9"/>
-        <v>-159.43333333333339</v>
-      </c>
-      <c r="K29" s="25">
-        <f t="shared" si="9"/>
-        <v>-85.100000000000023</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" s="27">
-        <f t="shared" si="9"/>
-        <v>-879.1</v>
-      </c>
-      <c r="C30" s="25">
-        <f t="shared" si="9"/>
-        <v>-790.87777777777774</v>
-      </c>
-      <c r="D30" s="27">
-        <f t="shared" si="9"/>
-        <v>-702.65555555555557</v>
-      </c>
-      <c r="E30" s="25">
-        <f t="shared" si="9"/>
-        <v>-614.43333333333339</v>
-      </c>
-      <c r="F30" s="27">
-        <f t="shared" si="9"/>
-        <v>-526.21111111111111</v>
-      </c>
-      <c r="G30" s="25">
-        <f t="shared" si="9"/>
-        <v>-437.98888888888894</v>
-      </c>
-      <c r="H30" s="27">
-        <f t="shared" si="9"/>
-        <v>-349.76666666666665</v>
-      </c>
-      <c r="I30" s="25">
-        <f t="shared" si="9"/>
-        <v>-261.54444444444448</v>
-      </c>
-      <c r="J30" s="27">
-        <f t="shared" si="9"/>
-        <v>-173.32222222222219</v>
-      </c>
-      <c r="K30" s="25">
-        <f t="shared" si="9"/>
-        <v>-85.100000000000023</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="27">
-        <f t="shared" si="9"/>
-        <v>-507.1</v>
-      </c>
-      <c r="C31" s="25">
-        <f t="shared" si="9"/>
-        <v>-460.21111111111111</v>
-      </c>
-      <c r="D31" s="27">
-        <f t="shared" si="9"/>
-        <v>-413.32222222222225</v>
-      </c>
-      <c r="E31" s="25">
-        <f t="shared" si="9"/>
-        <v>-366.43333333333339</v>
-      </c>
-      <c r="F31" s="27">
-        <f t="shared" si="9"/>
-        <v>-319.54444444444448</v>
-      </c>
-      <c r="G31" s="25">
-        <f t="shared" si="9"/>
-        <v>-272.65555555555557</v>
-      </c>
-      <c r="H31" s="27">
-        <f t="shared" si="9"/>
-        <v>-225.76666666666671</v>
-      </c>
-      <c r="I31" s="25">
-        <f t="shared" si="9"/>
-        <v>-178.87777777777779</v>
-      </c>
-      <c r="J31" s="27">
-        <f t="shared" si="9"/>
-        <v>-131.98888888888894</v>
-      </c>
-      <c r="K31" s="25">
-        <f t="shared" si="9"/>
-        <v>-85.100000000000023</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="27">
-        <f t="shared" si="9"/>
-        <v>-985.1</v>
-      </c>
-      <c r="C32" s="25">
-        <f t="shared" si="9"/>
-        <v>-885.1</v>
-      </c>
-      <c r="D32" s="27">
-        <f t="shared" si="9"/>
-        <v>-785.1</v>
-      </c>
-      <c r="E32" s="25">
-        <f t="shared" si="9"/>
-        <v>-685.1</v>
-      </c>
-      <c r="F32" s="27">
-        <f t="shared" si="9"/>
-        <v>-585.1</v>
-      </c>
-      <c r="G32" s="25">
-        <f t="shared" si="9"/>
-        <v>-485.1</v>
-      </c>
-      <c r="H32" s="27">
-        <f t="shared" si="9"/>
-        <v>-385.1</v>
-      </c>
-      <c r="I32" s="25">
-        <f t="shared" si="9"/>
-        <v>-285.10000000000002</v>
-      </c>
-      <c r="J32" s="27">
-        <f t="shared" si="9"/>
-        <v>-185.10000000000002</v>
-      </c>
-      <c r="K32" s="25">
-        <f t="shared" si="9"/>
-        <v>-85.100000000000023</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="26">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35" s="26">
-        <v>2</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35" s="26">
-        <v>4</v>
-      </c>
-      <c r="G35">
-        <v>5</v>
-      </c>
-      <c r="H35" s="26">
-        <v>6</v>
-      </c>
-      <c r="I35">
-        <v>7</v>
-      </c>
-      <c r="J35" s="26">
-        <v>8</v>
-      </c>
-      <c r="K35">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="27">
-        <f>$E20+B$35*ABS($E20-$F20)/9</f>
-        <v>-24755.562999999998</v>
-      </c>
-      <c r="C36" s="25">
-        <f t="shared" ref="C36:K36" si="10">$E20+C$35*ABS($E20-$F20)/9</f>
-        <v>-22242.562999999998</v>
-      </c>
-      <c r="D36" s="27">
-        <f t="shared" si="10"/>
-        <v>-19729.562999999998</v>
-      </c>
-      <c r="E36" s="25">
-        <f t="shared" si="10"/>
-        <v>-17216.562999999998</v>
-      </c>
-      <c r="F36" s="27">
-        <f t="shared" si="10"/>
-        <v>-14703.562999999998</v>
-      </c>
-      <c r="G36" s="25">
-        <f t="shared" si="10"/>
-        <v>-12190.562999999998</v>
-      </c>
-      <c r="H36" s="27">
-        <f t="shared" si="10"/>
-        <v>-9677.5629999999983</v>
-      </c>
-      <c r="I36" s="25">
-        <f t="shared" si="10"/>
-        <v>-7164.5629999999983</v>
-      </c>
-      <c r="J36" s="27">
-        <f t="shared" si="10"/>
-        <v>-4651.5629999999983</v>
-      </c>
-      <c r="K36" s="25">
-        <f t="shared" si="10"/>
-        <v>-2138.5629999999983</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" s="27">
-        <f t="shared" ref="B37:K40" si="11">$E21+B$35*ABS($E21-$F21)/9</f>
-        <v>-18950.532999999999</v>
-      </c>
-      <c r="C37" s="25">
-        <f t="shared" si="11"/>
-        <v>-17082.536333333333</v>
-      </c>
-      <c r="D37" s="27">
-        <f t="shared" si="11"/>
-        <v>-15214.539666666666</v>
-      </c>
-      <c r="E37" s="25">
-        <f t="shared" si="11"/>
-        <v>-13346.542999999998</v>
-      </c>
-      <c r="F37" s="27">
-        <f t="shared" si="11"/>
-        <v>-11478.546333333332</v>
-      </c>
-      <c r="G37" s="25">
-        <f t="shared" si="11"/>
-        <v>-9610.5496666666659</v>
-      </c>
-      <c r="H37" s="27">
-        <f t="shared" si="11"/>
-        <v>-7742.5529999999981</v>
-      </c>
-      <c r="I37" s="25">
-        <f t="shared" si="11"/>
-        <v>-5874.5563333333321</v>
-      </c>
-      <c r="J37" s="27">
-        <f t="shared" si="11"/>
-        <v>-4006.5596666666643</v>
-      </c>
-      <c r="K37" s="25">
-        <f t="shared" si="11"/>
-        <v>-2138.5629999999983</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="27">
-        <f t="shared" si="11"/>
-        <v>-22091.782999999999</v>
-      </c>
-      <c r="C38" s="25">
-        <f t="shared" si="11"/>
-        <v>-19874.758555555556</v>
-      </c>
-      <c r="D38" s="27">
-        <f t="shared" si="11"/>
-        <v>-17657.734111111109</v>
-      </c>
-      <c r="E38" s="25">
-        <f t="shared" si="11"/>
-        <v>-15440.709666666666</v>
-      </c>
-      <c r="F38" s="27">
-        <f t="shared" si="11"/>
-        <v>-13223.685222222221</v>
-      </c>
-      <c r="G38" s="25">
-        <f t="shared" si="11"/>
-        <v>-11006.660777777777</v>
-      </c>
-      <c r="H38" s="27">
-        <f t="shared" si="11"/>
-        <v>-8789.636333333332</v>
-      </c>
-      <c r="I38" s="25">
-        <f t="shared" si="11"/>
-        <v>-6572.6118888888868</v>
-      </c>
-      <c r="J38" s="27">
-        <f t="shared" si="11"/>
-        <v>-4355.5874444444416</v>
-      </c>
-      <c r="K38" s="25">
-        <f t="shared" si="11"/>
-        <v>-2138.5629999999983</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="27">
-        <f t="shared" si="11"/>
-        <v>-12743.423000000001</v>
-      </c>
-      <c r="C39" s="25">
-        <f t="shared" si="11"/>
-        <v>-11565.105222222222</v>
-      </c>
-      <c r="D39" s="27">
-        <f t="shared" si="11"/>
-        <v>-10386.787444444446</v>
-      </c>
-      <c r="E39" s="25">
-        <f t="shared" si="11"/>
-        <v>-9208.4696666666678</v>
-      </c>
-      <c r="F39" s="27">
-        <f t="shared" si="11"/>
-        <v>-8030.1518888888895</v>
-      </c>
-      <c r="G39" s="25">
-        <f t="shared" si="11"/>
-        <v>-6851.8341111111113</v>
-      </c>
-      <c r="H39" s="27">
-        <f t="shared" si="11"/>
-        <v>-5673.5163333333339</v>
-      </c>
-      <c r="I39" s="25">
-        <f t="shared" si="11"/>
-        <v>-4495.1985555555566</v>
-      </c>
-      <c r="J39" s="27">
-        <f t="shared" si="11"/>
-        <v>-3316.8807777777783</v>
-      </c>
-      <c r="K39" s="25">
-        <f t="shared" si="11"/>
-        <v>-2138.5630000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="27">
-        <f t="shared" si="11"/>
-        <v>-24755.562999999998</v>
-      </c>
-      <c r="C40" s="25">
-        <f t="shared" si="11"/>
-        <v>-22242.562999999998</v>
-      </c>
-      <c r="D40" s="27">
-        <f t="shared" si="11"/>
-        <v>-19729.562999999998</v>
-      </c>
-      <c r="E40" s="25">
-        <f t="shared" si="11"/>
-        <v>-17216.562999999998</v>
-      </c>
-      <c r="F40" s="27">
-        <f t="shared" si="11"/>
-        <v>-14703.562999999998</v>
-      </c>
-      <c r="G40" s="25">
-        <f t="shared" si="11"/>
-        <v>-12190.562999999998</v>
-      </c>
-      <c r="H40" s="27">
-        <f t="shared" si="11"/>
-        <v>-9677.5629999999983</v>
-      </c>
-      <c r="I40" s="25">
-        <f t="shared" si="11"/>
-        <v>-7164.5629999999983</v>
-      </c>
-      <c r="J40" s="27">
-        <f t="shared" si="11"/>
-        <v>-4651.5629999999983</v>
-      </c>
-      <c r="K40" s="25">
-        <f t="shared" si="11"/>
-        <v>-2138.5629999999983</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" s="26">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43" s="26">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <v>3</v>
-      </c>
-      <c r="F43" s="26">
-        <v>4</v>
-      </c>
-      <c r="G43">
-        <v>5</v>
-      </c>
-      <c r="H43" s="26">
-        <v>6</v>
-      </c>
-      <c r="I43">
-        <v>7</v>
-      </c>
-      <c r="J43" s="26">
-        <v>8</v>
-      </c>
-      <c r="K43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="27">
-        <f>B$43*ABS($G20-$H20)/9</f>
-        <v>0</v>
-      </c>
-      <c r="C44" s="25">
-        <f t="shared" ref="C44:J44" si="12">C$43*ABS($G20-$H20)/9</f>
-        <v>132029.66933333332</v>
-      </c>
-      <c r="D44" s="27">
-        <f t="shared" si="12"/>
-        <v>264059.33866666665</v>
-      </c>
-      <c r="E44" s="25">
-        <f t="shared" si="12"/>
-        <v>396089.00799999997</v>
-      </c>
-      <c r="F44" s="27">
-        <f t="shared" si="12"/>
-        <v>528118.6773333333</v>
-      </c>
-      <c r="G44" s="25">
-        <f t="shared" si="12"/>
-        <v>660148.34666666668</v>
-      </c>
-      <c r="H44" s="27">
-        <f t="shared" si="12"/>
-        <v>792178.01599999995</v>
-      </c>
-      <c r="I44" s="25">
-        <f t="shared" si="12"/>
-        <v>924207.68533333333</v>
-      </c>
-      <c r="J44" s="27">
-        <f t="shared" si="12"/>
-        <v>1056237.3546666666</v>
-      </c>
-      <c r="K44" s="25">
-        <f>K$43*ABS($G20-$H20)/9</f>
-        <v>1188267.024</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" s="27">
-        <f t="shared" ref="B45:K45" si="13">B$43*ABS($G21-$H21)/9</f>
-        <v>0</v>
-      </c>
-      <c r="C45" s="25">
-        <f t="shared" si="13"/>
-        <v>353743.28266666667</v>
-      </c>
-      <c r="D45" s="27">
-        <f t="shared" si="13"/>
-        <v>707486.56533333333</v>
-      </c>
-      <c r="E45" s="25">
-        <f t="shared" si="13"/>
-        <v>1061229.8480000002</v>
-      </c>
-      <c r="F45" s="27">
-        <f t="shared" si="13"/>
-        <v>1414973.1306666667</v>
-      </c>
-      <c r="G45" s="25">
-        <f t="shared" si="13"/>
-        <v>1768716.4133333333</v>
-      </c>
-      <c r="H45" s="27">
-        <f t="shared" si="13"/>
-        <v>2122459.6960000005</v>
-      </c>
-      <c r="I45" s="25">
-        <f t="shared" si="13"/>
-        <v>2476202.9786666669</v>
-      </c>
-      <c r="J45" s="27">
-        <f t="shared" si="13"/>
-        <v>2829946.2613333333</v>
-      </c>
-      <c r="K45" s="25">
-        <f t="shared" si="13"/>
-        <v>3183689.5440000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="27">
-        <f t="shared" ref="B46:K46" si="14">B$43*ABS($G22-$H22)/9</f>
-        <v>0</v>
-      </c>
-      <c r="C46" s="25">
-        <f t="shared" si="14"/>
-        <v>117822.84266666666</v>
-      </c>
-      <c r="D46" s="27">
-        <f t="shared" si="14"/>
-        <v>235645.68533333333</v>
-      </c>
-      <c r="E46" s="25">
-        <f t="shared" si="14"/>
-        <v>353468.52800000005</v>
-      </c>
-      <c r="F46" s="27">
-        <f t="shared" si="14"/>
-        <v>471291.37066666665</v>
-      </c>
-      <c r="G46" s="25">
-        <f t="shared" si="14"/>
-        <v>589114.21333333338</v>
-      </c>
-      <c r="H46" s="27">
-        <f t="shared" si="14"/>
-        <v>706937.0560000001</v>
-      </c>
-      <c r="I46" s="25">
-        <f t="shared" si="14"/>
-        <v>824759.8986666667</v>
-      </c>
-      <c r="J46" s="27">
-        <f t="shared" si="14"/>
-        <v>942582.74133333331</v>
-      </c>
-      <c r="K46" s="25">
-        <f t="shared" si="14"/>
-        <v>1060405.584</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" s="27">
-        <f t="shared" ref="B47:K47" si="15">B$43*ABS($G23-$H23)/9</f>
-        <v>0</v>
-      </c>
-      <c r="C47" s="25">
-        <f t="shared" si="15"/>
-        <v>33982.461333333333</v>
-      </c>
-      <c r="D47" s="27">
-        <f t="shared" si="15"/>
-        <v>67964.922666666665</v>
-      </c>
-      <c r="E47" s="25">
-        <f t="shared" si="15"/>
-        <v>101947.38400000001</v>
-      </c>
-      <c r="F47" s="27">
-        <f t="shared" si="15"/>
-        <v>135929.84533333333</v>
-      </c>
-      <c r="G47" s="25">
-        <f t="shared" si="15"/>
-        <v>169912.30666666667</v>
-      </c>
-      <c r="H47" s="27">
-        <f t="shared" si="15"/>
-        <v>203894.76800000001</v>
-      </c>
-      <c r="I47" s="25">
-        <f t="shared" si="15"/>
-        <v>237877.22933333335</v>
-      </c>
-      <c r="J47" s="27">
-        <f t="shared" si="15"/>
-        <v>271859.69066666666</v>
-      </c>
-      <c r="K47" s="25">
-        <f t="shared" si="15"/>
-        <v>305842.152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B48" s="27">
-        <f t="shared" ref="B48:K48" si="16">B$43*ABS($G24-$H24)/9</f>
-        <v>0</v>
-      </c>
-      <c r="C48" s="25">
-        <f t="shared" si="16"/>
-        <v>924207.68533333333</v>
-      </c>
-      <c r="D48" s="27">
-        <f t="shared" si="16"/>
-        <v>1848415.3706666667</v>
-      </c>
-      <c r="E48" s="25">
-        <f t="shared" si="16"/>
-        <v>2772623.0559999999</v>
-      </c>
-      <c r="F48" s="27">
-        <f t="shared" si="16"/>
-        <v>3696830.7413333333</v>
-      </c>
-      <c r="G48" s="25">
-        <f t="shared" si="16"/>
-        <v>4621038.4266666658</v>
-      </c>
-      <c r="H48" s="27">
-        <f t="shared" si="16"/>
-        <v>5545246.1119999997</v>
-      </c>
-      <c r="I48" s="25">
-        <f t="shared" si="16"/>
-        <v>6469453.7973333336</v>
-      </c>
-      <c r="J48" s="27">
-        <f t="shared" si="16"/>
-        <v>7393661.4826666666</v>
-      </c>
-      <c r="K48" s="25">
-        <f t="shared" si="16"/>
-        <v>8317869.1679999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="G18:H18"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/use_cases/LWR_MeOH_2023/data/HERON_data.xlsx
+++ b/use_cases/LWR_MeOH_2023/data/HERON_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/LWR_MeOH_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0A7C72-F21B-6B49-89F4-D830255495A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508AF541-D50B-F54F-BC06-D6AF6D6B1C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{3CE7F202-39F9-48AF-B0C7-575379157397}"/>
   </bookViews>
@@ -494,9 +494,6 @@
     <t>HTSE Steps</t>
   </si>
   <si>
-    <t>FT Steps</t>
-  </si>
-  <si>
     <t>Lower bound HTSE</t>
   </si>
   <si>
@@ -654,6 +651,9 @@
   </si>
   <si>
     <t>MeOH (kg-H2/h)</t>
+  </si>
+  <si>
+    <t>MeOH Steps</t>
   </si>
 </sst>
 </file>
@@ -662,7 +662,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -873,7 +873,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -910,6 +910,12 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -922,18 +928,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -2299,10 +2293,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9241F20-95C4-42A2-B03A-23B9DD4DBFA3}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:K44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48:K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2318,7 +2312,7 @@
     <col min="12" max="12" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -2326,7 +2320,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -2334,12 +2328,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -2350,7 +2344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>95</v>
       </c>
@@ -2361,7 +2355,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>101</v>
       </c>
@@ -2372,7 +2366,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -2383,7 +2377,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -2394,7 +2388,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -2405,10 +2399,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>145</v>
       </c>
@@ -2416,7 +2410,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>147</v>
       </c>
@@ -2424,1266 +2418,1084 @@
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="37">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="46">
-        <v>0</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="B16" s="40">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16">
         <f>MeOH!B47</f>
         <v>22.260273972602739</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
+      <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43" t="s">
-        <v>203</v>
-      </c>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
+      <c r="H18" s="40"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="40" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" t="s">
         <v>93</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="40" t="s">
+      <c r="F19" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="40" t="s">
+      <c r="G19" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="J19" s="40" t="s">
-        <v>158</v>
-      </c>
-      <c r="K19" s="40"/>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="40" t="s">
+      <c r="A20" t="s">
         <v>110</v>
       </c>
-      <c r="B20" s="40">
+      <c r="B20">
         <v>1194</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20">
         <f>MAX(-B20+$B$15, -1000+$B$15)</f>
         <v>-1000</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20">
         <f>-100+$B$15</f>
         <v>-100</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="38">
         <f>C20*$B$16</f>
         <v>-22260.273972602739</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="38">
         <f>D20*$B$16</f>
         <v>-2226.027397260274</v>
       </c>
-      <c r="G20" s="45">
+      <c r="G20" s="36">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H20" s="45">
+      <c r="H20" s="36">
         <f>ABS(E20)*24*I20</f>
         <v>1068493.1506849315</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20">
         <f t="shared" ref="I20:I22" si="0">ROUNDUP(J20*$I$24/$J$24,0)</f>
         <v>2</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20">
         <v>934</v>
       </c>
-      <c r="K20" s="40"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="B21" s="40">
+      <c r="A21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21">
         <v>769</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21">
         <f t="shared" ref="C21:C24" si="1">MAX(-B21+$B$15, -1000+$B$15)</f>
         <v>-769</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21">
         <f t="shared" ref="D21:D24" si="2">-100+$B$15</f>
         <v>-100</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="38">
         <f t="shared" ref="E21:E24" si="3">C21*$B$16</f>
         <v>-17118.150684931508</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="38">
         <f t="shared" ref="F21:F24" si="4">D21*$B$16</f>
         <v>-2226.027397260274</v>
       </c>
-      <c r="G21" s="45">
+      <c r="G21" s="36">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H21" s="45">
+      <c r="H21" s="36">
         <f t="shared" ref="H21:H23" si="5">ABS(E21)*24*I21</f>
         <v>2875849.3150684936</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J21" s="40">
+      <c r="J21">
         <v>4231</v>
       </c>
-      <c r="K21" s="40"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="40" t="s">
+      <c r="A22" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22">
         <v>894</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22">
         <f t="shared" si="1"/>
         <v>-894</v>
       </c>
-      <c r="D22" s="40">
+      <c r="D22">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="38">
         <f t="shared" si="3"/>
         <v>-19900.68493150685</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="38">
         <f t="shared" si="4"/>
         <v>-2226.027397260274</v>
       </c>
-      <c r="G22" s="45">
+      <c r="G22" s="36">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H22" s="45">
+      <c r="H22" s="36">
         <f t="shared" si="5"/>
         <v>955232.87671232875</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J22" s="40">
+      <c r="J22">
         <v>934</v>
       </c>
-      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="40" t="s">
+      <c r="A23" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="40">
+      <c r="B23">
         <v>522</v>
       </c>
-      <c r="C23" s="40">
+      <c r="C23">
         <f t="shared" si="1"/>
         <v>-522</v>
       </c>
-      <c r="D23" s="40">
+      <c r="D23">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="38">
         <f t="shared" si="3"/>
         <v>-11619.86301369863</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="38">
         <f t="shared" si="4"/>
         <v>-2226.027397260274</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="36">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H23" s="45">
+      <c r="H23" s="36">
         <f t="shared" si="5"/>
         <v>278876.71232876711</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23">
         <f>ROUNDUP(J23*$I$24/$J$24,0)</f>
         <v>1</v>
       </c>
-      <c r="J23" s="40">
+      <c r="J23">
         <v>97</v>
       </c>
-      <c r="K23" s="40"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="40" t="s">
+      <c r="A24" t="s">
         <v>118</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24">
         <v>1280</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-      <c r="E24" s="47">
+      <c r="E24" s="38">
         <f t="shared" si="3"/>
         <v>-22260.273972602739</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="38">
         <f t="shared" si="4"/>
         <v>-2226.027397260274</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="36">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H24" s="45">
+      <c r="H24" s="36">
         <f>ABS(E24)*24*I24</f>
         <v>7479452.0547945211</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24">
         <v>14</v>
       </c>
-      <c r="J24" s="40">
+      <c r="J24">
         <v>8997</v>
       </c>
-      <c r="K24" s="40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
+      <c r="K24" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
+      <c r="A26" t="s">
         <v>149</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27">
         <v>0</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27">
         <v>3</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27">
         <v>4</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27">
         <v>5</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27">
         <v>6</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27">
         <v>7</v>
       </c>
-      <c r="J27" s="40">
+      <c r="J27">
         <v>8</v>
       </c>
-      <c r="K27" s="40">
+      <c r="K27">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="40" t="s">
+      <c r="A28" t="s">
         <v>110</v>
       </c>
-      <c r="B28" s="45">
+      <c r="B28" s="36">
         <f>$C20+B$27*ABS($C20-$D20)/9</f>
         <v>-1000</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="36">
         <f t="shared" ref="C28:K28" si="6">$C20+C$27*ABS($C20-$D20)/9</f>
         <v>-900</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="36">
         <f t="shared" si="6"/>
         <v>-800</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="36">
         <f t="shared" si="6"/>
         <v>-700</v>
       </c>
-      <c r="F28" s="45">
+      <c r="F28" s="36">
         <f t="shared" si="6"/>
         <v>-600</v>
       </c>
-      <c r="G28" s="45">
+      <c r="G28" s="36">
         <f t="shared" si="6"/>
         <v>-500</v>
       </c>
-      <c r="H28" s="45">
+      <c r="H28" s="36">
         <f t="shared" si="6"/>
         <v>-400</v>
       </c>
-      <c r="I28" s="45">
+      <c r="I28" s="36">
         <f t="shared" si="6"/>
         <v>-300</v>
       </c>
-      <c r="J28" s="45">
+      <c r="J28" s="36">
         <f t="shared" si="6"/>
         <v>-200</v>
       </c>
-      <c r="K28" s="45">
+      <c r="K28" s="36">
         <f t="shared" si="6"/>
         <v>-100</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="40" t="s">
+      <c r="A29" t="s">
         <v>130</v>
       </c>
-      <c r="B29" s="45">
+      <c r="B29" s="36">
         <f t="shared" ref="B29:K32" si="7">$C21+B$27*ABS($C21-$D21)/9</f>
         <v>-769</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="36">
         <f t="shared" si="7"/>
         <v>-694.66666666666663</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="36">
         <f t="shared" si="7"/>
         <v>-620.33333333333337</v>
       </c>
-      <c r="E29" s="45">
+      <c r="E29" s="36">
         <f t="shared" si="7"/>
         <v>-546</v>
       </c>
-      <c r="F29" s="45">
+      <c r="F29" s="36">
         <f t="shared" si="7"/>
         <v>-471.66666666666669</v>
       </c>
-      <c r="G29" s="45">
+      <c r="G29" s="36">
         <f t="shared" si="7"/>
         <v>-397.33333333333331</v>
       </c>
-      <c r="H29" s="45">
+      <c r="H29" s="36">
         <f t="shared" si="7"/>
         <v>-323</v>
       </c>
-      <c r="I29" s="45">
+      <c r="I29" s="36">
         <f t="shared" si="7"/>
         <v>-248.66666666666663</v>
       </c>
-      <c r="J29" s="45">
+      <c r="J29" s="36">
         <f t="shared" si="7"/>
         <v>-174.33333333333337</v>
       </c>
-      <c r="K29" s="45">
+      <c r="K29" s="36">
         <f t="shared" si="7"/>
         <v>-100</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="40" t="s">
+      <c r="A30" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="45">
+      <c r="B30" s="36">
         <f t="shared" si="7"/>
         <v>-894</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="36">
         <f t="shared" si="7"/>
         <v>-805.77777777777783</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="36">
         <f t="shared" si="7"/>
         <v>-717.55555555555554</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="36">
         <f t="shared" si="7"/>
         <v>-629.33333333333326</v>
       </c>
-      <c r="F30" s="45">
+      <c r="F30" s="36">
         <f t="shared" si="7"/>
         <v>-541.11111111111109</v>
       </c>
-      <c r="G30" s="45">
+      <c r="G30" s="36">
         <f t="shared" si="7"/>
         <v>-452.88888888888891</v>
       </c>
-      <c r="H30" s="45">
+      <c r="H30" s="36">
         <f t="shared" si="7"/>
         <v>-364.66666666666663</v>
       </c>
-      <c r="I30" s="45">
+      <c r="I30" s="36">
         <f t="shared" si="7"/>
         <v>-276.44444444444446</v>
       </c>
-      <c r="J30" s="45">
+      <c r="J30" s="36">
         <f t="shared" si="7"/>
         <v>-188.22222222222217</v>
       </c>
-      <c r="K30" s="45">
+      <c r="K30" s="36">
         <f t="shared" si="7"/>
         <v>-100</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="40" t="s">
+      <c r="A31" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="45">
+      <c r="B31" s="36">
         <f t="shared" si="7"/>
         <v>-522</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="36">
         <f t="shared" si="7"/>
         <v>-475.11111111111109</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="36">
         <f t="shared" si="7"/>
         <v>-428.22222222222223</v>
       </c>
-      <c r="E31" s="45">
+      <c r="E31" s="36">
         <f t="shared" si="7"/>
         <v>-381.33333333333337</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="36">
         <f t="shared" si="7"/>
         <v>-334.44444444444446</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G31" s="36">
         <f t="shared" si="7"/>
         <v>-287.55555555555554</v>
       </c>
-      <c r="H31" s="45">
+      <c r="H31" s="36">
         <f t="shared" si="7"/>
         <v>-240.66666666666669</v>
       </c>
-      <c r="I31" s="45">
+      <c r="I31" s="36">
         <f t="shared" si="7"/>
         <v>-193.77777777777777</v>
       </c>
-      <c r="J31" s="45">
+      <c r="J31" s="36">
         <f t="shared" si="7"/>
         <v>-146.88888888888891</v>
       </c>
-      <c r="K31" s="45">
+      <c r="K31" s="36">
         <f t="shared" si="7"/>
         <v>-100</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="40" t="s">
+      <c r="A32" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="36">
         <f t="shared" si="7"/>
         <v>-1000</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="36">
         <f t="shared" si="7"/>
         <v>-900</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D32" s="36">
         <f t="shared" si="7"/>
         <v>-800</v>
       </c>
-      <c r="E32" s="45">
+      <c r="E32" s="36">
         <f t="shared" si="7"/>
         <v>-700</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="36">
         <f t="shared" si="7"/>
         <v>-600</v>
       </c>
-      <c r="G32" s="45">
+      <c r="G32" s="36">
         <f t="shared" si="7"/>
         <v>-500</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="36">
         <f t="shared" si="7"/>
         <v>-400</v>
       </c>
-      <c r="I32" s="45">
+      <c r="I32" s="36">
         <f t="shared" si="7"/>
         <v>-300</v>
       </c>
-      <c r="J32" s="45">
+      <c r="J32" s="36">
         <f t="shared" si="7"/>
         <v>-200</v>
       </c>
-      <c r="K32" s="45">
+      <c r="K32" s="36">
         <f t="shared" si="7"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-    </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
+      <c r="A34" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="44" t="s">
+      <c r="A35" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="40">
+      <c r="B35">
         <v>0</v>
       </c>
-      <c r="C35" s="40">
+      <c r="C35">
         <v>1</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35">
         <v>2</v>
       </c>
-      <c r="E35" s="40">
+      <c r="E35">
         <v>3</v>
       </c>
-      <c r="F35" s="40">
+      <c r="F35">
         <v>4</v>
       </c>
-      <c r="G35" s="40">
+      <c r="G35">
         <v>5</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35">
         <v>6</v>
       </c>
-      <c r="I35" s="40">
+      <c r="I35">
         <v>7</v>
       </c>
-      <c r="J35" s="40">
+      <c r="J35">
         <v>8</v>
       </c>
-      <c r="K35" s="40">
+      <c r="K35">
         <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="40" t="s">
+      <c r="A36" t="s">
         <v>110</v>
       </c>
-      <c r="B36" s="45">
+      <c r="B36" s="36">
         <f>$E20+B$35*ABS($E20-$F20)/9</f>
         <v>-22260.273972602739</v>
       </c>
-      <c r="C36" s="45">
+      <c r="C36" s="36">
         <f t="shared" ref="C36:K36" si="8">$E20+C$35*ABS($E20-$F20)/9</f>
         <v>-20034.246575342466</v>
       </c>
-      <c r="D36" s="45">
+      <c r="D36" s="36">
         <f t="shared" si="8"/>
         <v>-17808.219178082192</v>
       </c>
-      <c r="E36" s="45">
+      <c r="E36" s="36">
         <f t="shared" si="8"/>
         <v>-15582.191780821917</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="36">
         <f t="shared" si="8"/>
         <v>-13356.164383561643</v>
       </c>
-      <c r="G36" s="45">
+      <c r="G36" s="36">
         <f t="shared" si="8"/>
         <v>-11130.13698630137</v>
       </c>
-      <c r="H36" s="45">
+      <c r="H36" s="36">
         <f t="shared" si="8"/>
         <v>-8904.1095890410943</v>
       </c>
-      <c r="I36" s="45">
+      <c r="I36" s="36">
         <f t="shared" si="8"/>
         <v>-6678.0821917808207</v>
       </c>
-      <c r="J36" s="45">
+      <c r="J36" s="36">
         <f t="shared" si="8"/>
         <v>-4452.0547945205471</v>
       </c>
-      <c r="K36" s="45">
+      <c r="K36" s="36">
         <f t="shared" si="8"/>
         <v>-2226.0273972602736</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="40" t="s">
+      <c r="A37" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="45">
+      <c r="B37" s="36">
         <f t="shared" ref="B37:K40" si="9">$E21+B$35*ABS($E21-$F21)/9</f>
         <v>-17118.150684931508</v>
       </c>
-      <c r="C37" s="45">
+      <c r="C37" s="36">
         <f t="shared" si="9"/>
         <v>-15463.470319634704</v>
       </c>
-      <c r="D37" s="45">
+      <c r="D37" s="36">
         <f t="shared" si="9"/>
         <v>-13808.789954337901</v>
       </c>
-      <c r="E37" s="45">
+      <c r="E37" s="36">
         <f t="shared" si="9"/>
         <v>-12154.109589041096</v>
       </c>
-      <c r="F37" s="45">
+      <c r="F37" s="36">
         <f t="shared" si="9"/>
         <v>-10499.429223744293</v>
       </c>
-      <c r="G37" s="45">
+      <c r="G37" s="36">
         <f t="shared" si="9"/>
         <v>-8844.7488584474886</v>
       </c>
-      <c r="H37" s="45">
+      <c r="H37" s="36">
         <f t="shared" si="9"/>
         <v>-7190.0684931506839</v>
       </c>
-      <c r="I37" s="45">
+      <c r="I37" s="36">
         <f t="shared" si="9"/>
         <v>-5535.3881278538811</v>
       </c>
-      <c r="J37" s="45">
+      <c r="J37" s="36">
         <f t="shared" si="9"/>
         <v>-3880.7077625570782</v>
       </c>
-      <c r="K37" s="45">
+      <c r="K37" s="36">
         <f t="shared" si="9"/>
         <v>-2226.0273972602718</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="40" t="s">
+      <c r="A38" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="45">
+      <c r="B38" s="36">
         <f t="shared" si="9"/>
         <v>-19900.68493150685</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="36">
         <f t="shared" si="9"/>
         <v>-17936.834094368343</v>
       </c>
-      <c r="D38" s="45">
+      <c r="D38" s="36">
         <f t="shared" si="9"/>
         <v>-15972.983257229833</v>
       </c>
-      <c r="E38" s="45">
+      <c r="E38" s="36">
         <f t="shared" si="9"/>
         <v>-14009.132420091326</v>
       </c>
-      <c r="F38" s="45">
+      <c r="F38" s="36">
         <f t="shared" si="9"/>
         <v>-12045.281582952815</v>
       </c>
-      <c r="G38" s="45">
+      <c r="G38" s="36">
         <f t="shared" si="9"/>
         <v>-10081.430745814307</v>
       </c>
-      <c r="H38" s="45">
+      <c r="H38" s="36">
         <f t="shared" si="9"/>
         <v>-8117.5799086757997</v>
       </c>
-      <c r="I38" s="45">
+      <c r="I38" s="36">
         <f t="shared" si="9"/>
         <v>-6153.729071537291</v>
       </c>
-      <c r="J38" s="45">
+      <c r="J38" s="36">
         <f t="shared" si="9"/>
         <v>-4189.8782343987823</v>
       </c>
-      <c r="K38" s="45">
+      <c r="K38" s="36">
         <f t="shared" si="9"/>
         <v>-2226.0273972602736</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="40" t="s">
+      <c r="A39" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="45">
+      <c r="B39" s="36">
         <f t="shared" si="9"/>
         <v>-11619.86301369863</v>
       </c>
-      <c r="C39" s="45">
+      <c r="C39" s="36">
         <f t="shared" si="9"/>
         <v>-10576.103500761035</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D39" s="36">
         <f t="shared" si="9"/>
         <v>-9532.3439878234403</v>
       </c>
-      <c r="E39" s="45">
+      <c r="E39" s="36">
         <f t="shared" si="9"/>
         <v>-8488.5844748858453</v>
       </c>
-      <c r="F39" s="45">
+      <c r="F39" s="36">
         <f t="shared" si="9"/>
         <v>-7444.8249619482494</v>
       </c>
-      <c r="G39" s="45">
+      <c r="G39" s="36">
         <f t="shared" si="9"/>
         <v>-6401.0654490106544</v>
       </c>
-      <c r="H39" s="45">
+      <c r="H39" s="36">
         <f t="shared" si="9"/>
         <v>-5357.3059360730595</v>
       </c>
-      <c r="I39" s="45">
+      <c r="I39" s="36">
         <f t="shared" si="9"/>
         <v>-4313.5464231354645</v>
       </c>
-      <c r="J39" s="45">
+      <c r="J39" s="36">
         <f t="shared" si="9"/>
         <v>-3269.7869101978686</v>
       </c>
-      <c r="K39" s="45">
+      <c r="K39" s="36">
         <f t="shared" si="9"/>
         <v>-2226.0273972602736</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="40" t="s">
+      <c r="A40" t="s">
         <v>118</v>
       </c>
-      <c r="B40" s="45">
+      <c r="B40" s="36">
         <f t="shared" si="9"/>
         <v>-22260.273972602739</v>
       </c>
-      <c r="C40" s="45">
+      <c r="C40" s="36">
         <f t="shared" si="9"/>
         <v>-20034.246575342466</v>
       </c>
-      <c r="D40" s="45">
+      <c r="D40" s="36">
         <f t="shared" si="9"/>
         <v>-17808.219178082192</v>
       </c>
-      <c r="E40" s="45">
+      <c r="E40" s="36">
         <f t="shared" si="9"/>
         <v>-15582.191780821917</v>
       </c>
-      <c r="F40" s="45">
+      <c r="F40" s="36">
         <f t="shared" si="9"/>
         <v>-13356.164383561643</v>
       </c>
-      <c r="G40" s="45">
+      <c r="G40" s="36">
         <f t="shared" si="9"/>
         <v>-11130.13698630137</v>
       </c>
-      <c r="H40" s="45">
+      <c r="H40" s="36">
         <f t="shared" si="9"/>
         <v>-8904.1095890410943</v>
       </c>
-      <c r="I40" s="45">
+      <c r="I40" s="36">
         <f t="shared" si="9"/>
         <v>-6678.0821917808207</v>
       </c>
-      <c r="J40" s="45">
+      <c r="J40" s="36">
         <f t="shared" si="9"/>
         <v>-4452.0547945205471</v>
       </c>
-      <c r="K40" s="45">
+      <c r="K40" s="36">
         <f t="shared" si="9"/>
         <v>-2226.0273972602736</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="40"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
-    </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="40" t="s">
-        <v>157</v>
-      </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
+      <c r="A42" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="40">
+      <c r="B43">
         <v>0</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C43">
         <v>1</v>
       </c>
-      <c r="D43" s="40">
+      <c r="D43">
         <v>2</v>
       </c>
-      <c r="E43" s="40">
+      <c r="E43">
         <v>3</v>
       </c>
-      <c r="F43" s="40">
+      <c r="F43">
         <v>4</v>
       </c>
-      <c r="G43" s="40">
+      <c r="G43">
         <v>5</v>
       </c>
-      <c r="H43" s="40">
+      <c r="H43">
         <v>6</v>
       </c>
-      <c r="I43" s="40">
+      <c r="I43">
         <v>7</v>
       </c>
-      <c r="J43" s="40">
+      <c r="J43">
         <v>8</v>
       </c>
-      <c r="K43" s="40">
+      <c r="K43">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="40" t="s">
+      <c r="A44" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="45">
+      <c r="B44" s="36">
         <f>B$43*ABS($G20-$H20)/9</f>
         <v>0</v>
       </c>
-      <c r="C44" s="45">
+      <c r="C44" s="36">
         <f t="shared" ref="C44:J44" si="10">C$43*ABS($G20-$H20)/9</f>
         <v>118721.46118721462</v>
       </c>
-      <c r="D44" s="45">
+      <c r="D44" s="36">
         <f t="shared" si="10"/>
         <v>237442.92237442924</v>
       </c>
-      <c r="E44" s="45">
+      <c r="E44" s="36">
         <f t="shared" si="10"/>
         <v>356164.38356164389</v>
       </c>
-      <c r="F44" s="45">
+      <c r="F44" s="36">
         <f t="shared" si="10"/>
         <v>474885.84474885848</v>
       </c>
-      <c r="G44" s="45">
+      <c r="G44" s="36">
         <f t="shared" si="10"/>
         <v>593607.30593607307</v>
       </c>
-      <c r="H44" s="45">
+      <c r="H44" s="36">
         <f t="shared" si="10"/>
         <v>712328.76712328778</v>
       </c>
-      <c r="I44" s="45">
+      <c r="I44" s="36">
         <f t="shared" si="10"/>
         <v>831050.22831050237</v>
       </c>
-      <c r="J44" s="45">
+      <c r="J44" s="36">
         <f t="shared" si="10"/>
         <v>949771.68949771696</v>
       </c>
-      <c r="K44" s="45">
+      <c r="K44" s="36">
         <f>K$43*ABS($G20-$H20)/9</f>
         <v>1068493.1506849315</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="40" t="s">
+      <c r="A45" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="45">
+      <c r="B45" s="36">
         <f t="shared" ref="B45:K45" si="11">B$43*ABS($G21-$H21)/9</f>
         <v>0</v>
       </c>
-      <c r="C45" s="45">
+      <c r="C45" s="36">
         <f t="shared" si="11"/>
         <v>319538.8127853882</v>
       </c>
-      <c r="D45" s="45">
+      <c r="D45" s="36">
         <f t="shared" si="11"/>
         <v>639077.62557077641</v>
       </c>
-      <c r="E45" s="45">
+      <c r="E45" s="36">
         <f t="shared" si="11"/>
         <v>958616.43835616438</v>
       </c>
-      <c r="F45" s="45">
+      <c r="F45" s="36">
         <f t="shared" si="11"/>
         <v>1278155.2511415528</v>
       </c>
-      <c r="G45" s="45">
+      <c r="G45" s="36">
         <f t="shared" si="11"/>
         <v>1597694.063926941</v>
       </c>
-      <c r="H45" s="45">
+      <c r="H45" s="36">
         <f t="shared" si="11"/>
         <v>1917232.8767123288</v>
       </c>
-      <c r="I45" s="45">
+      <c r="I45" s="36">
         <f t="shared" si="11"/>
         <v>2236771.6894977172</v>
       </c>
-      <c r="J45" s="45">
+      <c r="J45" s="36">
         <f t="shared" si="11"/>
         <v>2556310.5022831056</v>
       </c>
-      <c r="K45" s="45">
+      <c r="K45" s="36">
         <f t="shared" si="11"/>
         <v>2875849.3150684936</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="40" t="s">
+      <c r="A46" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="45">
+      <c r="B46" s="36">
         <f t="shared" ref="B46:K46" si="12">B$43*ABS($G22-$H22)/9</f>
         <v>0</v>
       </c>
-      <c r="C46" s="45">
+      <c r="C46" s="36">
         <f t="shared" si="12"/>
         <v>106136.98630136986</v>
       </c>
-      <c r="D46" s="45">
+      <c r="D46" s="36">
         <f t="shared" si="12"/>
         <v>212273.97260273973</v>
       </c>
-      <c r="E46" s="45">
+      <c r="E46" s="36">
         <f t="shared" si="12"/>
         <v>318410.9589041096</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="36">
         <f t="shared" si="12"/>
         <v>424547.94520547945</v>
       </c>
-      <c r="G46" s="45">
+      <c r="G46" s="36">
         <f t="shared" si="12"/>
         <v>530684.93150684936</v>
       </c>
-      <c r="H46" s="45">
+      <c r="H46" s="36">
         <f t="shared" si="12"/>
         <v>636821.91780821921</v>
       </c>
-      <c r="I46" s="45">
+      <c r="I46" s="36">
         <f t="shared" si="12"/>
         <v>742958.90410958906</v>
       </c>
-      <c r="J46" s="45">
+      <c r="J46" s="36">
         <f t="shared" si="12"/>
         <v>849095.89041095891</v>
       </c>
-      <c r="K46" s="45">
+      <c r="K46" s="36">
         <f t="shared" si="12"/>
         <v>955232.87671232887</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="40" t="s">
+      <c r="A47" t="s">
         <v>126</v>
       </c>
-      <c r="B47" s="45">
+      <c r="B47" s="36">
         <f t="shared" ref="B47:K47" si="13">B$43*ABS($G23-$H23)/9</f>
         <v>0</v>
       </c>
-      <c r="C47" s="45">
+      <c r="C47" s="36">
         <f t="shared" si="13"/>
         <v>30986.301369863013</v>
       </c>
-      <c r="D47" s="45">
+      <c r="D47" s="36">
         <f t="shared" si="13"/>
         <v>61972.602739726026</v>
       </c>
-      <c r="E47" s="45">
+      <c r="E47" s="36">
         <f t="shared" si="13"/>
         <v>92958.904109589028</v>
       </c>
-      <c r="F47" s="45">
+      <c r="F47" s="36">
         <f t="shared" si="13"/>
         <v>123945.20547945205</v>
       </c>
-      <c r="G47" s="45">
+      <c r="G47" s="36">
         <f t="shared" si="13"/>
         <v>154931.50684931508</v>
       </c>
-      <c r="H47" s="45">
+      <c r="H47" s="36">
         <f t="shared" si="13"/>
         <v>185917.80821917806</v>
       </c>
-      <c r="I47" s="45">
+      <c r="I47" s="36">
         <f t="shared" si="13"/>
         <v>216904.10958904109</v>
       </c>
-      <c r="J47" s="45">
+      <c r="J47" s="36">
         <f t="shared" si="13"/>
         <v>247890.4109589041</v>
       </c>
-      <c r="K47" s="45">
+      <c r="K47" s="36">
         <f t="shared" si="13"/>
         <v>278876.71232876711</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="40" t="s">
+      <c r="A48" t="s">
         <v>118</v>
       </c>
-      <c r="B48" s="45">
+      <c r="B48" s="36">
         <f t="shared" ref="B48:K48" si="14">B$43*ABS($G24-$H24)/9</f>
         <v>0</v>
       </c>
-      <c r="C48" s="45">
+      <c r="C48" s="36">
         <f t="shared" si="14"/>
         <v>831050.22831050237</v>
       </c>
-      <c r="D48" s="45">
+      <c r="D48" s="36">
         <f t="shared" si="14"/>
         <v>1662100.4566210047</v>
       </c>
-      <c r="E48" s="45">
+      <c r="E48" s="36">
         <f t="shared" si="14"/>
         <v>2493150.6849315073</v>
       </c>
-      <c r="F48" s="45">
+      <c r="F48" s="36">
         <f t="shared" si="14"/>
         <v>3324200.9132420095</v>
       </c>
-      <c r="G48" s="45">
+      <c r="G48" s="36">
         <f t="shared" si="14"/>
         <v>4155251.1415525121</v>
       </c>
-      <c r="H48" s="45">
+      <c r="H48" s="36">
         <f t="shared" si="14"/>
         <v>4986301.3698630147</v>
       </c>
-      <c r="I48" s="45">
+      <c r="I48" s="36">
         <f t="shared" si="14"/>
         <v>5817351.5981735168</v>
       </c>
-      <c r="J48" s="45">
+      <c r="J48" s="36">
         <f t="shared" si="14"/>
         <v>6648401.8264840189</v>
       </c>
-      <c r="K48" s="45">
+      <c r="K48" s="36">
         <f t="shared" si="14"/>
         <v>7479452.054794522</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="K52" s="40"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="K53" s="40"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3723,10 +3535,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="36"/>
+      <c r="B2" s="40"/>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -3894,26 +3706,26 @@
       <c r="B4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3985,15 +3797,15 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -4071,22 +3883,22 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -4100,11 +3912,11 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -4162,21 +3974,21 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2">
         <v>1.2E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H2">
         <v>3.7854100000000002</v>
@@ -4184,12 +3996,12 @@
     </row>
     <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B4" s="23">
         <v>100</v>
@@ -4201,7 +4013,7 @@
         <v>1000</v>
       </c>
       <c r="G4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H4">
         <v>0.77</v>
@@ -4224,7 +4036,7 @@
         <v>655027563.25600004</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H5">
         <v>0.8</v>
@@ -4232,7 +4044,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6">
         <f>MeOH_original_data!B3*(1+MeOH!$B$2)</f>
@@ -4247,7 +4059,7 @@
         <v>27050057.672000002</v>
       </c>
       <c r="G6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H6">
         <v>0.85</v>
@@ -4259,7 +4071,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8">
         <f>SUM(B9:B13)</f>
@@ -4276,7 +4088,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4290,7 +4102,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4304,7 +4116,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4318,7 +4130,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12">
         <f>0.25*MeOH_original_data!B8*(1+MeOH!$B$2)</f>
@@ -4335,7 +4147,7 @@
     </row>
     <row r="13" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" s="22">
         <f>0.25*MeOH_original_data!B9*(1+MeOH!$B$2)</f>
@@ -4352,25 +4164,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" t="s">
         <v>182</v>
-      </c>
-      <c r="B15" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B19" s="23">
         <v>100</v>
@@ -4383,16 +4195,16 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="39"/>
+      <c r="A20" s="41" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B21" s="32">
         <f>MeOH_original_data!B18*1000/(365*24)</f>
@@ -4409,7 +4221,7 @@
     </row>
     <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" s="32">
         <f>MeOH_original_data!B19*1000/(365*24)</f>
@@ -4425,16 +4237,16 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
+      <c r="A23" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="43"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B24" s="30">
         <f>MeOH_original_data!B21*1000000/(365*24)</f>
@@ -4451,7 +4263,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B25" s="30">
         <f>MeOH_original_data!B22*1000000/(365*24)</f>
@@ -4468,7 +4280,7 @@
     </row>
     <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B26" s="30">
         <f>MeOH_original_data!B23*1000000/(365*24)</f>
@@ -4484,12 +4296,12 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="39"/>
+      <c r="A27" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="43"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="str">
@@ -4547,15 +4359,15 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" t="s">
         <v>191</v>
-      </c>
-      <c r="B33" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B34">
         <v>100</v>
@@ -4583,16 +4395,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B36" t="s">
         <v>99</v>
       </c>
       <c r="C36" t="s">
+        <v>192</v>
+      </c>
+      <c r="D36" t="s">
         <v>193</v>
-      </c>
-      <c r="D36" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4645,12 +4457,12 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B42" s="25">
         <f>EXP(20.237)</f>
@@ -4659,7 +4471,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B43" s="25">
         <v>0.57550000000000001</v>
@@ -4667,7 +4479,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B45">
         <f>B19</f>
@@ -4684,7 +4496,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B46">
         <f>B21/B45</f>
@@ -4701,7 +4513,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B47">
         <f>B46</f>
@@ -4735,7 +4547,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B1">
         <v>100</v>
@@ -4763,7 +4575,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B3">
         <v>11163579</v>
@@ -4777,7 +4589,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4">
         <v>41496911</v>
@@ -4791,7 +4603,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B5">
         <v>33150</v>
@@ -4805,7 +4617,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6">
         <v>3972302</v>
@@ -4819,7 +4631,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B7">
         <v>2878787</v>
@@ -4833,7 +4645,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8">
         <v>497834</v>
@@ -4847,7 +4659,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B9">
         <v>1997988</v>
@@ -4861,27 +4673,27 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16">
         <v>100</v>
@@ -4895,12 +4707,12 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18">
         <v>19500</v>
@@ -4914,7 +4726,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B19">
         <v>117251</v>
@@ -4928,12 +4740,12 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B21">
         <v>0.62</v>
@@ -4947,7 +4759,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B22">
         <v>2.66</v>
@@ -4961,7 +4773,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23">
         <v>9.76</v>

--- a/use_cases/LWR_MeOH_2023/data/HERON_data.xlsx
+++ b/use_cases/LWR_MeOH_2023/data/HERON_data.xlsx
@@ -8,19 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/LWR_MeOH_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508AF541-D50B-F54F-BC06-D6AF6D6B1C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D16D78-4ADD-1949-B922-E27C21077EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{3CE7F202-39F9-48AF-B0C7-575379157397}"/>
   </bookViews>
   <sheets>
     <sheet name="Sweep values" sheetId="10" r:id="rId1"/>
     <sheet name="MACRS" sheetId="1" r:id="rId2"/>
-    <sheet name="Transfer_rates" sheetId="4" r:id="rId3"/>
-    <sheet name="MeOH" sheetId="14" r:id="rId4"/>
-    <sheet name="MeOH_original_data" sheetId="13" r:id="rId5"/>
-    <sheet name="HTSE" sheetId="2" r:id="rId6"/>
-    <sheet name="Capacity_Market" sheetId="3" r:id="rId7"/>
-    <sheet name="NPP_capacities" sheetId="12" r:id="rId8"/>
+    <sheet name="MeOH" sheetId="14" r:id="rId3"/>
+    <sheet name="MeOH_original_data" sheetId="13" r:id="rId4"/>
+    <sheet name="HTSE" sheetId="2" r:id="rId5"/>
+    <sheet name="Capacity_Market" sheetId="3" r:id="rId6"/>
+    <sheet name="NPP_capacities" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="187">
   <si>
     <t>Source</t>
   </si>
@@ -227,57 +226,9 @@
     <t>Unforced CAPacity</t>
   </si>
   <si>
-    <t>FT process</t>
-  </si>
-  <si>
-    <t>Inputs</t>
-  </si>
-  <si>
-    <t>CO2</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
     <t>MWe</t>
   </si>
   <si>
-    <t>MT/day</t>
-  </si>
-  <si>
-    <t>Outputs</t>
-  </si>
-  <si>
-    <t>Naphta</t>
-  </si>
-  <si>
-    <t>Jet Fuel</t>
-  </si>
-  <si>
-    <t>Diesel</t>
-  </si>
-  <si>
-    <t>kg/s</t>
-  </si>
-  <si>
-    <t>kWh/kg-H2</t>
-  </si>
-  <si>
-    <t>kg/h</t>
-  </si>
-  <si>
-    <t>kg-H2/kWh</t>
-  </si>
-  <si>
-    <t>Fixed no matter production level</t>
-  </si>
-  <si>
-    <t>Modeled as separate electricity consuming component</t>
-  </si>
-  <si>
     <t>Using NOAK values</t>
   </si>
   <si>
@@ -302,12 +253,6 @@
     <t>Used to compute a negative cashflow for the capacity of the NPP not sold on the capacity market</t>
   </si>
   <si>
-    <t>FT ANL report</t>
-  </si>
-  <si>
-    <t>Dan Wendt report</t>
-  </si>
-  <si>
     <t>Components capacities optimization boundaries calculation</t>
   </si>
   <si>
@@ -344,9 +289,6 @@
     <t>CAPEX</t>
   </si>
   <si>
-    <t>kg-H2/MWh</t>
-  </si>
-  <si>
     <t>elec_market</t>
   </si>
   <si>
@@ -654,6 +596,12 @@
   </si>
   <si>
     <t>MeOH Steps</t>
+  </si>
+  <si>
+    <t>Variable OPEX ($/year)</t>
+  </si>
+  <si>
+    <t>SA sweep values</t>
   </si>
 </sst>
 </file>
@@ -688,13 +636,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -709,8 +650,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -734,8 +683,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -866,20 +820,79 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
@@ -891,7 +904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -910,12 +923,7 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -928,8 +936,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2293,52 +2333,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9241F20-95C4-42A2-B03A-23B9DD4DBFA3}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:K48"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="11" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -2346,57 +2388,57 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="B5">
         <v>14.9</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B6" s="2">
         <v>-9.9999999999999997E+199</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2">
         <v>-9.9999999999999997E+199</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B8" s="2">
         <v>-9.9999999999999997E+199</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B9" s="2">
         <v>-9.9999999999999997E+199</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2404,1097 +2446,1104 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>197</v>
-      </c>
-      <c r="B15" s="37">
+        <v>178</v>
+      </c>
+      <c r="B15" s="33">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="B16">
         <f>MeOH!B47</f>
         <v>22.260273972602739</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="H18" s="40"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39"/>
-      <c r="C19" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" t="s">
-        <v>93</v>
-      </c>
-      <c r="I19" t="s">
-        <v>159</v>
-      </c>
-      <c r="J19" t="s">
-        <v>157</v>
+      <c r="A18" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" s="56"/>
+      <c r="E18" s="55" t="s">
+        <v>183</v>
+      </c>
+      <c r="F18" s="56"/>
+      <c r="G18" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" s="56"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="41"/>
+    </row>
+    <row r="19" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="53"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20">
+      <c r="A20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="50">
         <v>1194</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="50">
         <f>MAX(-B20+$B$15, -1000+$B$15)</f>
         <v>-1000</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="50">
         <f>-100+$B$15</f>
         <v>-100</v>
       </c>
-      <c r="E20" s="38">
+      <c r="E20" s="51">
         <f>C20*$B$16</f>
         <v>-22260.273972602739</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="51">
         <f>D20*$B$16</f>
         <v>-2226.027397260274</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="43">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="43">
         <f>ABS(E20)*24*I20</f>
         <v>1068493.1506849315</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="50">
         <f t="shared" ref="I20:I22" si="0">ROUNDUP(J20*$I$24/$J$24,0)</f>
         <v>2</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="10">
         <v>934</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B21">
+      <c r="A21" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" s="50">
         <v>769</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="50">
         <f t="shared" ref="C21:C24" si="1">MAX(-B21+$B$15, -1000+$B$15)</f>
         <v>-769</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="50">
         <f t="shared" ref="D21:D24" si="2">-100+$B$15</f>
         <v>-100</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="51">
         <f t="shared" ref="E21:E24" si="3">C21*$B$16</f>
         <v>-17118.150684931508</v>
       </c>
-      <c r="F21" s="38">
+      <c r="F21" s="51">
         <f t="shared" ref="F21:F24" si="4">D21*$B$16</f>
         <v>-2226.027397260274</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="43">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="43">
         <f t="shared" ref="H21:H23" si="5">ABS(E21)*24*I21</f>
         <v>2875849.3150684936</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="50">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="10">
         <v>4231</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>115</v>
-      </c>
-      <c r="B22">
+      <c r="A22" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="50">
         <v>894</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="50">
         <f t="shared" si="1"/>
         <v>-894</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="50">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-      <c r="E22" s="38">
+      <c r="E22" s="51">
         <f t="shared" si="3"/>
         <v>-19900.68493150685</v>
       </c>
-      <c r="F22" s="38">
+      <c r="F22" s="51">
         <f t="shared" si="4"/>
         <v>-2226.027397260274</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="43">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="43">
         <f t="shared" si="5"/>
         <v>955232.87671232875</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="50">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="10">
         <v>934</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23">
+      <c r="A23" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="50">
         <v>522</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="50">
         <f t="shared" si="1"/>
         <v>-522</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="50">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-      <c r="E23" s="38">
+      <c r="E23" s="51">
         <f t="shared" si="3"/>
         <v>-11619.86301369863</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="51">
         <f t="shared" si="4"/>
         <v>-2226.027397260274</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="43">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="43">
         <f t="shared" si="5"/>
         <v>278876.71232876711</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="50">
         <f>ROUNDUP(J23*$I$24/$J$24,0)</f>
         <v>1</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="10">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="19">
         <v>1280</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="19">
         <f t="shared" si="1"/>
         <v>-1000</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="19">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-      <c r="E24" s="38">
+      <c r="E24" s="52">
         <f t="shared" si="3"/>
         <v>-22260.273972602739</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="52">
         <f t="shared" si="4"/>
         <v>-2226.027397260274</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="46">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="46">
         <f>ABS(E24)*24*I24</f>
         <v>7479452.0547945211</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="19">
         <v>14</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="13">
         <v>8997</v>
       </c>
       <c r="K24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>149</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B27">
+      <c r="A27" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="40">
         <v>0</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="40">
         <v>1</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="40">
         <v>2</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="40">
         <v>3</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="40">
         <v>4</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="40">
         <v>5</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="40">
         <v>6</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="40">
         <v>7</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="40">
         <v>8</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>110</v>
-      </c>
-      <c r="B28" s="36">
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="42">
         <f>$C20+B$27*ABS($C20-$D20)/9</f>
         <v>-1000</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="43">
         <f t="shared" ref="C28:K28" si="6">$C20+C$27*ABS($C20-$D20)/9</f>
         <v>-900</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="42">
         <f t="shared" si="6"/>
         <v>-800</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="43">
         <f t="shared" si="6"/>
         <v>-700</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="42">
         <f t="shared" si="6"/>
         <v>-600</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="43">
         <f t="shared" si="6"/>
         <v>-500</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="42">
         <f t="shared" si="6"/>
         <v>-400</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="43">
         <f t="shared" si="6"/>
         <v>-300</v>
       </c>
-      <c r="J28" s="36">
+      <c r="J28" s="42">
         <f t="shared" si="6"/>
         <v>-200</v>
       </c>
-      <c r="K28" s="36">
+      <c r="K28" s="44">
         <f t="shared" si="6"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="36">
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="42">
         <f t="shared" ref="B29:K32" si="7">$C21+B$27*ABS($C21-$D21)/9</f>
         <v>-769</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="43">
         <f t="shared" si="7"/>
         <v>-694.66666666666663</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="42">
         <f t="shared" si="7"/>
         <v>-620.33333333333337</v>
       </c>
-      <c r="E29" s="36">
+      <c r="E29" s="43">
         <f t="shared" si="7"/>
         <v>-546</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="42">
         <f t="shared" si="7"/>
         <v>-471.66666666666669</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="43">
         <f t="shared" si="7"/>
         <v>-397.33333333333331</v>
       </c>
-      <c r="H29" s="36">
+      <c r="H29" s="42">
         <f t="shared" si="7"/>
         <v>-323</v>
       </c>
-      <c r="I29" s="36">
+      <c r="I29" s="43">
         <f t="shared" si="7"/>
         <v>-248.66666666666663</v>
       </c>
-      <c r="J29" s="36">
+      <c r="J29" s="42">
         <f t="shared" si="7"/>
         <v>-174.33333333333337</v>
       </c>
-      <c r="K29" s="36">
+      <c r="K29" s="44">
         <f t="shared" si="7"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" s="36">
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="42">
         <f t="shared" si="7"/>
         <v>-894</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="43">
         <f t="shared" si="7"/>
         <v>-805.77777777777783</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="42">
         <f t="shared" si="7"/>
         <v>-717.55555555555554</v>
       </c>
-      <c r="E30" s="36">
+      <c r="E30" s="43">
         <f t="shared" si="7"/>
         <v>-629.33333333333326</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="42">
         <f t="shared" si="7"/>
         <v>-541.11111111111109</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="43">
         <f t="shared" si="7"/>
         <v>-452.88888888888891</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="42">
         <f t="shared" si="7"/>
         <v>-364.66666666666663</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="43">
         <f t="shared" si="7"/>
         <v>-276.44444444444446</v>
       </c>
-      <c r="J30" s="36">
+      <c r="J30" s="42">
         <f t="shared" si="7"/>
         <v>-188.22222222222217</v>
       </c>
-      <c r="K30" s="36">
+      <c r="K30" s="44">
         <f t="shared" si="7"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="36">
+    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="42">
         <f t="shared" si="7"/>
         <v>-522</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="43">
         <f t="shared" si="7"/>
         <v>-475.11111111111109</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="42">
         <f t="shared" si="7"/>
         <v>-428.22222222222223</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="43">
         <f t="shared" si="7"/>
         <v>-381.33333333333337</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="42">
         <f t="shared" si="7"/>
         <v>-334.44444444444446</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="43">
         <f t="shared" si="7"/>
         <v>-287.55555555555554</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="42">
         <f t="shared" si="7"/>
         <v>-240.66666666666669</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="43">
         <f t="shared" si="7"/>
         <v>-193.77777777777777</v>
       </c>
-      <c r="J31" s="36">
+      <c r="J31" s="42">
         <f t="shared" si="7"/>
         <v>-146.88888888888891</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="44">
         <f t="shared" si="7"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="36">
+    <row r="32" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="45">
         <f t="shared" si="7"/>
         <v>-1000</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="46">
         <f t="shared" si="7"/>
         <v>-900</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="45">
         <f t="shared" si="7"/>
         <v>-800</v>
       </c>
-      <c r="E32" s="36">
+      <c r="E32" s="46">
         <f t="shared" si="7"/>
         <v>-700</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="45">
         <f t="shared" si="7"/>
         <v>-600</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="46">
         <f t="shared" si="7"/>
         <v>-500</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32" s="45">
         <f t="shared" si="7"/>
         <v>-400</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="46">
         <f t="shared" si="7"/>
         <v>-300</v>
       </c>
-      <c r="J32" s="36">
+      <c r="J32" s="45">
         <f t="shared" si="7"/>
         <v>-200</v>
       </c>
-      <c r="K32" s="36">
+      <c r="K32" s="47">
         <f t="shared" si="7"/>
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>203</v>
+    <row r="34" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35">
+      <c r="A35" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="40">
         <v>0</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="40">
         <v>1</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="40">
         <v>2</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="40">
         <v>3</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="40">
         <v>4</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="40">
         <v>5</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="40">
         <v>6</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="40">
         <v>7</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="40">
         <v>8</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="36">
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="42">
         <f>$E20+B$35*ABS($E20-$F20)/9</f>
         <v>-22260.273972602739</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="43">
         <f t="shared" ref="C36:K36" si="8">$E20+C$35*ABS($E20-$F20)/9</f>
         <v>-20034.246575342466</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="42">
         <f t="shared" si="8"/>
         <v>-17808.219178082192</v>
       </c>
-      <c r="E36" s="36">
+      <c r="E36" s="43">
         <f t="shared" si="8"/>
         <v>-15582.191780821917</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="42">
         <f t="shared" si="8"/>
         <v>-13356.164383561643</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="43">
         <f t="shared" si="8"/>
         <v>-11130.13698630137</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H36" s="42">
         <f t="shared" si="8"/>
         <v>-8904.1095890410943</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="43">
         <f t="shared" si="8"/>
         <v>-6678.0821917808207</v>
       </c>
-      <c r="J36" s="36">
+      <c r="J36" s="42">
         <f t="shared" si="8"/>
         <v>-4452.0547945205471</v>
       </c>
-      <c r="K36" s="36">
+      <c r="K36" s="44">
         <f t="shared" si="8"/>
         <v>-2226.0273972602736</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>130</v>
-      </c>
-      <c r="B37" s="36">
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" s="42">
         <f t="shared" ref="B37:K40" si="9">$E21+B$35*ABS($E21-$F21)/9</f>
         <v>-17118.150684931508</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="43">
         <f t="shared" si="9"/>
         <v>-15463.470319634704</v>
       </c>
-      <c r="D37" s="36">
+      <c r="D37" s="42">
         <f t="shared" si="9"/>
         <v>-13808.789954337901</v>
       </c>
-      <c r="E37" s="36">
+      <c r="E37" s="43">
         <f t="shared" si="9"/>
         <v>-12154.109589041096</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="42">
         <f t="shared" si="9"/>
         <v>-10499.429223744293</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="43">
         <f t="shared" si="9"/>
         <v>-8844.7488584474886</v>
       </c>
-      <c r="H37" s="36">
+      <c r="H37" s="42">
         <f t="shared" si="9"/>
         <v>-7190.0684931506839</v>
       </c>
-      <c r="I37" s="36">
+      <c r="I37" s="43">
         <f t="shared" si="9"/>
         <v>-5535.3881278538811</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="42">
         <f t="shared" si="9"/>
         <v>-3880.7077625570782</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37" s="44">
         <f t="shared" si="9"/>
         <v>-2226.0273972602718</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="36">
+    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="42">
         <f t="shared" si="9"/>
         <v>-19900.68493150685</v>
       </c>
-      <c r="C38" s="36">
+      <c r="C38" s="43">
         <f t="shared" si="9"/>
         <v>-17936.834094368343</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="42">
         <f t="shared" si="9"/>
         <v>-15972.983257229833</v>
       </c>
-      <c r="E38" s="36">
+      <c r="E38" s="43">
         <f t="shared" si="9"/>
         <v>-14009.132420091326</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="42">
         <f t="shared" si="9"/>
         <v>-12045.281582952815</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="43">
         <f t="shared" si="9"/>
         <v>-10081.430745814307</v>
       </c>
-      <c r="H38" s="36">
+      <c r="H38" s="42">
         <f t="shared" si="9"/>
         <v>-8117.5799086757997</v>
       </c>
-      <c r="I38" s="36">
+      <c r="I38" s="43">
         <f t="shared" si="9"/>
         <v>-6153.729071537291</v>
       </c>
-      <c r="J38" s="36">
+      <c r="J38" s="42">
         <f t="shared" si="9"/>
         <v>-4189.8782343987823</v>
       </c>
-      <c r="K38" s="36">
+      <c r="K38" s="44">
         <f t="shared" si="9"/>
         <v>-2226.0273972602736</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="36">
+    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="42">
         <f t="shared" si="9"/>
         <v>-11619.86301369863</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C39" s="43">
         <f t="shared" si="9"/>
         <v>-10576.103500761035</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D39" s="42">
         <f t="shared" si="9"/>
         <v>-9532.3439878234403</v>
       </c>
-      <c r="E39" s="36">
+      <c r="E39" s="43">
         <f t="shared" si="9"/>
         <v>-8488.5844748858453</v>
       </c>
-      <c r="F39" s="36">
+      <c r="F39" s="42">
         <f t="shared" si="9"/>
         <v>-7444.8249619482494</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="43">
         <f t="shared" si="9"/>
         <v>-6401.0654490106544</v>
       </c>
-      <c r="H39" s="36">
+      <c r="H39" s="42">
         <f t="shared" si="9"/>
         <v>-5357.3059360730595</v>
       </c>
-      <c r="I39" s="36">
+      <c r="I39" s="43">
         <f t="shared" si="9"/>
         <v>-4313.5464231354645</v>
       </c>
-      <c r="J39" s="36">
+      <c r="J39" s="42">
         <f t="shared" si="9"/>
         <v>-3269.7869101978686</v>
       </c>
-      <c r="K39" s="36">
+      <c r="K39" s="44">
         <f t="shared" si="9"/>
         <v>-2226.0273972602736</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="36">
+    <row r="40" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="45">
         <f t="shared" si="9"/>
         <v>-22260.273972602739</v>
       </c>
-      <c r="C40" s="36">
+      <c r="C40" s="46">
         <f t="shared" si="9"/>
         <v>-20034.246575342466</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="45">
         <f t="shared" si="9"/>
         <v>-17808.219178082192</v>
       </c>
-      <c r="E40" s="36">
+      <c r="E40" s="46">
         <f t="shared" si="9"/>
         <v>-15582.191780821917</v>
       </c>
-      <c r="F40" s="36">
+      <c r="F40" s="45">
         <f t="shared" si="9"/>
         <v>-13356.164383561643</v>
       </c>
-      <c r="G40" s="36">
+      <c r="G40" s="46">
         <f t="shared" si="9"/>
         <v>-11130.13698630137</v>
       </c>
-      <c r="H40" s="36">
+      <c r="H40" s="45">
         <f t="shared" si="9"/>
         <v>-8904.1095890410943</v>
       </c>
-      <c r="I40" s="36">
+      <c r="I40" s="46">
         <f t="shared" si="9"/>
         <v>-6678.0821917808207</v>
       </c>
-      <c r="J40" s="36">
+      <c r="J40" s="45">
         <f t="shared" si="9"/>
         <v>-4452.0547945205471</v>
       </c>
-      <c r="K40" s="36">
+      <c r="K40" s="47">
         <f t="shared" si="9"/>
         <v>-2226.0273972602736</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>156</v>
+    <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43">
+      <c r="A43" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="40">
         <v>0</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="40">
         <v>1</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="40">
         <v>2</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="40">
         <v>3</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="40">
         <v>4</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="40">
         <v>5</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="40">
         <v>6</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="40">
         <v>7</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="40">
         <v>8</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="41">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="36">
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="42">
         <f>B$43*ABS($G20-$H20)/9</f>
         <v>0</v>
       </c>
-      <c r="C44" s="36">
+      <c r="C44" s="43">
         <f t="shared" ref="C44:J44" si="10">C$43*ABS($G20-$H20)/9</f>
         <v>118721.46118721462</v>
       </c>
-      <c r="D44" s="36">
+      <c r="D44" s="42">
         <f t="shared" si="10"/>
         <v>237442.92237442924</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44" s="43">
         <f t="shared" si="10"/>
         <v>356164.38356164389</v>
       </c>
-      <c r="F44" s="36">
+      <c r="F44" s="42">
         <f t="shared" si="10"/>
         <v>474885.84474885848</v>
       </c>
-      <c r="G44" s="36">
+      <c r="G44" s="43">
         <f t="shared" si="10"/>
         <v>593607.30593607307</v>
       </c>
-      <c r="H44" s="36">
+      <c r="H44" s="42">
         <f t="shared" si="10"/>
         <v>712328.76712328778</v>
       </c>
-      <c r="I44" s="36">
+      <c r="I44" s="43">
         <f t="shared" si="10"/>
         <v>831050.22831050237</v>
       </c>
-      <c r="J44" s="36">
+      <c r="J44" s="42">
         <f t="shared" si="10"/>
         <v>949771.68949771696</v>
       </c>
-      <c r="K44" s="36">
+      <c r="K44" s="44">
         <f>K$43*ABS($G20-$H20)/9</f>
         <v>1068493.1506849315</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B45" s="36">
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="42">
         <f t="shared" ref="B45:K45" si="11">B$43*ABS($G21-$H21)/9</f>
         <v>0</v>
       </c>
-      <c r="C45" s="36">
+      <c r="C45" s="43">
         <f t="shared" si="11"/>
         <v>319538.8127853882</v>
       </c>
-      <c r="D45" s="36">
+      <c r="D45" s="42">
         <f t="shared" si="11"/>
         <v>639077.62557077641</v>
       </c>
-      <c r="E45" s="36">
+      <c r="E45" s="43">
         <f t="shared" si="11"/>
         <v>958616.43835616438</v>
       </c>
-      <c r="F45" s="36">
+      <c r="F45" s="42">
         <f t="shared" si="11"/>
         <v>1278155.2511415528</v>
       </c>
-      <c r="G45" s="36">
+      <c r="G45" s="43">
         <f t="shared" si="11"/>
         <v>1597694.063926941</v>
       </c>
-      <c r="H45" s="36">
+      <c r="H45" s="42">
         <f t="shared" si="11"/>
         <v>1917232.8767123288</v>
       </c>
-      <c r="I45" s="36">
+      <c r="I45" s="43">
         <f t="shared" si="11"/>
         <v>2236771.6894977172</v>
       </c>
-      <c r="J45" s="36">
+      <c r="J45" s="42">
         <f t="shared" si="11"/>
         <v>2556310.5022831056</v>
       </c>
-      <c r="K45" s="36">
+      <c r="K45" s="44">
         <f t="shared" si="11"/>
         <v>2875849.3150684936</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>115</v>
-      </c>
-      <c r="B46" s="36">
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="42">
         <f t="shared" ref="B46:K46" si="12">B$43*ABS($G22-$H22)/9</f>
         <v>0</v>
       </c>
-      <c r="C46" s="36">
+      <c r="C46" s="43">
         <f t="shared" si="12"/>
         <v>106136.98630136986</v>
       </c>
-      <c r="D46" s="36">
+      <c r="D46" s="42">
         <f t="shared" si="12"/>
         <v>212273.97260273973</v>
       </c>
-      <c r="E46" s="36">
+      <c r="E46" s="43">
         <f t="shared" si="12"/>
         <v>318410.9589041096</v>
       </c>
-      <c r="F46" s="36">
+      <c r="F46" s="42">
         <f t="shared" si="12"/>
         <v>424547.94520547945</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="43">
         <f t="shared" si="12"/>
         <v>530684.93150684936</v>
       </c>
-      <c r="H46" s="36">
+      <c r="H46" s="42">
         <f t="shared" si="12"/>
         <v>636821.91780821921</v>
       </c>
-      <c r="I46" s="36">
+      <c r="I46" s="43">
         <f t="shared" si="12"/>
         <v>742958.90410958906</v>
       </c>
-      <c r="J46" s="36">
+      <c r="J46" s="42">
         <f t="shared" si="12"/>
         <v>849095.89041095891</v>
       </c>
-      <c r="K46" s="36">
+      <c r="K46" s="44">
         <f t="shared" si="12"/>
         <v>955232.87671232887</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>126</v>
-      </c>
-      <c r="B47" s="36">
+    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="42">
         <f t="shared" ref="B47:K47" si="13">B$43*ABS($G23-$H23)/9</f>
         <v>0</v>
       </c>
-      <c r="C47" s="36">
+      <c r="C47" s="43">
         <f t="shared" si="13"/>
         <v>30986.301369863013</v>
       </c>
-      <c r="D47" s="36">
+      <c r="D47" s="42">
         <f t="shared" si="13"/>
         <v>61972.602739726026</v>
       </c>
-      <c r="E47" s="36">
+      <c r="E47" s="43">
         <f t="shared" si="13"/>
         <v>92958.904109589028</v>
       </c>
-      <c r="F47" s="36">
+      <c r="F47" s="42">
         <f t="shared" si="13"/>
         <v>123945.20547945205</v>
       </c>
-      <c r="G47" s="36">
+      <c r="G47" s="43">
         <f t="shared" si="13"/>
         <v>154931.50684931508</v>
       </c>
-      <c r="H47" s="36">
+      <c r="H47" s="42">
         <f t="shared" si="13"/>
         <v>185917.80821917806</v>
       </c>
-      <c r="I47" s="36">
+      <c r="I47" s="43">
         <f t="shared" si="13"/>
         <v>216904.10958904109</v>
       </c>
-      <c r="J47" s="36">
+      <c r="J47" s="42">
         <f t="shared" si="13"/>
         <v>247890.4109589041</v>
       </c>
-      <c r="K47" s="36">
+      <c r="K47" s="44">
         <f t="shared" si="13"/>
         <v>278876.71232876711</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B48" s="36">
+    <row r="48" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="45">
         <f t="shared" ref="B48:K48" si="14">B$43*ABS($G24-$H24)/9</f>
         <v>0</v>
       </c>
-      <c r="C48" s="36">
+      <c r="C48" s="46">
         <f t="shared" si="14"/>
         <v>831050.22831050237</v>
       </c>
-      <c r="D48" s="36">
+      <c r="D48" s="45">
         <f t="shared" si="14"/>
         <v>1662100.4566210047</v>
       </c>
-      <c r="E48" s="36">
+      <c r="E48" s="46">
         <f t="shared" si="14"/>
         <v>2493150.6849315073</v>
       </c>
-      <c r="F48" s="36">
+      <c r="F48" s="45">
         <f t="shared" si="14"/>
         <v>3324200.9132420095</v>
       </c>
-      <c r="G48" s="36">
+      <c r="G48" s="46">
         <f t="shared" si="14"/>
         <v>4155251.1415525121</v>
       </c>
-      <c r="H48" s="36">
+      <c r="H48" s="45">
         <f t="shared" si="14"/>
         <v>4986301.3698630147</v>
       </c>
-      <c r="I48" s="36">
+      <c r="I48" s="46">
         <f t="shared" si="14"/>
         <v>5817351.5981735168</v>
       </c>
-      <c r="J48" s="36">
+      <c r="J48" s="45">
         <f t="shared" si="14"/>
         <v>6648401.8264840189</v>
       </c>
-      <c r="K48" s="36">
+      <c r="K48" s="47">
         <f t="shared" si="14"/>
         <v>7479452.054794522</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="38" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3535,10 +3584,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40"/>
+      <c r="B2" s="34"/>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -3667,302 +3716,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926ACCEB-6613-41C3-AB8E-7E632C9D30FD}">
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7">
-        <v>1580</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="3">
-        <f>B7*1000/(24*3600)</f>
-        <v>18.287037037037038</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="5">
-        <f>B7*1000/24</f>
-        <v>65833.333333333328</v>
-      </c>
-      <c r="G7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8">
-        <v>255</v>
-      </c>
-      <c r="C8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="3">
-        <f>B8*1000/(24*3600)</f>
-        <v>2.9513888888888888</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="5">
-        <f>B8*1000/24</f>
-        <v>10625</v>
-      </c>
-      <c r="G8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9">
-        <v>14.9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11">
-        <v>176</v>
-      </c>
-      <c r="C11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="3">
-        <f>B11*1000/(24*3600)</f>
-        <v>2.0370370370370372</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="5">
-        <f>B11*1000/24</f>
-        <v>7333.333333333333</v>
-      </c>
-      <c r="G11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12">
-        <v>213</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="3">
-        <f t="shared" ref="D12:D13" si="0">B12*1000/(24*3600)</f>
-        <v>2.4652777777777777</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="5">
-        <f t="shared" ref="F12:F13" si="1">B12*1000/24</f>
-        <v>8875</v>
-      </c>
-      <c r="G12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13">
-        <v>118</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="3">
-        <f t="shared" si="0"/>
-        <v>1.3657407407407407</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="1"/>
-        <v>4916.666666666667</v>
-      </c>
-      <c r="G13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17">
-        <v>39.799999999999997</v>
-      </c>
-      <c r="C17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="6">
-        <f>1/B17</f>
-        <v>2.5125628140703519E-2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B20">
-        <f>B19*1000</f>
-        <v>25.125628140703519</v>
-      </c>
-      <c r="C20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A15:G15"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{D47EE4A2-649A-42B4-8738-DF2E48262124}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{49708E60-D8BD-48F2-8030-EEB685223FB9}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E49A404-39E7-6B45-B584-7FD70EB84AF5}">
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3974,21 +3732,21 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="G1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="B2">
         <v>1.2E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="H2">
         <v>3.7854100000000002</v>
@@ -3996,32 +3754,32 @@
     </row>
     <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="23">
+      <c r="A4" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="20">
         <v>100</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="20">
         <v>500</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="26">
         <v>1000</v>
       </c>
       <c r="G4" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="H4">
         <v>0.77</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>99</v>
+      <c r="A5" s="9" t="s">
+        <v>81</v>
       </c>
       <c r="B5">
         <f>MeOH_original_data!B2*(1+MeOH!$B$2)</f>
@@ -4031,20 +3789,20 @@
         <f>MeOH_original_data!C2*(1+MeOH!$B$2)</f>
         <v>376933297.796</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="24">
         <f>MeOH_original_data!D2*(1+MeOH!$B$2)</f>
         <v>655027563.25600004</v>
       </c>
       <c r="G5" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="H5">
         <v>0.8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
-        <v>162</v>
+      <c r="A6" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="B6">
         <f>MeOH_original_data!B3*(1+MeOH!$B$2)</f>
@@ -4054,24 +3812,24 @@
         <f>MeOH_original_data!C3*(1+MeOH!$B$2)</f>
         <v>19962889.100000001</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="24">
         <f>MeOH_original_data!D3*(1+MeOH!$B$2)</f>
         <v>27050057.672000002</v>
       </c>
       <c r="G6" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="H6">
         <v>0.85</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="9"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>170</v>
+      <c r="A8" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="B8">
         <f>SUM(B9:B13)</f>
@@ -4081,14 +3839,14 @@
         <f t="shared" ref="C8:D8" si="0">SUM(C9:C13)</f>
         <v>3156650.1339999996</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="24">
         <f t="shared" si="0"/>
         <v>6314321.8819999993</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>163</v>
+      <c r="A9" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -4096,13 +3854,13 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
-        <v>164</v>
+      <c r="A10" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4110,13 +3868,13 @@
       <c r="C10">
         <v>0</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>165</v>
+      <c r="A11" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -4124,13 +3882,13 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>166</v>
+      <c r="A12" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="B12">
         <f>0.25*MeOH_original_data!B8*(1+MeOH!$B$2)</f>
@@ -4140,234 +3898,234 @@
         <f>0.25*MeOH_original_data!C8*(1+MeOH!$B$2)</f>
         <v>629646.91899999999</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="10">
         <f>0.25*MeOH_original_data!D8*(1+MeOH!$B$2)</f>
         <v>1259519.0079999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="22">
+      <c r="A13" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="19">
         <f>0.25*MeOH_original_data!B9*(1+MeOH!$B$2)</f>
         <v>505490.96399999998</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="19">
         <f>0.25*MeOH_original_data!C9*(1+MeOH!$B$2)</f>
         <v>2527003.2149999999</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="13">
         <f>0.25*MeOH_original_data!D9*(1+MeOH!$B$2)</f>
         <v>5054802.8739999998</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" s="23">
+      <c r="A19" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="20">
         <v>100</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="20">
         <v>500</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="21">
         <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
-        <v>184</v>
-      </c>
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="43"/>
+      <c r="A20" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B21" s="32">
+      <c r="A21" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="29">
         <f>MeOH_original_data!B18*1000/(365*24)</f>
         <v>2226.027397260274</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="29">
         <f>MeOH_original_data!C18*1000/(365*24)</f>
         <v>11130.13698630137</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="30">
         <f>MeOH_original_data!D18*1000/(365*24)</f>
         <v>22260.273972602739</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="B22" s="32">
+      <c r="A22" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="29">
         <f>MeOH_original_data!B19*1000/(365*24)</f>
         <v>13384.817351598174</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="29">
         <f>MeOH_original_data!C19*1000/(365*24)</f>
         <v>66917.922374429225</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="30">
         <f>MeOH_original_data!D19*1000/(365*24)</f>
         <v>133848.74429223745</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="43"/>
+      <c r="A23" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" s="30">
+      <c r="A24" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="27">
         <f>MeOH_original_data!B21*1000000/(365*24)</f>
         <v>70.776255707762559</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="27">
         <f>MeOH_original_data!C21*1000000/(365*24)</f>
         <v>352.73972602739724</v>
       </c>
-      <c r="D24" s="31">
+      <c r="D24" s="28">
         <f>MeOH_original_data!D21*1000000/(365*24)</f>
         <v>705.47945205479448</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B25" s="30">
+      <c r="A25" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B25" s="27">
         <f>MeOH_original_data!B22*1000000/(365*24)</f>
         <v>303.65296803652967</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="27">
         <f>MeOH_original_data!C22*1000000/(365*24)</f>
         <v>1519.4063926940639</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="28">
         <f>MeOH_original_data!D22*1000000/(365*24)</f>
         <v>3039.9543378995436</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26" s="30">
+      <c r="A26" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="27">
         <f>MeOH_original_data!B23*1000000/(365*24)</f>
         <v>1114.1552511415525</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="27">
         <f>MeOH_original_data!C23*1000000/(365*24)</f>
         <v>5567.3515981735163</v>
       </c>
-      <c r="D26" s="31">
+      <c r="D26" s="28">
         <f>MeOH_original_data!D23*1000000/(365*24)</f>
         <v>11135.844748858448</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="43"/>
+      <c r="A27" s="35" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="str">
+      <c r="A28" s="9" t="str">
         <f>A24</f>
         <v xml:space="preserve">naphtha </v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="29">
         <f>B24*$H$2*$H4</f>
         <v>206.29620251141554</v>
       </c>
-      <c r="C28" s="32">
+      <c r="C28" s="29">
         <f t="shared" ref="C28:D28" si="1">C24*$H$2*$H4</f>
         <v>1028.1536544520548</v>
       </c>
-      <c r="D28" s="33">
+      <c r="D28" s="30">
         <f t="shared" si="1"/>
         <v>2056.3073089041095</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="str">
+      <c r="A29" s="9" t="str">
         <f t="shared" ref="A29:A30" si="2">A25</f>
         <v>jet fuel</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="29">
         <f t="shared" ref="B29:D29" si="3">B25*$H$2*$H5</f>
         <v>919.5607853881279</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C29" s="29">
         <f t="shared" si="3"/>
         <v>4601.2609223744294</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="30">
         <f t="shared" si="3"/>
         <v>9205.9788401826499</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="str">
+      <c r="A30" s="11" t="str">
         <f t="shared" si="2"/>
         <v>diesel</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="31">
         <f t="shared" ref="B30:D30" si="4">B26*$H$2*$H6</f>
         <v>3584.9042648401823</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="31">
         <f t="shared" si="4"/>
         <v>17913.502151255707</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="32">
         <f t="shared" si="4"/>
         <v>35830.677360159818</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B34">
         <v>100</v>
@@ -4381,7 +4139,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B35">
         <v>167921429.192</v>
@@ -4395,16 +4153,16 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D36" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -4457,29 +4215,29 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="B42" s="25">
+      <c r="A42" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="22">
         <f>EXP(20.237)</f>
         <v>614918317.57584751</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="B43" s="25">
+      <c r="A43" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="22">
         <v>0.57550000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="B45">
         <f>B19</f>
@@ -4496,7 +4254,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B46">
         <f>B21/B45</f>
@@ -4513,7 +4271,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="B47">
         <f>B46</f>
@@ -4531,7 +4289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDBD3A5-912B-984E-9A90-BB156C754950}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -4547,7 +4305,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B1">
         <v>100</v>
@@ -4561,7 +4319,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>165930266</v>
@@ -4575,7 +4333,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B3">
         <v>11163579</v>
@@ -4589,7 +4347,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="B4">
         <v>41496911</v>
@@ -4603,7 +4361,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B5">
         <v>33150</v>
@@ -4617,7 +4375,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="B6">
         <v>3972302</v>
@@ -4631,7 +4389,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="B7">
         <v>2878787</v>
@@ -4645,7 +4403,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B8">
         <v>497834</v>
@@ -4659,7 +4417,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B9">
         <v>1997988</v>
@@ -4672,28 +4430,28 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
-        <v>168</v>
+      <c r="A11" s="23" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="B16">
         <v>100</v>
@@ -4707,12 +4465,12 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B18">
         <v>19500</v>
@@ -4726,7 +4484,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="B19">
         <v>117251</v>
@@ -4740,12 +4498,12 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="B21">
         <v>0.62</v>
@@ -4759,7 +4517,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B22">
         <v>2.66</v>
@@ -4773,7 +4531,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="B23">
         <v>9.76</v>
@@ -4791,7 +4549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0215393-90AE-4217-9780-C6903F6FBFD3}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -4815,150 +4573,150 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="5">
         <v>36.799999999999997</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="8">
+      <c r="A4" s="9"/>
+      <c r="B4" s="5">
         <f>1/B3</f>
         <v>2.7173913043478264E-2</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>79</v>
+      <c r="C4" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B5">
         <v>6.4</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B6">
         <v>590</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B7">
         <v>763</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B8">
         <v>544</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="5">
         <v>703</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B10">
         <v>20</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="5">
         <v>32.64</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="5">
         <v>3.41</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="12">
         <v>20</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="13" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>78</v>
+      <c r="A16" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4966,7 +4724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC147DE-C2D1-4559-861B-2B8673B56208}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -4982,10 +4740,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5050,7 +4808,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B8">
         <f>AVERAGE(B4:B7)</f>
@@ -5059,7 +4817,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5074,7 +4832,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -5098,12 +4856,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5236045A-41A7-AF40-95B6-DBF867B04F6F}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F8"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5113,46 +4871,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>143</v>
+      <c r="H1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -5161,31 +4919,31 @@
         <v>3645</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="H2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" s="21">
+        <v>95</v>
+      </c>
+      <c r="I2" s="18">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="15">
         <f>$B$10+I2*(1-$B$10)</f>
         <v>0.28505000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5196,29 +4954,29 @@
       <c r="F3">
         <v>894</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>116</v>
+      <c r="G3" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="H3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I3" s="21">
+        <v>98</v>
+      </c>
+      <c r="I3" s="18">
         <v>0</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="15">
         <f t="shared" ref="J3:J8" si="0">$B$10+I3*(1-$B$10)</f>
         <v>0.21</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -5229,29 +4987,29 @@
       <c r="F4">
         <v>1280</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>120</v>
+      <c r="G4" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="H4" t="s">
-        <v>121</v>
-      </c>
-      <c r="I4" s="21">
+        <v>102</v>
+      </c>
+      <c r="I4" s="18">
         <v>0</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="15">
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -5260,31 +5018,31 @@
         <v>3411</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>105</v>
       </c>
       <c r="H5" t="s">
-        <v>125</v>
-      </c>
-      <c r="I5" s="21">
+        <v>106</v>
+      </c>
+      <c r="I5" s="18">
         <v>8.8400000000000006E-2</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="15">
         <f t="shared" si="0"/>
         <v>0.27983599999999997</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -5293,31 +5051,31 @@
         <v>1677</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>109</v>
       </c>
       <c r="H6" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" s="21">
+        <v>110</v>
+      </c>
+      <c r="I6" s="18">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="15">
         <f t="shared" si="0"/>
         <v>0.28742000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5328,29 +5086,29 @@
       <c r="F7">
         <v>769</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>133</v>
+      <c r="G7" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="H7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I7" s="21">
+        <v>115</v>
+      </c>
+      <c r="I7" s="18">
         <v>7.8100000000000003E-2</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="15">
         <f t="shared" si="0"/>
         <v>0.27169900000000002</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -5359,34 +5117,34 @@
         <v>3990</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>137</v>
+        <v>123</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="H8" t="s">
-        <v>138</v>
-      </c>
-      <c r="I8" s="21">
+        <v>119</v>
+      </c>
+      <c r="I8" s="18">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="15">
         <f t="shared" si="0"/>
         <v>0.24870999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H9" s="17"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="20">
+        <v>125</v>
+      </c>
+      <c r="B10" s="17">
         <v>0.21</v>
       </c>
-      <c r="G10" s="19"/>
-      <c r="H10" s="17"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/use_cases/LWR_MeOH_2023/data/HERON_data.xlsx
+++ b/use_cases/LWR_MeOH_2023/data/HERON_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/LWR_MeOH_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D16D78-4ADD-1949-B922-E27C21077EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4689BC62-852B-A848-96A1-302D3FD5988E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{3CE7F202-39F9-48AF-B0C7-575379157397}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="2" xr2:uid="{3CE7F202-39F9-48AF-B0C7-575379157397}"/>
   </bookViews>
   <sheets>
     <sheet name="Sweep values" sheetId="10" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Capacity_Market" sheetId="3" r:id="rId6"/>
     <sheet name="NPP_capacities" sheetId="12" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="188">
   <si>
     <t>Source</t>
   </si>
@@ -508,15 +508,9 @@
     <t xml:space="preserve">naphtha </t>
   </si>
   <si>
-    <t>Inputs (MT/y)</t>
-  </si>
-  <si>
     <t xml:space="preserve">co2 </t>
   </si>
   <si>
-    <t>Fuel products (MMgal/y)</t>
-  </si>
-  <si>
     <t>jet fuel</t>
   </si>
   <si>
@@ -541,9 +535,6 @@
     <t>Inputs (kg/h)</t>
   </si>
   <si>
-    <t>Fuel products (gal/h)</t>
-  </si>
-  <si>
     <t>Fuel products (kg/h)</t>
   </si>
   <si>
@@ -602,15 +593,28 @@
   </si>
   <si>
     <t>SA sweep values</t>
+  </si>
+  <si>
+    <t>Inputs (MT/d)</t>
+  </si>
+  <si>
+    <t>Fuel products (MT/d)</t>
+  </si>
+  <si>
+    <t>electricity (MW)</t>
+  </si>
+  <si>
+    <t>Ratios\Scale(MWe)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -659,7 +663,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -688,8 +692,14 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -881,6 +891,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -889,7 +938,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -917,13 +966,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="12" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -936,37 +1010,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="4"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="12" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="16" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -1043,7 +1107,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>MeOH!$D$36</c:f>
+              <c:f>MeOH!$D$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1120,7 +1184,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>MeOH!$C$37:$C$39</c:f>
+              <c:f>MeOH!$C$34:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1138,7 +1202,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MeOH!$D$37:$D$39</c:f>
+              <c:f>MeOH!$D$34:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1999,16 +2063,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2335,7 +2399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9241F20-95C4-42A2-B03A-23B9DD4DBFA3}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
@@ -2478,52 +2542,52 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="33">
+        <v>175</v>
+      </c>
+      <c r="B15" s="28">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B16">
-        <f>MeOH!B47</f>
-        <v>22.260273972602739</v>
+        <f>MeOH!B44</f>
+        <v>24.166666666666664</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="48" t="s">
+      <c r="A18" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="55" t="s">
-        <v>183</v>
-      </c>
-      <c r="F18" s="56"/>
-      <c r="G18" s="55" t="s">
+      <c r="D18" s="46"/>
+      <c r="E18" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="46"/>
+      <c r="G18" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="11" t="s">
         <v>74</v>
       </c>
@@ -2553,34 +2617,34 @@
       <c r="A20" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="50">
+      <c r="B20">
         <v>1194</v>
       </c>
-      <c r="C20" s="50">
+      <c r="C20">
         <f>MAX(-B20+$B$15, -1000+$B$15)</f>
         <v>-1000</v>
       </c>
-      <c r="D20" s="50">
+      <c r="D20">
         <f>-100+$B$15</f>
         <v>-100</v>
       </c>
-      <c r="E20" s="51">
+      <c r="E20" s="39">
         <f>C20*$B$16</f>
-        <v>-22260.273972602739</v>
-      </c>
-      <c r="F20" s="51">
+        <v>-24166.666666666664</v>
+      </c>
+      <c r="F20" s="39">
         <f>D20*$B$16</f>
-        <v>-2226.027397260274</v>
-      </c>
-      <c r="G20" s="43">
+        <v>-2416.6666666666665</v>
+      </c>
+      <c r="G20" s="34">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H20" s="43">
+      <c r="H20" s="34">
         <f>ABS(E20)*24*I20</f>
-        <v>1068493.1506849315</v>
-      </c>
-      <c r="I20" s="50">
+        <v>1160000</v>
+      </c>
+      <c r="I20">
         <f t="shared" ref="I20:I22" si="0">ROUNDUP(J20*$I$24/$J$24,0)</f>
         <v>2</v>
       </c>
@@ -2592,34 +2656,34 @@
       <c r="A21" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="50">
+      <c r="B21">
         <v>769</v>
       </c>
-      <c r="C21" s="50">
+      <c r="C21">
         <f t="shared" ref="C21:C24" si="1">MAX(-B21+$B$15, -1000+$B$15)</f>
         <v>-769</v>
       </c>
-      <c r="D21" s="50">
+      <c r="D21">
         <f t="shared" ref="D21:D24" si="2">-100+$B$15</f>
         <v>-100</v>
       </c>
-      <c r="E21" s="51">
+      <c r="E21" s="39">
         <f t="shared" ref="E21:E24" si="3">C21*$B$16</f>
-        <v>-17118.150684931508</v>
-      </c>
-      <c r="F21" s="51">
+        <v>-18584.166666666664</v>
+      </c>
+      <c r="F21" s="39">
         <f t="shared" ref="F21:F24" si="4">D21*$B$16</f>
-        <v>-2226.027397260274</v>
-      </c>
-      <c r="G21" s="43">
+        <v>-2416.6666666666665</v>
+      </c>
+      <c r="G21" s="34">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H21" s="43">
+      <c r="H21" s="34">
         <f t="shared" ref="H21:H23" si="5">ABS(E21)*24*I21</f>
-        <v>2875849.3150684936</v>
-      </c>
-      <c r="I21" s="50">
+        <v>3122139.9999999995</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -2631,34 +2695,34 @@
       <c r="A22" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="50">
+      <c r="B22">
         <v>894</v>
       </c>
-      <c r="C22" s="50">
+      <c r="C22">
         <f t="shared" si="1"/>
         <v>-894</v>
       </c>
-      <c r="D22" s="50">
+      <c r="D22">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="39">
         <f t="shared" si="3"/>
-        <v>-19900.68493150685</v>
-      </c>
-      <c r="F22" s="51">
+        <v>-21604.999999999996</v>
+      </c>
+      <c r="F22" s="39">
         <f t="shared" si="4"/>
-        <v>-2226.027397260274</v>
-      </c>
-      <c r="G22" s="43">
+        <v>-2416.6666666666665</v>
+      </c>
+      <c r="G22" s="34">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H22" s="43">
+      <c r="H22" s="34">
         <f t="shared" si="5"/>
-        <v>955232.87671232875</v>
-      </c>
-      <c r="I22" s="50">
+        <v>1037039.9999999998</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2670,34 +2734,34 @@
       <c r="A23" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="50">
+      <c r="B23">
         <v>522</v>
       </c>
-      <c r="C23" s="50">
+      <c r="C23">
         <f t="shared" si="1"/>
         <v>-522</v>
       </c>
-      <c r="D23" s="50">
+      <c r="D23">
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-      <c r="E23" s="51">
+      <c r="E23" s="39">
         <f t="shared" si="3"/>
-        <v>-11619.86301369863</v>
-      </c>
-      <c r="F23" s="51">
+        <v>-12614.999999999998</v>
+      </c>
+      <c r="F23" s="39">
         <f t="shared" si="4"/>
-        <v>-2226.027397260274</v>
-      </c>
-      <c r="G23" s="43">
+        <v>-2416.6666666666665</v>
+      </c>
+      <c r="G23" s="34">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H23" s="43">
+      <c r="H23" s="34">
         <f t="shared" si="5"/>
-        <v>278876.71232876711</v>
-      </c>
-      <c r="I23" s="50">
+        <v>302759.99999999994</v>
+      </c>
+      <c r="I23">
         <f>ROUNDUP(J23*$I$24/$J$24,0)</f>
         <v>1</v>
       </c>
@@ -2720,21 +2784,21 @@
         <f t="shared" si="2"/>
         <v>-100</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="40">
         <f t="shared" si="3"/>
-        <v>-22260.273972602739</v>
-      </c>
-      <c r="F24" s="52">
+        <v>-24166.666666666664</v>
+      </c>
+      <c r="F24" s="40">
         <f t="shared" si="4"/>
-        <v>-2226.027397260274</v>
-      </c>
-      <c r="G24" s="46">
+        <v>-2416.6666666666665</v>
+      </c>
+      <c r="G24" s="37">
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24" s="37">
         <f>ABS(E24)*24*I24</f>
-        <v>7479452.0547945211</v>
+        <v>8120000</v>
       </c>
       <c r="I24" s="19">
         <v>14</v>
@@ -2752,37 +2816,37 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="40">
+      <c r="B27" s="31">
         <v>0</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C27" s="31">
         <v>1</v>
       </c>
-      <c r="D27" s="40">
+      <c r="D27" s="31">
         <v>2</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="31">
         <v>3</v>
       </c>
-      <c r="F27" s="40">
+      <c r="F27" s="31">
         <v>4</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="31">
         <v>5</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="31">
         <v>6</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27" s="31">
         <v>7</v>
       </c>
-      <c r="J27" s="40">
+      <c r="J27" s="31">
         <v>8</v>
       </c>
-      <c r="K27" s="41">
+      <c r="K27" s="32">
         <v>9</v>
       </c>
     </row>
@@ -2790,43 +2854,43 @@
       <c r="A28" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="42">
+      <c r="B28" s="33">
         <f>$C20+B$27*ABS($C20-$D20)/9</f>
         <v>-1000</v>
       </c>
-      <c r="C28" s="43">
+      <c r="C28" s="34">
         <f t="shared" ref="C28:K28" si="6">$C20+C$27*ABS($C20-$D20)/9</f>
         <v>-900</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="33">
         <f t="shared" si="6"/>
         <v>-800</v>
       </c>
-      <c r="E28" s="43">
+      <c r="E28" s="34">
         <f t="shared" si="6"/>
         <v>-700</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="33">
         <f t="shared" si="6"/>
         <v>-600</v>
       </c>
-      <c r="G28" s="43">
+      <c r="G28" s="34">
         <f t="shared" si="6"/>
         <v>-500</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="33">
         <f t="shared" si="6"/>
         <v>-400</v>
       </c>
-      <c r="I28" s="43">
+      <c r="I28" s="34">
         <f t="shared" si="6"/>
         <v>-300</v>
       </c>
-      <c r="J28" s="42">
+      <c r="J28" s="33">
         <f t="shared" si="6"/>
         <v>-200</v>
       </c>
-      <c r="K28" s="44">
+      <c r="K28" s="35">
         <f t="shared" si="6"/>
         <v>-100</v>
       </c>
@@ -2835,43 +2899,43 @@
       <c r="A29" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B29" s="42">
+      <c r="B29" s="33">
         <f t="shared" ref="B29:K32" si="7">$C21+B$27*ABS($C21-$D21)/9</f>
         <v>-769</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="34">
         <f t="shared" si="7"/>
         <v>-694.66666666666663</v>
       </c>
-      <c r="D29" s="42">
+      <c r="D29" s="33">
         <f t="shared" si="7"/>
         <v>-620.33333333333337</v>
       </c>
-      <c r="E29" s="43">
+      <c r="E29" s="34">
         <f t="shared" si="7"/>
         <v>-546</v>
       </c>
-      <c r="F29" s="42">
+      <c r="F29" s="33">
         <f t="shared" si="7"/>
         <v>-471.66666666666669</v>
       </c>
-      <c r="G29" s="43">
+      <c r="G29" s="34">
         <f t="shared" si="7"/>
         <v>-397.33333333333331</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="33">
         <f t="shared" si="7"/>
         <v>-323</v>
       </c>
-      <c r="I29" s="43">
+      <c r="I29" s="34">
         <f t="shared" si="7"/>
         <v>-248.66666666666663</v>
       </c>
-      <c r="J29" s="42">
+      <c r="J29" s="33">
         <f t="shared" si="7"/>
         <v>-174.33333333333337</v>
       </c>
-      <c r="K29" s="44">
+      <c r="K29" s="35">
         <f t="shared" si="7"/>
         <v>-100</v>
       </c>
@@ -2880,43 +2944,43 @@
       <c r="A30" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="42">
+      <c r="B30" s="33">
         <f t="shared" si="7"/>
         <v>-894</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="34">
         <f t="shared" si="7"/>
         <v>-805.77777777777783</v>
       </c>
-      <c r="D30" s="42">
+      <c r="D30" s="33">
         <f t="shared" si="7"/>
         <v>-717.55555555555554</v>
       </c>
-      <c r="E30" s="43">
+      <c r="E30" s="34">
         <f t="shared" si="7"/>
         <v>-629.33333333333326</v>
       </c>
-      <c r="F30" s="42">
+      <c r="F30" s="33">
         <f t="shared" si="7"/>
         <v>-541.11111111111109</v>
       </c>
-      <c r="G30" s="43">
+      <c r="G30" s="34">
         <f t="shared" si="7"/>
         <v>-452.88888888888891</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="33">
         <f t="shared" si="7"/>
         <v>-364.66666666666663</v>
       </c>
-      <c r="I30" s="43">
+      <c r="I30" s="34">
         <f t="shared" si="7"/>
         <v>-276.44444444444446</v>
       </c>
-      <c r="J30" s="42">
+      <c r="J30" s="33">
         <f t="shared" si="7"/>
         <v>-188.22222222222217</v>
       </c>
-      <c r="K30" s="44">
+      <c r="K30" s="35">
         <f t="shared" si="7"/>
         <v>-100</v>
       </c>
@@ -2925,43 +2989,43 @@
       <c r="A31" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="42">
+      <c r="B31" s="33">
         <f t="shared" si="7"/>
         <v>-522</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="34">
         <f t="shared" si="7"/>
         <v>-475.11111111111109</v>
       </c>
-      <c r="D31" s="42">
+      <c r="D31" s="33">
         <f t="shared" si="7"/>
         <v>-428.22222222222223</v>
       </c>
-      <c r="E31" s="43">
+      <c r="E31" s="34">
         <f t="shared" si="7"/>
         <v>-381.33333333333337</v>
       </c>
-      <c r="F31" s="42">
+      <c r="F31" s="33">
         <f t="shared" si="7"/>
         <v>-334.44444444444446</v>
       </c>
-      <c r="G31" s="43">
+      <c r="G31" s="34">
         <f t="shared" si="7"/>
         <v>-287.55555555555554</v>
       </c>
-      <c r="H31" s="42">
+      <c r="H31" s="33">
         <f t="shared" si="7"/>
         <v>-240.66666666666669</v>
       </c>
-      <c r="I31" s="43">
+      <c r="I31" s="34">
         <f t="shared" si="7"/>
         <v>-193.77777777777777</v>
       </c>
-      <c r="J31" s="42">
+      <c r="J31" s="33">
         <f t="shared" si="7"/>
         <v>-146.88888888888891</v>
       </c>
-      <c r="K31" s="44">
+      <c r="K31" s="35">
         <f t="shared" si="7"/>
         <v>-100</v>
       </c>
@@ -2970,84 +3034,84 @@
       <c r="A32" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B32" s="45">
+      <c r="B32" s="36">
         <f t="shared" si="7"/>
         <v>-1000</v>
       </c>
-      <c r="C32" s="46">
+      <c r="C32" s="37">
         <f t="shared" si="7"/>
         <v>-900</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D32" s="36">
         <f t="shared" si="7"/>
         <v>-800</v>
       </c>
-      <c r="E32" s="46">
+      <c r="E32" s="37">
         <f t="shared" si="7"/>
         <v>-700</v>
       </c>
-      <c r="F32" s="45">
+      <c r="F32" s="36">
         <f t="shared" si="7"/>
         <v>-600</v>
       </c>
-      <c r="G32" s="46">
+      <c r="G32" s="37">
         <f t="shared" si="7"/>
         <v>-500</v>
       </c>
-      <c r="H32" s="45">
+      <c r="H32" s="36">
         <f t="shared" si="7"/>
         <v>-400</v>
       </c>
-      <c r="I32" s="46">
+      <c r="I32" s="37">
         <f t="shared" si="7"/>
         <v>-300</v>
       </c>
-      <c r="J32" s="45">
+      <c r="J32" s="36">
         <f t="shared" si="7"/>
         <v>-200</v>
       </c>
-      <c r="K32" s="47">
+      <c r="K32" s="38">
         <f t="shared" si="7"/>
         <v>-100</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="40">
+      <c r="B35" s="31">
         <v>0</v>
       </c>
-      <c r="C35" s="40">
+      <c r="C35" s="31">
         <v>1</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="31">
         <v>2</v>
       </c>
-      <c r="E35" s="40">
+      <c r="E35" s="31">
         <v>3</v>
       </c>
-      <c r="F35" s="40">
+      <c r="F35" s="31">
         <v>4</v>
       </c>
-      <c r="G35" s="40">
+      <c r="G35" s="31">
         <v>5</v>
       </c>
-      <c r="H35" s="40">
+      <c r="H35" s="31">
         <v>6</v>
       </c>
-      <c r="I35" s="40">
+      <c r="I35" s="31">
         <v>7</v>
       </c>
-      <c r="J35" s="40">
+      <c r="J35" s="31">
         <v>8</v>
       </c>
-      <c r="K35" s="41">
+      <c r="K35" s="32">
         <v>9</v>
       </c>
     </row>
@@ -3055,225 +3119,225 @@
       <c r="A36" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B36" s="42">
+      <c r="B36" s="33">
         <f>$E20+B$35*ABS($E20-$F20)/9</f>
-        <v>-22260.273972602739</v>
-      </c>
-      <c r="C36" s="43">
+        <v>-24166.666666666664</v>
+      </c>
+      <c r="C36" s="34">
         <f t="shared" ref="C36:K36" si="8">$E20+C$35*ABS($E20-$F20)/9</f>
-        <v>-20034.246575342466</v>
-      </c>
-      <c r="D36" s="42">
+        <v>-21750</v>
+      </c>
+      <c r="D36" s="33">
         <f t="shared" si="8"/>
-        <v>-17808.219178082192</v>
-      </c>
-      <c r="E36" s="43">
+        <v>-19333.333333333332</v>
+      </c>
+      <c r="E36" s="34">
         <f t="shared" si="8"/>
-        <v>-15582.191780821917</v>
-      </c>
-      <c r="F36" s="42">
+        <v>-16916.666666666664</v>
+      </c>
+      <c r="F36" s="33">
         <f t="shared" si="8"/>
-        <v>-13356.164383561643</v>
-      </c>
-      <c r="G36" s="43">
+        <v>-14500</v>
+      </c>
+      <c r="G36" s="34">
         <f t="shared" si="8"/>
-        <v>-11130.13698630137</v>
-      </c>
-      <c r="H36" s="42">
+        <v>-12083.333333333332</v>
+      </c>
+      <c r="H36" s="33">
         <f t="shared" si="8"/>
-        <v>-8904.1095890410943</v>
-      </c>
-      <c r="I36" s="43">
+        <v>-9666.6666666666679</v>
+      </c>
+      <c r="I36" s="34">
         <f t="shared" si="8"/>
-        <v>-6678.0821917808207</v>
-      </c>
-      <c r="J36" s="42">
+        <v>-7250</v>
+      </c>
+      <c r="J36" s="33">
         <f t="shared" si="8"/>
-        <v>-4452.0547945205471</v>
-      </c>
-      <c r="K36" s="44">
+        <v>-4833.3333333333358</v>
+      </c>
+      <c r="K36" s="35">
         <f t="shared" si="8"/>
-        <v>-2226.0273972602736</v>
+        <v>-2416.6666666666679</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B37" s="42">
+      <c r="B37" s="33">
         <f t="shared" ref="B37:K40" si="9">$E21+B$35*ABS($E21-$F21)/9</f>
-        <v>-17118.150684931508</v>
-      </c>
-      <c r="C37" s="43">
+        <v>-18584.166666666664</v>
+      </c>
+      <c r="C37" s="34">
         <f t="shared" si="9"/>
-        <v>-15463.470319634704</v>
-      </c>
-      <c r="D37" s="42">
+        <v>-16787.777777777774</v>
+      </c>
+      <c r="D37" s="33">
         <f t="shared" si="9"/>
-        <v>-13808.789954337901</v>
-      </c>
-      <c r="E37" s="43">
+        <v>-14991.388888888887</v>
+      </c>
+      <c r="E37" s="34">
         <f t="shared" si="9"/>
-        <v>-12154.109589041096</v>
-      </c>
-      <c r="F37" s="42">
+        <v>-13194.999999999998</v>
+      </c>
+      <c r="F37" s="33">
         <f t="shared" si="9"/>
-        <v>-10499.429223744293</v>
-      </c>
-      <c r="G37" s="43">
+        <v>-11398.611111111109</v>
+      </c>
+      <c r="G37" s="34">
         <f t="shared" si="9"/>
-        <v>-8844.7488584474886</v>
-      </c>
-      <c r="H37" s="42">
+        <v>-9602.2222222222208</v>
+      </c>
+      <c r="H37" s="33">
         <f t="shared" si="9"/>
-        <v>-7190.0684931506839</v>
-      </c>
-      <c r="I37" s="43">
+        <v>-7805.8333333333321</v>
+      </c>
+      <c r="I37" s="34">
         <f t="shared" si="9"/>
-        <v>-5535.3881278538811</v>
-      </c>
-      <c r="J37" s="42">
+        <v>-6009.4444444444434</v>
+      </c>
+      <c r="J37" s="33">
         <f t="shared" si="9"/>
-        <v>-3880.7077625570782</v>
-      </c>
-      <c r="K37" s="44">
+        <v>-4213.0555555555547</v>
+      </c>
+      <c r="K37" s="35">
         <f t="shared" si="9"/>
-        <v>-2226.0273972602718</v>
+        <v>-2416.6666666666679</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="42">
+      <c r="B38" s="33">
         <f t="shared" si="9"/>
-        <v>-19900.68493150685</v>
-      </c>
-      <c r="C38" s="43">
+        <v>-21604.999999999996</v>
+      </c>
+      <c r="C38" s="34">
         <f t="shared" si="9"/>
-        <v>-17936.834094368343</v>
-      </c>
-      <c r="D38" s="42">
+        <v>-19472.96296296296</v>
+      </c>
+      <c r="D38" s="33">
         <f t="shared" si="9"/>
-        <v>-15972.983257229833</v>
-      </c>
-      <c r="E38" s="43">
+        <v>-17340.925925925923</v>
+      </c>
+      <c r="E38" s="34">
         <f t="shared" si="9"/>
-        <v>-14009.132420091326</v>
-      </c>
-      <c r="F38" s="42">
+        <v>-15208.888888888887</v>
+      </c>
+      <c r="F38" s="33">
         <f t="shared" si="9"/>
-        <v>-12045.281582952815</v>
-      </c>
-      <c r="G38" s="43">
+        <v>-13076.85185185185</v>
+      </c>
+      <c r="G38" s="34">
         <f t="shared" si="9"/>
-        <v>-10081.430745814307</v>
-      </c>
-      <c r="H38" s="42">
+        <v>-10944.814814814814</v>
+      </c>
+      <c r="H38" s="33">
         <f t="shared" si="9"/>
-        <v>-8117.5799086757997</v>
-      </c>
-      <c r="I38" s="43">
+        <v>-8812.7777777777774</v>
+      </c>
+      <c r="I38" s="34">
         <f t="shared" si="9"/>
-        <v>-6153.729071537291</v>
-      </c>
-      <c r="J38" s="42">
+        <v>-6680.7407407407391</v>
+      </c>
+      <c r="J38" s="33">
         <f t="shared" si="9"/>
-        <v>-4189.8782343987823</v>
-      </c>
-      <c r="K38" s="44">
+        <v>-4548.7037037037044</v>
+      </c>
+      <c r="K38" s="35">
         <f t="shared" si="9"/>
-        <v>-2226.0273972602736</v>
+        <v>-2416.6666666666679</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="42">
+      <c r="B39" s="33">
         <f t="shared" si="9"/>
-        <v>-11619.86301369863</v>
-      </c>
-      <c r="C39" s="43">
+        <v>-12614.999999999998</v>
+      </c>
+      <c r="C39" s="34">
         <f t="shared" si="9"/>
-        <v>-10576.103500761035</v>
-      </c>
-      <c r="D39" s="42">
+        <v>-11481.85185185185</v>
+      </c>
+      <c r="D39" s="33">
         <f t="shared" si="9"/>
-        <v>-9532.3439878234403</v>
-      </c>
-      <c r="E39" s="43">
+        <v>-10348.703703703703</v>
+      </c>
+      <c r="E39" s="34">
         <f t="shared" si="9"/>
-        <v>-8488.5844748858453</v>
-      </c>
-      <c r="F39" s="42">
+        <v>-9215.5555555555547</v>
+      </c>
+      <c r="F39" s="33">
         <f t="shared" si="9"/>
-        <v>-7444.8249619482494</v>
-      </c>
-      <c r="G39" s="43">
+        <v>-8082.407407407406</v>
+      </c>
+      <c r="G39" s="34">
         <f t="shared" si="9"/>
-        <v>-6401.0654490106544</v>
-      </c>
-      <c r="H39" s="42">
+        <v>-6949.2592592592582</v>
+      </c>
+      <c r="H39" s="33">
         <f t="shared" si="9"/>
-        <v>-5357.3059360730595</v>
-      </c>
-      <c r="I39" s="43">
+        <v>-5816.1111111111104</v>
+      </c>
+      <c r="I39" s="34">
         <f t="shared" si="9"/>
-        <v>-4313.5464231354645</v>
-      </c>
-      <c r="J39" s="42">
+        <v>-4682.9629629629617</v>
+      </c>
+      <c r="J39" s="33">
         <f t="shared" si="9"/>
-        <v>-3269.7869101978686</v>
-      </c>
-      <c r="K39" s="44">
+        <v>-3549.8148148148139</v>
+      </c>
+      <c r="K39" s="35">
         <f t="shared" si="9"/>
-        <v>-2226.0273972602736</v>
+        <v>-2416.6666666666661</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="45">
+      <c r="B40" s="36">
         <f t="shared" si="9"/>
-        <v>-22260.273972602739</v>
-      </c>
-      <c r="C40" s="46">
+        <v>-24166.666666666664</v>
+      </c>
+      <c r="C40" s="37">
         <f t="shared" si="9"/>
-        <v>-20034.246575342466</v>
-      </c>
-      <c r="D40" s="45">
+        <v>-21750</v>
+      </c>
+      <c r="D40" s="36">
         <f t="shared" si="9"/>
-        <v>-17808.219178082192</v>
-      </c>
-      <c r="E40" s="46">
+        <v>-19333.333333333332</v>
+      </c>
+      <c r="E40" s="37">
         <f t="shared" si="9"/>
-        <v>-15582.191780821917</v>
-      </c>
-      <c r="F40" s="45">
+        <v>-16916.666666666664</v>
+      </c>
+      <c r="F40" s="36">
         <f t="shared" si="9"/>
-        <v>-13356.164383561643</v>
-      </c>
-      <c r="G40" s="46">
+        <v>-14500</v>
+      </c>
+      <c r="G40" s="37">
         <f t="shared" si="9"/>
-        <v>-11130.13698630137</v>
-      </c>
-      <c r="H40" s="45">
+        <v>-12083.333333333332</v>
+      </c>
+      <c r="H40" s="36">
         <f t="shared" si="9"/>
-        <v>-8904.1095890410943</v>
-      </c>
-      <c r="I40" s="46">
+        <v>-9666.6666666666679</v>
+      </c>
+      <c r="I40" s="37">
         <f t="shared" si="9"/>
-        <v>-6678.0821917808207</v>
-      </c>
-      <c r="J40" s="45">
+        <v>-7250</v>
+      </c>
+      <c r="J40" s="36">
         <f t="shared" si="9"/>
-        <v>-4452.0547945205471</v>
-      </c>
-      <c r="K40" s="47">
+        <v>-4833.3333333333358</v>
+      </c>
+      <c r="K40" s="38">
         <f t="shared" si="9"/>
-        <v>-2226.0273972602736</v>
+        <v>-2416.6666666666679</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3282,37 +3346,37 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="40">
+      <c r="B43" s="31">
         <v>0</v>
       </c>
-      <c r="C43" s="40">
+      <c r="C43" s="31">
         <v>1</v>
       </c>
-      <c r="D43" s="40">
+      <c r="D43" s="31">
         <v>2</v>
       </c>
-      <c r="E43" s="40">
+      <c r="E43" s="31">
         <v>3</v>
       </c>
-      <c r="F43" s="40">
+      <c r="F43" s="31">
         <v>4</v>
       </c>
-      <c r="G43" s="40">
+      <c r="G43" s="31">
         <v>5</v>
       </c>
-      <c r="H43" s="40">
+      <c r="H43" s="31">
         <v>6</v>
       </c>
-      <c r="I43" s="40">
+      <c r="I43" s="31">
         <v>7</v>
       </c>
-      <c r="J43" s="40">
+      <c r="J43" s="31">
         <v>8</v>
       </c>
-      <c r="K43" s="41">
+      <c r="K43" s="32">
         <v>9</v>
       </c>
     </row>
@@ -3320,230 +3384,230 @@
       <c r="A44" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="42">
+      <c r="B44" s="33">
         <f>B$43*ABS($G20-$H20)/9</f>
         <v>0</v>
       </c>
-      <c r="C44" s="43">
+      <c r="C44" s="34">
         <f t="shared" ref="C44:J44" si="10">C$43*ABS($G20-$H20)/9</f>
-        <v>118721.46118721462</v>
-      </c>
-      <c r="D44" s="42">
+        <v>128888.88888888889</v>
+      </c>
+      <c r="D44" s="33">
         <f t="shared" si="10"/>
-        <v>237442.92237442924</v>
-      </c>
-      <c r="E44" s="43">
+        <v>257777.77777777778</v>
+      </c>
+      <c r="E44" s="34">
         <f t="shared" si="10"/>
-        <v>356164.38356164389</v>
-      </c>
-      <c r="F44" s="42">
+        <v>386666.66666666669</v>
+      </c>
+      <c r="F44" s="33">
         <f t="shared" si="10"/>
-        <v>474885.84474885848</v>
-      </c>
-      <c r="G44" s="43">
+        <v>515555.55555555556</v>
+      </c>
+      <c r="G44" s="34">
         <f t="shared" si="10"/>
-        <v>593607.30593607307</v>
-      </c>
-      <c r="H44" s="42">
+        <v>644444.4444444445</v>
+      </c>
+      <c r="H44" s="33">
         <f t="shared" si="10"/>
-        <v>712328.76712328778</v>
-      </c>
-      <c r="I44" s="43">
+        <v>773333.33333333337</v>
+      </c>
+      <c r="I44" s="34">
         <f t="shared" si="10"/>
-        <v>831050.22831050237</v>
-      </c>
-      <c r="J44" s="42">
+        <v>902222.22222222225</v>
+      </c>
+      <c r="J44" s="33">
         <f t="shared" si="10"/>
-        <v>949771.68949771696</v>
-      </c>
-      <c r="K44" s="44">
+        <v>1031111.1111111111</v>
+      </c>
+      <c r="K44" s="35">
         <f>K$43*ABS($G20-$H20)/9</f>
-        <v>1068493.1506849315</v>
+        <v>1160000</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B45" s="42">
+      <c r="B45" s="33">
         <f t="shared" ref="B45:K45" si="11">B$43*ABS($G21-$H21)/9</f>
         <v>0</v>
       </c>
-      <c r="C45" s="43">
+      <c r="C45" s="34">
         <f t="shared" si="11"/>
-        <v>319538.8127853882</v>
-      </c>
-      <c r="D45" s="42">
+        <v>346904.44444444438</v>
+      </c>
+      <c r="D45" s="33">
         <f t="shared" si="11"/>
-        <v>639077.62557077641</v>
-      </c>
-      <c r="E45" s="43">
+        <v>693808.88888888876</v>
+      </c>
+      <c r="E45" s="34">
         <f t="shared" si="11"/>
-        <v>958616.43835616438</v>
-      </c>
-      <c r="F45" s="42">
+        <v>1040713.3333333331</v>
+      </c>
+      <c r="F45" s="33">
         <f t="shared" si="11"/>
-        <v>1278155.2511415528</v>
-      </c>
-      <c r="G45" s="43">
+        <v>1387617.7777777775</v>
+      </c>
+      <c r="G45" s="34">
         <f t="shared" si="11"/>
-        <v>1597694.063926941</v>
-      </c>
-      <c r="H45" s="42">
+        <v>1734522.222222222</v>
+      </c>
+      <c r="H45" s="33">
         <f t="shared" si="11"/>
-        <v>1917232.8767123288</v>
-      </c>
-      <c r="I45" s="43">
+        <v>2081426.6666666663</v>
+      </c>
+      <c r="I45" s="34">
         <f t="shared" si="11"/>
-        <v>2236771.6894977172</v>
-      </c>
-      <c r="J45" s="42">
+        <v>2428331.1111111105</v>
+      </c>
+      <c r="J45" s="33">
         <f t="shared" si="11"/>
-        <v>2556310.5022831056</v>
-      </c>
-      <c r="K45" s="44">
+        <v>2775235.555555555</v>
+      </c>
+      <c r="K45" s="35">
         <f t="shared" si="11"/>
-        <v>2875849.3150684936</v>
+        <v>3122139.9999999995</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="42">
+      <c r="B46" s="33">
         <f t="shared" ref="B46:K46" si="12">B$43*ABS($G22-$H22)/9</f>
         <v>0</v>
       </c>
-      <c r="C46" s="43">
+      <c r="C46" s="34">
         <f t="shared" si="12"/>
-        <v>106136.98630136986</v>
-      </c>
-      <c r="D46" s="42">
+        <v>115226.66666666664</v>
+      </c>
+      <c r="D46" s="33">
         <f t="shared" si="12"/>
-        <v>212273.97260273973</v>
-      </c>
-      <c r="E46" s="43">
+        <v>230453.33333333328</v>
+      </c>
+      <c r="E46" s="34">
         <f t="shared" si="12"/>
-        <v>318410.9589041096</v>
-      </c>
-      <c r="F46" s="42">
+        <v>345679.99999999988</v>
+      </c>
+      <c r="F46" s="33">
         <f t="shared" si="12"/>
-        <v>424547.94520547945</v>
-      </c>
-      <c r="G46" s="43">
+        <v>460906.66666666657</v>
+      </c>
+      <c r="G46" s="34">
         <f t="shared" si="12"/>
-        <v>530684.93150684936</v>
-      </c>
-      <c r="H46" s="42">
+        <v>576133.33333333326</v>
+      </c>
+      <c r="H46" s="33">
         <f t="shared" si="12"/>
-        <v>636821.91780821921</v>
-      </c>
-      <c r="I46" s="43">
+        <v>691359.99999999977</v>
+      </c>
+      <c r="I46" s="34">
         <f t="shared" si="12"/>
-        <v>742958.90410958906</v>
-      </c>
-      <c r="J46" s="42">
+        <v>806586.66666666651</v>
+      </c>
+      <c r="J46" s="33">
         <f t="shared" si="12"/>
-        <v>849095.89041095891</v>
-      </c>
-      <c r="K46" s="44">
+        <v>921813.33333333314</v>
+      </c>
+      <c r="K46" s="35">
         <f t="shared" si="12"/>
-        <v>955232.87671232887</v>
+        <v>1037039.9999999998</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="42">
+      <c r="B47" s="33">
         <f t="shared" ref="B47:K47" si="13">B$43*ABS($G23-$H23)/9</f>
         <v>0</v>
       </c>
-      <c r="C47" s="43">
+      <c r="C47" s="34">
         <f t="shared" si="13"/>
-        <v>30986.301369863013</v>
-      </c>
-      <c r="D47" s="42">
+        <v>33639.999999999993</v>
+      </c>
+      <c r="D47" s="33">
         <f t="shared" si="13"/>
-        <v>61972.602739726026</v>
-      </c>
-      <c r="E47" s="43">
+        <v>67279.999999999985</v>
+      </c>
+      <c r="E47" s="34">
         <f t="shared" si="13"/>
-        <v>92958.904109589028</v>
-      </c>
-      <c r="F47" s="42">
+        <v>100919.99999999997</v>
+      </c>
+      <c r="F47" s="33">
         <f t="shared" si="13"/>
-        <v>123945.20547945205</v>
-      </c>
-      <c r="G47" s="43">
+        <v>134559.99999999997</v>
+      </c>
+      <c r="G47" s="34">
         <f t="shared" si="13"/>
-        <v>154931.50684931508</v>
-      </c>
-      <c r="H47" s="42">
+        <v>168199.99999999997</v>
+      </c>
+      <c r="H47" s="33">
         <f t="shared" si="13"/>
-        <v>185917.80821917806</v>
-      </c>
-      <c r="I47" s="43">
+        <v>201839.99999999994</v>
+      </c>
+      <c r="I47" s="34">
         <f t="shared" si="13"/>
-        <v>216904.10958904109</v>
-      </c>
-      <c r="J47" s="42">
+        <v>235479.99999999994</v>
+      </c>
+      <c r="J47" s="33">
         <f t="shared" si="13"/>
-        <v>247890.4109589041</v>
-      </c>
-      <c r="K47" s="44">
+        <v>269119.99999999994</v>
+      </c>
+      <c r="K47" s="35">
         <f t="shared" si="13"/>
-        <v>278876.71232876711</v>
+        <v>302759.99999999994</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B48" s="45">
+      <c r="B48" s="36">
         <f t="shared" ref="B48:K48" si="14">B$43*ABS($G24-$H24)/9</f>
         <v>0</v>
       </c>
-      <c r="C48" s="46">
+      <c r="C48" s="37">
         <f t="shared" si="14"/>
-        <v>831050.22831050237</v>
-      </c>
-      <c r="D48" s="45">
+        <v>902222.22222222225</v>
+      </c>
+      <c r="D48" s="36">
         <f t="shared" si="14"/>
-        <v>1662100.4566210047</v>
-      </c>
-      <c r="E48" s="46">
+        <v>1804444.4444444445</v>
+      </c>
+      <c r="E48" s="37">
         <f t="shared" si="14"/>
-        <v>2493150.6849315073</v>
-      </c>
-      <c r="F48" s="45">
+        <v>2706666.6666666665</v>
+      </c>
+      <c r="F48" s="36">
         <f t="shared" si="14"/>
-        <v>3324200.9132420095</v>
-      </c>
-      <c r="G48" s="46">
+        <v>3608888.888888889</v>
+      </c>
+      <c r="G48" s="37">
         <f t="shared" si="14"/>
-        <v>4155251.1415525121</v>
-      </c>
-      <c r="H48" s="45">
+        <v>4511111.111111111</v>
+      </c>
+      <c r="H48" s="36">
         <f t="shared" si="14"/>
-        <v>4986301.3698630147</v>
-      </c>
-      <c r="I48" s="46">
+        <v>5413333.333333333</v>
+      </c>
+      <c r="I48" s="37">
         <f t="shared" si="14"/>
-        <v>5817351.5981735168</v>
-      </c>
-      <c r="J48" s="45">
+        <v>6315555.555555556</v>
+      </c>
+      <c r="J48" s="36">
         <f t="shared" si="14"/>
-        <v>6648401.8264840189</v>
-      </c>
-      <c r="K48" s="47">
+        <v>7217777.777777778</v>
+      </c>
+      <c r="K48" s="38">
         <f t="shared" si="14"/>
-        <v>7479452.054794522</v>
+        <v>8120000</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="38" t="s">
-        <v>186</v>
+      <c r="A51" s="29" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3584,10 +3648,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="47"/>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -3717,10 +3781,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E49A404-39E7-6B45-B584-7FD70EB84AF5}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3728,25 +3792,26 @@
     <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2">
         <v>1.2E-2</v>
       </c>
       <c r="G2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H2">
         <v>3.7854100000000002</v>
@@ -3754,7 +3819,7 @@
     </row>
     <row r="3" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3771,7 +3836,7 @@
         <v>1000</v>
       </c>
       <c r="G4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H4">
         <v>0.77</v>
@@ -3794,7 +3859,7 @@
         <v>655027563.25600004</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H5">
         <v>0.8</v>
@@ -3817,7 +3882,7 @@
         <v>27050057.672000002</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H6">
         <v>0.85</v>
@@ -3829,7 +3894,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B8">
         <f>SUM(B9:B13)</f>
@@ -3922,23 +3987,23 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>142</v>
       </c>
@@ -3952,337 +4017,390 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="37"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+    <row r="20" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="F20" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" s="20">
+        <v>100</v>
+      </c>
+      <c r="H20" s="20">
+        <v>500</v>
+      </c>
+      <c r="I20" s="21">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="51" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="29">
-        <f>MeOH_original_data!B18*1000/(365*24)</f>
-        <v>2226.027397260274</v>
-      </c>
-      <c r="C21" s="29">
-        <f>MeOH_original_data!C18*1000/(365*24)</f>
-        <v>11130.13698630137</v>
-      </c>
-      <c r="D21" s="30">
-        <f>MeOH_original_data!D18*1000/(365*24)</f>
-        <v>22260.273972602739</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="B21" s="58">
+        <f>MeOH_original_data!B18*1000/(24)</f>
+        <v>2416.6666666666665</v>
+      </c>
+      <c r="C21" s="58">
+        <f>MeOH_original_data!C18*1000/(24)</f>
+        <v>12125</v>
+      </c>
+      <c r="D21" s="59">
+        <f>MeOH_original_data!D18*1000/(24)</f>
+        <v>24291.666666666668</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="63">
+        <v>1</v>
+      </c>
+      <c r="H21" s="63">
+        <v>1</v>
+      </c>
+      <c r="I21" s="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="60">
+        <f>MeOH_original_data!B19*1000/(24)</f>
+        <v>14666.666666666666</v>
+      </c>
+      <c r="C22" s="60">
+        <f>MeOH_original_data!C19*1000/(24)</f>
+        <v>73375</v>
+      </c>
+      <c r="D22" s="61">
+        <f>MeOH_original_data!D19*1000/(24)</f>
+        <v>146791.66666666666</v>
+      </c>
+      <c r="F22" s="68" t="s">
+        <v>145</v>
+      </c>
+      <c r="G22" s="63">
+        <f>G$21*B22/B$21</f>
+        <v>6.068965517241379</v>
+      </c>
+      <c r="H22" s="63">
+        <f t="shared" ref="H22:I26" si="1">H$21*C22/C21</f>
+        <v>6.0515463917525771</v>
+      </c>
+      <c r="I22" s="64">
+        <f>I$21*D22/D21</f>
+        <v>6.0428816466552311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B23" s="62">
+        <f>MeOH_original_data!B20</f>
+        <v>5.5</v>
+      </c>
+      <c r="C23" s="62">
+        <f>MeOH_original_data!C20</f>
+        <v>27</v>
+      </c>
+      <c r="D23" s="62">
+        <f>MeOH_original_data!D20</f>
+        <v>53</v>
+      </c>
+      <c r="F23" s="68" t="s">
+        <v>146</v>
+      </c>
+      <c r="G23" s="63">
+        <f t="shared" ref="G23:G26" si="2">G$21*B23/B$21</f>
+        <v>2.2758620689655173E-3</v>
+      </c>
+      <c r="H23" s="63">
+        <f t="shared" si="1"/>
+        <v>3.6797274275979556E-4</v>
+      </c>
+      <c r="I23" s="64">
+        <f t="shared" si="1"/>
+        <v>3.6105591825149024E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="46"/>
+      <c r="F24" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="63">
+        <f>G$21*B25/B$21</f>
+        <v>4.1379310344827586E-2</v>
+      </c>
+      <c r="H24" s="63">
+        <f t="shared" ref="H24:I24" si="3">H$21*C25/C$21</f>
+        <v>4.192439862542955E-2</v>
+      </c>
+      <c r="I24" s="64">
+        <f t="shared" si="3"/>
+        <v>4.1852487135506003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="52">
+        <f>MeOH_original_data!B22*1000/(24)</f>
+        <v>100</v>
+      </c>
+      <c r="C25" s="52">
+        <f>MeOH_original_data!C22*1000/(24)</f>
+        <v>508.33333333333331</v>
+      </c>
+      <c r="D25" s="53">
+        <f>MeOH_original_data!D22*1000/(24)</f>
+        <v>1016.6666666666666</v>
+      </c>
+      <c r="F25" s="68" t="s">
         <v>156</v>
       </c>
-      <c r="B22" s="29">
-        <f>MeOH_original_data!B19*1000/(365*24)</f>
-        <v>13384.817351598174</v>
-      </c>
-      <c r="C22" s="29">
-        <f>MeOH_original_data!C19*1000/(365*24)</f>
-        <v>66917.922374429225</v>
-      </c>
-      <c r="D22" s="30">
-        <f>MeOH_original_data!D19*1000/(365*24)</f>
-        <v>133848.74429223745</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="27">
-        <f>MeOH_original_data!B21*1000000/(365*24)</f>
-        <v>70.776255707762559</v>
-      </c>
-      <c r="C24" s="27">
-        <f>MeOH_original_data!C21*1000000/(365*24)</f>
-        <v>352.73972602739724</v>
-      </c>
-      <c r="D24" s="28">
-        <f>MeOH_original_data!D21*1000000/(365*24)</f>
-        <v>705.47945205479448</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B25" s="27">
-        <f>MeOH_original_data!B22*1000000/(365*24)</f>
-        <v>303.65296803652967</v>
-      </c>
-      <c r="C25" s="27">
-        <f>MeOH_original_data!C22*1000000/(365*24)</f>
-        <v>1519.4063926940639</v>
-      </c>
-      <c r="D25" s="28">
-        <f>MeOH_original_data!D22*1000000/(365*24)</f>
-        <v>3039.9543378995436</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="63">
+        <f t="shared" ref="G25:G26" si="4">G$21*B26/B$21</f>
+        <v>0.34655172413793106</v>
+      </c>
+      <c r="H25" s="63">
+        <f t="shared" ref="H25:H26" si="5">H$21*C26/C$21</f>
+        <v>0.3446735395189004</v>
+      </c>
+      <c r="I25" s="64">
+        <f t="shared" ref="I25:I26" si="6">I$21*D26/D$21</f>
+        <v>0.34425385934819897</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B26" s="27">
-        <f>MeOH_original_data!B23*1000000/(365*24)</f>
-        <v>1114.1552511415525</v>
-      </c>
-      <c r="C26" s="27">
-        <f>MeOH_original_data!C23*1000000/(365*24)</f>
-        <v>5567.3515981735163</v>
-      </c>
-      <c r="D26" s="28">
-        <f>MeOH_original_data!D23*1000000/(365*24)</f>
-        <v>11135.844748858448</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="str">
-        <f>A24</f>
-        <v xml:space="preserve">naphtha </v>
-      </c>
-      <c r="B28" s="29">
-        <f>B24*$H$2*$H4</f>
-        <v>206.29620251141554</v>
-      </c>
-      <c r="C28" s="29">
-        <f t="shared" ref="C28:D28" si="1">C24*$H$2*$H4</f>
-        <v>1028.1536544520548</v>
-      </c>
-      <c r="D28" s="30">
-        <f t="shared" si="1"/>
-        <v>2056.3073089041095</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="str">
-        <f t="shared" ref="A29:A30" si="2">A25</f>
-        <v>jet fuel</v>
-      </c>
-      <c r="B29" s="29">
-        <f t="shared" ref="B29:D29" si="3">B25*$H$2*$H5</f>
-        <v>919.5607853881279</v>
-      </c>
-      <c r="C29" s="29">
-        <f t="shared" si="3"/>
-        <v>4601.2609223744294</v>
-      </c>
-      <c r="D29" s="30">
-        <f t="shared" si="3"/>
-        <v>9205.9788401826499</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="str">
-        <f t="shared" si="2"/>
-        <v>diesel</v>
-      </c>
-      <c r="B30" s="31">
-        <f t="shared" ref="B30:D30" si="4">B26*$H$2*$H6</f>
-        <v>3584.9042648401823</v>
-      </c>
-      <c r="C30" s="31">
+        <v>156</v>
+      </c>
+      <c r="B26" s="54">
+        <f>MeOH_original_data!B23*1000/(24)</f>
+        <v>837.5</v>
+      </c>
+      <c r="C26" s="54">
+        <f>MeOH_original_data!C23*1000/(24)</f>
+        <v>4179.166666666667</v>
+      </c>
+      <c r="D26" s="27">
+        <f>MeOH_original_data!D23*1000/(24)</f>
+        <v>8362.5</v>
+      </c>
+      <c r="F26" s="69" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="65">
         <f t="shared" si="4"/>
-        <v>17913.502151255707</v>
-      </c>
-      <c r="D30" s="32">
-        <f t="shared" si="4"/>
-        <v>35830.677360159818</v>
+        <v>1.4896551724137932</v>
+      </c>
+      <c r="H26" s="65">
+        <f t="shared" si="5"/>
+        <v>1.4838487972508592</v>
+      </c>
+      <c r="I26" s="66">
+        <f t="shared" si="6"/>
+        <v>1.481303602058319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B27" s="55">
+        <f>MeOH_original_data!B24*1000/(24)</f>
+        <v>3600</v>
+      </c>
+      <c r="C27" s="55">
+        <f>MeOH_original_data!C24*1000/(24)</f>
+        <v>17991.666666666668</v>
+      </c>
+      <c r="D27" s="56">
+        <f>MeOH_original_data!D24*1000/(24)</f>
+        <v>35983.333333333336</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31">
+        <v>500</v>
+      </c>
+      <c r="D31">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32">
+        <v>167921429.192</v>
+      </c>
+      <c r="C32">
+        <v>376933297.796</v>
+      </c>
+      <c r="D32">
+        <v>655027563.25600004</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D33" t="s">
         <v>171</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>100</v>
+      </c>
+      <c r="B34">
+        <v>167921429.192</v>
+      </c>
+      <c r="C34">
+        <f>LN(A34/$A$36)</f>
+        <v>-2.3025850929940455</v>
+      </c>
+      <c r="D34">
+        <f>LN(B34)</f>
+        <v>18.939006744588596</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>500</v>
+      </c>
+      <c r="B35">
+        <v>376933297.796</v>
+      </c>
+      <c r="C35">
+        <f t="shared" ref="C35:C36" si="7">LN(A35/$A$36)</f>
+        <v>-0.69314718055994529</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:D36" si="8">LN(B35)</f>
+        <v>19.747578800835441</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1000</v>
+      </c>
+      <c r="B36">
+        <v>655027563.25600004</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="8"/>
+        <v>20.300187874021002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34">
-        <v>100</v>
-      </c>
-      <c r="C34">
-        <v>500</v>
-      </c>
-      <c r="D34">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35">
-        <v>167921429.192</v>
-      </c>
-      <c r="C35">
-        <v>376933297.796</v>
-      </c>
-      <c r="D35">
-        <v>655027563.25600004</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>142</v>
-      </c>
-      <c r="B36" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="D36" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>100</v>
-      </c>
-      <c r="B37">
-        <v>167921429.192</v>
-      </c>
-      <c r="C37">
-        <f>LN(A37/$A$39)</f>
-        <v>-2.3025850929940455</v>
-      </c>
-      <c r="D37">
-        <f>LN(B37)</f>
-        <v>18.939006744588596</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>500</v>
-      </c>
-      <c r="B38">
-        <v>376933297.796</v>
-      </c>
-      <c r="C38">
-        <f t="shared" ref="C38:C39" si="5">LN(A38/$A$39)</f>
-        <v>-0.69314718055994529</v>
-      </c>
-      <c r="D38">
-        <f t="shared" ref="D38:D39" si="6">LN(B38)</f>
-        <v>19.747578800835441</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>1000</v>
-      </c>
-      <c r="B39">
-        <v>655027563.25600004</v>
-      </c>
-      <c r="C39">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="6"/>
-        <v>20.300187874021002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="B42" s="22">
+      <c r="B39" s="22">
         <f>EXP(20.237)</f>
         <v>614918317.57584751</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B43" s="22">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" s="22">
         <v>0.57550000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>181</v>
-      </c>
-      <c r="B45">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42">
         <f>B19</f>
         <v>100</v>
       </c>
-      <c r="C45">
-        <f t="shared" ref="C45:D45" si="7">C19</f>
+      <c r="C42">
+        <f>C19</f>
         <v>500</v>
       </c>
-      <c r="D45">
-        <f t="shared" si="7"/>
+      <c r="D42">
+        <f>D19</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>180</v>
-      </c>
-      <c r="B46">
-        <f>B21/B45</f>
-        <v>22.260273972602739</v>
-      </c>
-      <c r="C46">
-        <f t="shared" ref="C46:D46" si="8">C21/C45</f>
-        <v>22.260273972602739</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="8"/>
-        <v>22.260273972602739</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>180</v>
-      </c>
-      <c r="B47">
-        <f>B46</f>
-        <v>22.260273972602739</v>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43">
+        <f>B21/B42</f>
+        <v>24.166666666666664</v>
+      </c>
+      <c r="C43">
+        <f>C21/C42</f>
+        <v>24.25</v>
+      </c>
+      <c r="D43">
+        <f>D21/D42</f>
+        <v>24.291666666666668</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44">
+        <f>B43</f>
+        <v>24.166666666666664</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4291,10 +4409,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDBD3A5-912B-984E-9A90-BB156C754950}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:D16"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4465,7 +4583,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4473,78 +4591,92 @@
         <v>144</v>
       </c>
       <c r="B18">
-        <v>19500</v>
+        <v>58</v>
       </c>
       <c r="C18">
-        <v>97500</v>
+        <v>291</v>
       </c>
       <c r="D18">
-        <v>195000</v>
+        <v>583</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19">
-        <v>117251</v>
+        <v>352</v>
       </c>
       <c r="C19">
-        <v>586201</v>
+        <v>1761</v>
       </c>
       <c r="D19">
-        <v>1172515</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>157</v>
+        <v>186</v>
+      </c>
+      <c r="B20">
+        <v>5.5</v>
+      </c>
+      <c r="C20">
+        <v>27</v>
+      </c>
+      <c r="D20">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21">
-        <v>0.62</v>
-      </c>
-      <c r="C21">
-        <v>3.09</v>
-      </c>
-      <c r="D21">
-        <v>6.18</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B22">
-        <v>2.66</v>
+        <v>2.4</v>
       </c>
       <c r="C22">
-        <v>13.31</v>
+        <v>12.2</v>
       </c>
       <c r="D22">
-        <v>26.63</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B23">
-        <v>9.76</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="C23">
-        <v>48.77</v>
+        <v>100.3</v>
       </c>
       <c r="D23">
-        <v>97.55</v>
+        <v>200.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24">
+        <v>86.4</v>
+      </c>
+      <c r="C24">
+        <v>431.8</v>
+      </c>
+      <c r="D24">
+        <v>863.6</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="63++40v+r24DI1NGDMj3uLvKWHua6+195yfuz655POSYE5c0pg/oxiyqXffUWpeNHnzSmPAPAZtZC71/VoVO3A==" saltValue="LpuP2HeQ38pYq234+AzyYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="E5wXOZaLLrrq7SCc6l+P2ZRx9IPEuRyCimf3Z0baz1pnEGajuwEnyXDqCBaOzjtZXMtVpsqDvw4pp6yfyAXdcg==" saltValue="DJDNe6oto2IcuT0txsQDEg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/use_cases/LWR_MeOH_2023/data/HERON_data.xlsx
+++ b/use_cases/LWR_MeOH_2023/data/HERON_data.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/LWR_MeOH_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4689BC62-852B-A848-96A1-302D3FD5988E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB805E72-8AE5-C143-B931-873DC120F73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="2" xr2:uid="{3CE7F202-39F9-48AF-B0C7-575379157397}"/>
+    <workbookView xWindow="-300" yWindow="880" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{3CE7F202-39F9-48AF-B0C7-575379157397}"/>
   </bookViews>
   <sheets>
     <sheet name="Sweep values" sheetId="10" r:id="rId1"/>
-    <sheet name="MACRS" sheetId="1" r:id="rId2"/>
-    <sheet name="MeOH" sheetId="14" r:id="rId3"/>
-    <sheet name="MeOH_original_data" sheetId="13" r:id="rId4"/>
-    <sheet name="HTSE" sheetId="2" r:id="rId5"/>
-    <sheet name="Capacity_Market" sheetId="3" r:id="rId6"/>
-    <sheet name="NPP_capacities" sheetId="12" r:id="rId7"/>
+    <sheet name="storage_steps" sheetId="17" r:id="rId2"/>
+    <sheet name="MeOH_steps" sheetId="16" r:id="rId3"/>
+    <sheet name="HTSE_steps" sheetId="15" r:id="rId4"/>
+    <sheet name="MACRS" sheetId="1" r:id="rId5"/>
+    <sheet name="MeOH" sheetId="14" r:id="rId6"/>
+    <sheet name="MeOH_original_data" sheetId="13" r:id="rId7"/>
+    <sheet name="HTSE" sheetId="2" r:id="rId8"/>
+    <sheet name="Capacity_Market" sheetId="3" r:id="rId9"/>
+    <sheet name="NPP_capacities" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="194">
   <si>
     <t>Source</t>
   </si>
@@ -605,6 +608,24 @@
   </si>
   <si>
     <t>Ratios\Scale(MWe)</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>braidwood</t>
+  </si>
+  <si>
+    <t>cooper</t>
+  </si>
+  <si>
+    <t>davis_besse</t>
+  </si>
+  <si>
+    <t>prairie_island</t>
+  </si>
+  <si>
+    <t>stp</t>
   </si>
 </sst>
 </file>
@@ -614,7 +635,7 @@
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -938,7 +959,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -980,6 +1001,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1010,27 +1044,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -2399,7 +2415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9241F20-95C4-42A2-B03A-23B9DD4DBFA3}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
@@ -2564,30 +2580,30 @@
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="41" t="s">
+      <c r="A18" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="45" t="s">
+      <c r="D18" s="59"/>
+      <c r="E18" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="F18" s="46"/>
-      <c r="G18" s="45" t="s">
+      <c r="F18" s="59"/>
+      <c r="G18" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="46"/>
+      <c r="H18" s="59"/>
       <c r="I18" s="31"/>
       <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="11" t="s">
         <v>74</v>
       </c>
@@ -3622,7 +3638,1134 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5236045A-41A7-AF40-95B6-DBF867B04F6F}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>3645</v>
+      </c>
+      <c r="F2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="18">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="J2" s="15">
+        <f>$B$10+I2*(1-$B$10)</f>
+        <v>0.28505000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2817</v>
+      </c>
+      <c r="F3">
+        <v>894</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
+        <f t="shared" ref="J3:J8" si="0">$B$10+I3*(1-$B$10)</f>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>3853</v>
+      </c>
+      <c r="F4">
+        <v>1280</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" si="0"/>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>3411</v>
+      </c>
+      <c r="F5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" s="18">
+        <v>8.8400000000000006E-2</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="0"/>
+        <v>0.27983599999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>1677</v>
+      </c>
+      <c r="F6" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="18">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="0"/>
+        <v>0.28742000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2419</v>
+      </c>
+      <c r="F7">
+        <v>769</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="18">
+        <v>7.8100000000000003E-2</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="0"/>
+        <v>0.27169900000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3990</v>
+      </c>
+      <c r="F8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="H8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="18">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="0"/>
+        <v>0.24870999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="17">
+        <v>0.21</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{E420822C-9CB6-0543-ADF1-EDCFE8D5ABAC}"/>
+    <hyperlink ref="G3" r:id="rId2" display="https://en.wikipedia.org/wiki/Davis%E2%80%93Besse_Nuclear_Power_Station" xr:uid="{9110542E-89D6-2D47-BAB0-04E98B13FBF5}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{D1783477-78FF-784B-9A1B-672979000EC5}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{50BD1FBC-1D61-6F40-B26D-85ED74F24A2B}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{3096E627-E5FC-5A4A-BC59-39F664A94478}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{A9BD79D7-5527-A44C-B2EE-3F868C0E23D5}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{9DA2C91F-A18F-F04F-A835-EC8502AD4D48}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999CF170-3B2F-5A4A-A635-8F248BA69D8B}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="34">
+        <v>10</v>
+      </c>
+      <c r="C2" s="34">
+        <f>'Sweep values'!C44</f>
+        <v>128888.88888888889</v>
+      </c>
+      <c r="D2" s="34">
+        <f>'Sweep values'!D44</f>
+        <v>257777.77777777778</v>
+      </c>
+      <c r="E2" s="34">
+        <f>'Sweep values'!E44</f>
+        <v>386666.66666666669</v>
+      </c>
+      <c r="F2" s="34">
+        <f>'Sweep values'!F44</f>
+        <v>515555.55555555556</v>
+      </c>
+      <c r="G2" s="34">
+        <f>'Sweep values'!G44</f>
+        <v>644444.4444444445</v>
+      </c>
+      <c r="H2" s="34">
+        <f>'Sweep values'!H44</f>
+        <v>773333.33333333337</v>
+      </c>
+      <c r="I2" s="34">
+        <f>'Sweep values'!I44</f>
+        <v>902222.22222222225</v>
+      </c>
+      <c r="J2" s="34">
+        <f>'Sweep values'!J44</f>
+        <v>1031111.1111111111</v>
+      </c>
+      <c r="K2" s="34">
+        <f>'Sweep values'!K44</f>
+        <v>1160000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="34">
+        <v>10</v>
+      </c>
+      <c r="C3" s="34">
+        <f>'Sweep values'!C45</f>
+        <v>346904.44444444438</v>
+      </c>
+      <c r="D3" s="34">
+        <f>'Sweep values'!D45</f>
+        <v>693808.88888888876</v>
+      </c>
+      <c r="E3" s="34">
+        <f>'Sweep values'!E45</f>
+        <v>1040713.3333333331</v>
+      </c>
+      <c r="F3" s="34">
+        <f>'Sweep values'!F45</f>
+        <v>1387617.7777777775</v>
+      </c>
+      <c r="G3" s="34">
+        <f>'Sweep values'!G45</f>
+        <v>1734522.222222222</v>
+      </c>
+      <c r="H3" s="34">
+        <f>'Sweep values'!H45</f>
+        <v>2081426.6666666663</v>
+      </c>
+      <c r="I3" s="34">
+        <f>'Sweep values'!I45</f>
+        <v>2428331.1111111105</v>
+      </c>
+      <c r="J3" s="34">
+        <f>'Sweep values'!J45</f>
+        <v>2775235.555555555</v>
+      </c>
+      <c r="K3" s="34">
+        <f>'Sweep values'!K45</f>
+        <v>3122139.9999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="34">
+        <v>10</v>
+      </c>
+      <c r="C4" s="34">
+        <f>'Sweep values'!C46</f>
+        <v>115226.66666666664</v>
+      </c>
+      <c r="D4" s="34">
+        <f>'Sweep values'!D46</f>
+        <v>230453.33333333328</v>
+      </c>
+      <c r="E4" s="34">
+        <f>'Sweep values'!E46</f>
+        <v>345679.99999999988</v>
+      </c>
+      <c r="F4" s="34">
+        <f>'Sweep values'!F46</f>
+        <v>460906.66666666657</v>
+      </c>
+      <c r="G4" s="34">
+        <f>'Sweep values'!G46</f>
+        <v>576133.33333333326</v>
+      </c>
+      <c r="H4" s="34">
+        <f>'Sweep values'!H46</f>
+        <v>691359.99999999977</v>
+      </c>
+      <c r="I4" s="34">
+        <f>'Sweep values'!I46</f>
+        <v>806586.66666666651</v>
+      </c>
+      <c r="J4" s="34">
+        <f>'Sweep values'!J46</f>
+        <v>921813.33333333314</v>
+      </c>
+      <c r="K4" s="34">
+        <f>'Sweep values'!K46</f>
+        <v>1037039.9999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="34">
+        <v>10</v>
+      </c>
+      <c r="C5" s="34">
+        <f>'Sweep values'!C47</f>
+        <v>33639.999999999993</v>
+      </c>
+      <c r="D5" s="34">
+        <f>'Sweep values'!D47</f>
+        <v>67279.999999999985</v>
+      </c>
+      <c r="E5" s="34">
+        <f>'Sweep values'!E47</f>
+        <v>100919.99999999997</v>
+      </c>
+      <c r="F5" s="34">
+        <f>'Sweep values'!F47</f>
+        <v>134559.99999999997</v>
+      </c>
+      <c r="G5" s="34">
+        <f>'Sweep values'!G47</f>
+        <v>168199.99999999997</v>
+      </c>
+      <c r="H5" s="34">
+        <f>'Sweep values'!H47</f>
+        <v>201839.99999999994</v>
+      </c>
+      <c r="I5" s="34">
+        <f>'Sweep values'!I47</f>
+        <v>235479.99999999994</v>
+      </c>
+      <c r="J5" s="34">
+        <f>'Sweep values'!J47</f>
+        <v>269119.99999999994</v>
+      </c>
+      <c r="K5" s="34">
+        <f>'Sweep values'!K47</f>
+        <v>302759.99999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="34">
+        <v>10</v>
+      </c>
+      <c r="C6" s="34">
+        <f>'Sweep values'!C48</f>
+        <v>902222.22222222225</v>
+      </c>
+      <c r="D6" s="34">
+        <f>'Sweep values'!D48</f>
+        <v>1804444.4444444445</v>
+      </c>
+      <c r="E6" s="34">
+        <f>'Sweep values'!E48</f>
+        <v>2706666.6666666665</v>
+      </c>
+      <c r="F6" s="34">
+        <f>'Sweep values'!F48</f>
+        <v>3608888.888888889</v>
+      </c>
+      <c r="G6" s="34">
+        <f>'Sweep values'!G48</f>
+        <v>4511111.111111111</v>
+      </c>
+      <c r="H6" s="34">
+        <f>'Sweep values'!H48</f>
+        <v>5413333.333333333</v>
+      </c>
+      <c r="I6" s="34">
+        <f>'Sweep values'!I48</f>
+        <v>6315555.555555556</v>
+      </c>
+      <c r="J6" s="34">
+        <f>'Sweep values'!J48</f>
+        <v>7217777.777777778</v>
+      </c>
+      <c r="K6" s="34">
+        <f>'Sweep values'!K48</f>
+        <v>8120000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D546BDAA-9A2B-B347-BAD4-55130E108AD7}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="34">
+        <f>'Sweep values'!B36</f>
+        <v>-24166.666666666664</v>
+      </c>
+      <c r="C2" s="34">
+        <f>'Sweep values'!C36</f>
+        <v>-21750</v>
+      </c>
+      <c r="D2" s="34">
+        <f>'Sweep values'!D36</f>
+        <v>-19333.333333333332</v>
+      </c>
+      <c r="E2" s="34">
+        <f>'Sweep values'!E36</f>
+        <v>-16916.666666666664</v>
+      </c>
+      <c r="F2" s="34">
+        <f>'Sweep values'!F36</f>
+        <v>-14500</v>
+      </c>
+      <c r="G2" s="34">
+        <f>'Sweep values'!G36</f>
+        <v>-12083.333333333332</v>
+      </c>
+      <c r="H2" s="34">
+        <f>'Sweep values'!H36</f>
+        <v>-9666.6666666666679</v>
+      </c>
+      <c r="I2" s="34">
+        <f>'Sweep values'!I36</f>
+        <v>-7250</v>
+      </c>
+      <c r="J2" s="34">
+        <f>'Sweep values'!J36</f>
+        <v>-4833.3333333333358</v>
+      </c>
+      <c r="K2" s="34">
+        <f>'Sweep values'!K36</f>
+        <v>-2416.6666666666679</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="34">
+        <f>'Sweep values'!B37</f>
+        <v>-18584.166666666664</v>
+      </c>
+      <c r="C3" s="34">
+        <f>'Sweep values'!C37</f>
+        <v>-16787.777777777774</v>
+      </c>
+      <c r="D3" s="34">
+        <f>'Sweep values'!D37</f>
+        <v>-14991.388888888887</v>
+      </c>
+      <c r="E3" s="34">
+        <f>'Sweep values'!E37</f>
+        <v>-13194.999999999998</v>
+      </c>
+      <c r="F3" s="34">
+        <f>'Sweep values'!F37</f>
+        <v>-11398.611111111109</v>
+      </c>
+      <c r="G3" s="34">
+        <f>'Sweep values'!G37</f>
+        <v>-9602.2222222222208</v>
+      </c>
+      <c r="H3" s="34">
+        <f>'Sweep values'!H37</f>
+        <v>-7805.8333333333321</v>
+      </c>
+      <c r="I3" s="34">
+        <f>'Sweep values'!I37</f>
+        <v>-6009.4444444444434</v>
+      </c>
+      <c r="J3" s="34">
+        <f>'Sweep values'!J37</f>
+        <v>-4213.0555555555547</v>
+      </c>
+      <c r="K3" s="34">
+        <f>'Sweep values'!K37</f>
+        <v>-2416.6666666666679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="34">
+        <f>'Sweep values'!B38</f>
+        <v>-21604.999999999996</v>
+      </c>
+      <c r="C4" s="34">
+        <f>'Sweep values'!C38</f>
+        <v>-19472.96296296296</v>
+      </c>
+      <c r="D4" s="34">
+        <f>'Sweep values'!D38</f>
+        <v>-17340.925925925923</v>
+      </c>
+      <c r="E4" s="34">
+        <f>'Sweep values'!E38</f>
+        <v>-15208.888888888887</v>
+      </c>
+      <c r="F4" s="34">
+        <f>'Sweep values'!F38</f>
+        <v>-13076.85185185185</v>
+      </c>
+      <c r="G4" s="34">
+        <f>'Sweep values'!G38</f>
+        <v>-10944.814814814814</v>
+      </c>
+      <c r="H4" s="34">
+        <f>'Sweep values'!H38</f>
+        <v>-8812.7777777777774</v>
+      </c>
+      <c r="I4" s="34">
+        <f>'Sweep values'!I38</f>
+        <v>-6680.7407407407391</v>
+      </c>
+      <c r="J4" s="34">
+        <f>'Sweep values'!J38</f>
+        <v>-4548.7037037037044</v>
+      </c>
+      <c r="K4" s="34">
+        <f>'Sweep values'!K38</f>
+        <v>-2416.6666666666679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="34">
+        <f>'Sweep values'!B39</f>
+        <v>-12614.999999999998</v>
+      </c>
+      <c r="C5" s="34">
+        <f>'Sweep values'!C39</f>
+        <v>-11481.85185185185</v>
+      </c>
+      <c r="D5" s="34">
+        <f>'Sweep values'!D39</f>
+        <v>-10348.703703703703</v>
+      </c>
+      <c r="E5" s="34">
+        <f>'Sweep values'!E39</f>
+        <v>-9215.5555555555547</v>
+      </c>
+      <c r="F5" s="34">
+        <f>'Sweep values'!F39</f>
+        <v>-8082.407407407406</v>
+      </c>
+      <c r="G5" s="34">
+        <f>'Sweep values'!G39</f>
+        <v>-6949.2592592592582</v>
+      </c>
+      <c r="H5" s="34">
+        <f>'Sweep values'!H39</f>
+        <v>-5816.1111111111104</v>
+      </c>
+      <c r="I5" s="34">
+        <f>'Sweep values'!I39</f>
+        <v>-4682.9629629629617</v>
+      </c>
+      <c r="J5" s="34">
+        <f>'Sweep values'!J39</f>
+        <v>-3549.8148148148139</v>
+      </c>
+      <c r="K5" s="34">
+        <f>'Sweep values'!K39</f>
+        <v>-2416.6666666666661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="34">
+        <f>'Sweep values'!B40</f>
+        <v>-24166.666666666664</v>
+      </c>
+      <c r="C6" s="34">
+        <f>'Sweep values'!C40</f>
+        <v>-21750</v>
+      </c>
+      <c r="D6" s="34">
+        <f>'Sweep values'!D40</f>
+        <v>-19333.333333333332</v>
+      </c>
+      <c r="E6" s="34">
+        <f>'Sweep values'!E40</f>
+        <v>-16916.666666666664</v>
+      </c>
+      <c r="F6" s="34">
+        <f>'Sweep values'!F40</f>
+        <v>-14500</v>
+      </c>
+      <c r="G6" s="34">
+        <f>'Sweep values'!G40</f>
+        <v>-12083.333333333332</v>
+      </c>
+      <c r="H6" s="34">
+        <f>'Sweep values'!H40</f>
+        <v>-9666.6666666666679</v>
+      </c>
+      <c r="I6" s="34">
+        <f>'Sweep values'!I40</f>
+        <v>-7250</v>
+      </c>
+      <c r="J6" s="34">
+        <f>'Sweep values'!J40</f>
+        <v>-4833.3333333333358</v>
+      </c>
+      <c r="K6" s="34">
+        <f>'Sweep values'!K40</f>
+        <v>-2416.6666666666679</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2130096-220E-7649-A477-8C79C6C2607D}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="34">
+        <f>'Sweep values'!B28</f>
+        <v>-1000</v>
+      </c>
+      <c r="C2" s="34">
+        <f>'Sweep values'!C28</f>
+        <v>-900</v>
+      </c>
+      <c r="D2" s="34">
+        <f>'Sweep values'!D28</f>
+        <v>-800</v>
+      </c>
+      <c r="E2" s="34">
+        <f>'Sweep values'!E28</f>
+        <v>-700</v>
+      </c>
+      <c r="F2" s="34">
+        <f>'Sweep values'!F28</f>
+        <v>-600</v>
+      </c>
+      <c r="G2" s="34">
+        <f>'Sweep values'!G28</f>
+        <v>-500</v>
+      </c>
+      <c r="H2" s="34">
+        <f>'Sweep values'!H28</f>
+        <v>-400</v>
+      </c>
+      <c r="I2" s="34">
+        <f>'Sweep values'!I28</f>
+        <v>-300</v>
+      </c>
+      <c r="J2" s="34">
+        <f>'Sweep values'!J28</f>
+        <v>-200</v>
+      </c>
+      <c r="K2" s="34">
+        <f>'Sweep values'!K28</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="34">
+        <f>'Sweep values'!B29</f>
+        <v>-769</v>
+      </c>
+      <c r="C3" s="34">
+        <f>'Sweep values'!C29</f>
+        <v>-694.66666666666663</v>
+      </c>
+      <c r="D3" s="34">
+        <f>'Sweep values'!D29</f>
+        <v>-620.33333333333337</v>
+      </c>
+      <c r="E3" s="34">
+        <f>'Sweep values'!E29</f>
+        <v>-546</v>
+      </c>
+      <c r="F3" s="34">
+        <f>'Sweep values'!F29</f>
+        <v>-471.66666666666669</v>
+      </c>
+      <c r="G3" s="34">
+        <f>'Sweep values'!G29</f>
+        <v>-397.33333333333331</v>
+      </c>
+      <c r="H3" s="34">
+        <f>'Sweep values'!H29</f>
+        <v>-323</v>
+      </c>
+      <c r="I3" s="34">
+        <f>'Sweep values'!I29</f>
+        <v>-248.66666666666663</v>
+      </c>
+      <c r="J3" s="34">
+        <f>'Sweep values'!J29</f>
+        <v>-174.33333333333337</v>
+      </c>
+      <c r="K3" s="34">
+        <f>'Sweep values'!K29</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="34">
+        <f>'Sweep values'!B30</f>
+        <v>-894</v>
+      </c>
+      <c r="C4" s="34">
+        <f>'Sweep values'!C30</f>
+        <v>-805.77777777777783</v>
+      </c>
+      <c r="D4" s="34">
+        <f>'Sweep values'!D30</f>
+        <v>-717.55555555555554</v>
+      </c>
+      <c r="E4" s="34">
+        <f>'Sweep values'!E30</f>
+        <v>-629.33333333333326</v>
+      </c>
+      <c r="F4" s="34">
+        <f>'Sweep values'!F30</f>
+        <v>-541.11111111111109</v>
+      </c>
+      <c r="G4" s="34">
+        <f>'Sweep values'!G30</f>
+        <v>-452.88888888888891</v>
+      </c>
+      <c r="H4" s="34">
+        <f>'Sweep values'!H30</f>
+        <v>-364.66666666666663</v>
+      </c>
+      <c r="I4" s="34">
+        <f>'Sweep values'!I30</f>
+        <v>-276.44444444444446</v>
+      </c>
+      <c r="J4" s="34">
+        <f>'Sweep values'!J30</f>
+        <v>-188.22222222222217</v>
+      </c>
+      <c r="K4" s="34">
+        <f>'Sweep values'!K30</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="34">
+        <f>'Sweep values'!B31</f>
+        <v>-522</v>
+      </c>
+      <c r="C5" s="34">
+        <f>'Sweep values'!C31</f>
+        <v>-475.11111111111109</v>
+      </c>
+      <c r="D5" s="34">
+        <f>'Sweep values'!D31</f>
+        <v>-428.22222222222223</v>
+      </c>
+      <c r="E5" s="34">
+        <f>'Sweep values'!E31</f>
+        <v>-381.33333333333337</v>
+      </c>
+      <c r="F5" s="34">
+        <f>'Sweep values'!F31</f>
+        <v>-334.44444444444446</v>
+      </c>
+      <c r="G5" s="34">
+        <f>'Sweep values'!G31</f>
+        <v>-287.55555555555554</v>
+      </c>
+      <c r="H5" s="34">
+        <f>'Sweep values'!H31</f>
+        <v>-240.66666666666669</v>
+      </c>
+      <c r="I5" s="34">
+        <f>'Sweep values'!I31</f>
+        <v>-193.77777777777777</v>
+      </c>
+      <c r="J5" s="34">
+        <f>'Sweep values'!J31</f>
+        <v>-146.88888888888891</v>
+      </c>
+      <c r="K5" s="34">
+        <f>'Sweep values'!K31</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6" s="34">
+        <f>'Sweep values'!B32</f>
+        <v>-1000</v>
+      </c>
+      <c r="C6" s="34">
+        <f>'Sweep values'!C32</f>
+        <v>-900</v>
+      </c>
+      <c r="D6" s="34">
+        <f>'Sweep values'!D32</f>
+        <v>-800</v>
+      </c>
+      <c r="E6" s="34">
+        <f>'Sweep values'!E32</f>
+        <v>-700</v>
+      </c>
+      <c r="F6" s="34">
+        <f>'Sweep values'!F32</f>
+        <v>-600</v>
+      </c>
+      <c r="G6" s="34">
+        <f>'Sweep values'!G32</f>
+        <v>-500</v>
+      </c>
+      <c r="H6" s="34">
+        <f>'Sweep values'!H32</f>
+        <v>-400</v>
+      </c>
+      <c r="I6" s="34">
+        <f>'Sweep values'!I32</f>
+        <v>-300</v>
+      </c>
+      <c r="J6" s="34">
+        <f>'Sweep values'!J32</f>
+        <v>-200</v>
+      </c>
+      <c r="K6" s="34">
+        <f>'Sweep values'!K32</f>
+        <v>-100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17762179-2135-43B7-98DA-D4A6A7868310}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -3648,10 +4791,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="47"/>
+      <c r="B2" s="60"/>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -3779,11 +4922,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E49A404-39E7-6B45-B584-7FD70EB84AF5}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
@@ -4018,13 +5161,13 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
+      <c r="A20" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="F20" s="67" t="s">
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
+      <c r="F20" s="51" t="s">
         <v>187</v>
       </c>
       <c r="G20" s="20">
@@ -4038,31 +5181,31 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="58">
+      <c r="B21" s="42">
         <f>MeOH_original_data!B18*1000/(24)</f>
         <v>2416.6666666666665</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21" s="42">
         <f>MeOH_original_data!C18*1000/(24)</f>
         <v>12125</v>
       </c>
-      <c r="D21" s="59">
+      <c r="D21" s="43">
         <f>MeOH_original_data!D18*1000/(24)</f>
         <v>24291.666666666668</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="52" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="47">
         <v>1</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="47">
         <v>1</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I21" s="48">
         <v>1</v>
       </c>
     </row>
@@ -4070,30 +5213,30 @@
       <c r="A22" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B22" s="60">
+      <c r="B22" s="45">
         <f>MeOH_original_data!B19*1000/(24)</f>
         <v>14666.666666666666</v>
       </c>
-      <c r="C22" s="60">
+      <c r="C22" s="45">
         <f>MeOH_original_data!C19*1000/(24)</f>
         <v>73375</v>
       </c>
-      <c r="D22" s="61">
+      <c r="D22" s="46">
         <f>MeOH_original_data!D19*1000/(24)</f>
         <v>146791.66666666666</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="52" t="s">
         <v>145</v>
       </c>
-      <c r="G22" s="63">
+      <c r="G22" s="47">
         <f>G$21*B22/B$21</f>
         <v>6.068965517241379</v>
       </c>
-      <c r="H22" s="63">
-        <f t="shared" ref="H22:I26" si="1">H$21*C22/C21</f>
+      <c r="H22" s="47">
+        <f t="shared" ref="H22:I23" si="1">H$21*C22/C21</f>
         <v>6.0515463917525771</v>
       </c>
-      <c r="I22" s="64">
+      <c r="I22" s="48">
         <f>I$21*D22/D21</f>
         <v>6.0428816466552311</v>
       </c>
@@ -4102,85 +5245,85 @@
       <c r="A23" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="62">
+      <c r="B23" s="44">
         <f>MeOH_original_data!B20</f>
         <v>5.5</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="44">
         <f>MeOH_original_data!C20</f>
         <v>27</v>
       </c>
-      <c r="D23" s="62">
+      <c r="D23" s="44">
         <f>MeOH_original_data!D20</f>
         <v>53</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="52" t="s">
         <v>146</v>
       </c>
-      <c r="G23" s="63">
-        <f t="shared" ref="G23:G26" si="2">G$21*B23/B$21</f>
+      <c r="G23" s="47">
+        <f t="shared" ref="G23" si="2">G$21*B23/B$21</f>
         <v>2.2758620689655173E-3</v>
       </c>
-      <c r="H23" s="63">
+      <c r="H23" s="47">
         <f t="shared" si="1"/>
         <v>3.6797274275979556E-4</v>
       </c>
-      <c r="I23" s="64">
+      <c r="I23" s="48">
         <f t="shared" si="1"/>
         <v>3.6105591825149024E-4</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="46"/>
-      <c r="F24" s="68" t="s">
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="59"/>
+      <c r="F24" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="63">
+      <c r="G24" s="47">
         <f>G$21*B25/B$21</f>
         <v>4.1379310344827586E-2</v>
       </c>
-      <c r="H24" s="63">
+      <c r="H24" s="47">
         <f t="shared" ref="H24:I24" si="3">H$21*C25/C$21</f>
         <v>4.192439862542955E-2</v>
       </c>
-      <c r="I24" s="64">
+      <c r="I24" s="48">
         <f t="shared" si="3"/>
         <v>4.1852487135506003E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B25" s="52">
+      <c r="B25" s="42">
         <f>MeOH_original_data!B22*1000/(24)</f>
         <v>100</v>
       </c>
-      <c r="C25" s="52">
+      <c r="C25" s="42">
         <f>MeOH_original_data!C22*1000/(24)</f>
         <v>508.33333333333331</v>
       </c>
-      <c r="D25" s="53">
+      <c r="D25" s="43">
         <f>MeOH_original_data!D22*1000/(24)</f>
         <v>1016.6666666666666</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="52" t="s">
         <v>156</v>
       </c>
-      <c r="G25" s="63">
+      <c r="G25" s="47">
         <f t="shared" ref="G25:G26" si="4">G$21*B26/B$21</f>
         <v>0.34655172413793106</v>
       </c>
-      <c r="H25" s="63">
+      <c r="H25" s="47">
         <f t="shared" ref="H25:H26" si="5">H$21*C26/C$21</f>
         <v>0.3446735395189004</v>
       </c>
-      <c r="I25" s="64">
+      <c r="I25" s="48">
         <f t="shared" ref="I25:I26" si="6">I$21*D26/D$21</f>
         <v>0.34425385934819897</v>
       </c>
@@ -4189,11 +5332,11 @@
       <c r="A26" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B26" s="54">
+      <c r="B26" s="44">
         <f>MeOH_original_data!B23*1000/(24)</f>
         <v>837.5</v>
       </c>
-      <c r="C26" s="54">
+      <c r="C26" s="44">
         <f>MeOH_original_data!C23*1000/(24)</f>
         <v>4179.166666666667</v>
       </c>
@@ -4201,18 +5344,18 @@
         <f>MeOH_original_data!D23*1000/(24)</f>
         <v>8362.5</v>
       </c>
-      <c r="F26" s="69" t="s">
+      <c r="F26" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="G26" s="65">
+      <c r="G26" s="49">
         <f t="shared" si="4"/>
         <v>1.4896551724137932</v>
       </c>
-      <c r="H26" s="65">
+      <c r="H26" s="49">
         <f t="shared" si="5"/>
         <v>1.4838487972508592</v>
       </c>
-      <c r="I26" s="66">
+      <c r="I26" s="50">
         <f t="shared" si="6"/>
         <v>1.481303602058319</v>
       </c>
@@ -4221,15 +5364,15 @@
       <c r="A27" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B27" s="55">
+      <c r="B27" s="45">
         <f>MeOH_original_data!B24*1000/(24)</f>
         <v>3600</v>
       </c>
-      <c r="C27" s="55">
+      <c r="C27" s="45">
         <f>MeOH_original_data!C24*1000/(24)</f>
         <v>17991.666666666668</v>
       </c>
-      <c r="D27" s="56">
+      <c r="D27" s="46">
         <f>MeOH_original_data!D24*1000/(24)</f>
         <v>35983.333333333336</v>
       </c>
@@ -4407,7 +5550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDBD3A5-912B-984E-9A90-BB156C754950}">
   <dimension ref="A1:D24"/>
   <sheetViews>
@@ -4681,7 +5824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0215393-90AE-4217-9780-C6903F6FBFD3}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -4856,7 +5999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC147DE-C2D1-4559-861B-2B8673B56208}">
   <dimension ref="A1:C15"/>
   <sheetViews>
@@ -4986,308 +6129,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5236045A-41A7-AF40-95B6-DBF867B04F6F}">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>3645</v>
-      </c>
-      <c r="F2" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" s="18">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="J2" s="15">
-        <f>$B$10+I2*(1-$B$10)</f>
-        <v>0.28505000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2817</v>
-      </c>
-      <c r="F3">
-        <v>894</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="H3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="18">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
-        <f t="shared" ref="J3:J8" si="0">$B$10+I3*(1-$B$10)</f>
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>3853</v>
-      </c>
-      <c r="F4">
-        <v>1280</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="18">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15">
-        <f t="shared" si="0"/>
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>3411</v>
-      </c>
-      <c r="F5" t="s">
-        <v>121</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="18">
-        <v>8.8400000000000006E-2</v>
-      </c>
-      <c r="J5" s="15">
-        <f t="shared" si="0"/>
-        <v>0.27983599999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>1677</v>
-      </c>
-      <c r="F6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="H6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" s="18">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="J6" s="15">
-        <f t="shared" si="0"/>
-        <v>0.28742000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>2419</v>
-      </c>
-      <c r="F7">
-        <v>769</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="H7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="18">
-        <v>7.8100000000000003E-2</v>
-      </c>
-      <c r="J7" s="15">
-        <f t="shared" si="0"/>
-        <v>0.27169900000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>3990</v>
-      </c>
-      <c r="F8" t="s">
-        <v>123</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="H8" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="18">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="J8" s="15">
-        <f t="shared" si="0"/>
-        <v>0.24870999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="17">
-        <v>0.21</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="14"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{E420822C-9CB6-0543-ADF1-EDCFE8D5ABAC}"/>
-    <hyperlink ref="G3" r:id="rId2" display="https://en.wikipedia.org/wiki/Davis%E2%80%93Besse_Nuclear_Power_Station" xr:uid="{9110542E-89D6-2D47-BAB0-04E98B13FBF5}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{D1783477-78FF-784B-9A1B-672979000EC5}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{50BD1FBC-1D61-6F40-B26D-85ED74F24A2B}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{3096E627-E5FC-5A4A-BC59-39F664A94478}"/>
-    <hyperlink ref="G7" r:id="rId6" xr:uid="{A9BD79D7-5527-A44C-B2EE-3F868C0E23D5}"/>
-    <hyperlink ref="G8" r:id="rId7" xr:uid="{9DA2C91F-A18F-F04F-A835-EC8502AD4D48}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/use_cases/LWR_MeOH_2023/data/HERON_data.xlsx
+++ b/use_cases/LWR_MeOH_2023/data/HERON_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/LWR_MeOH_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB805E72-8AE5-C143-B931-873DC120F73B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6AB341-C3E2-ED41-834F-4C9C35D27B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-300" yWindow="880" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{3CE7F202-39F9-48AF-B0C7-575379157397}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{3CE7F202-39F9-48AF-B0C7-575379157397}"/>
   </bookViews>
   <sheets>
     <sheet name="Sweep values" sheetId="10" r:id="rId1"/>
@@ -619,13 +619,13 @@
     <t>cooper</t>
   </si>
   <si>
-    <t>davis_besse</t>
-  </si>
-  <si>
-    <t>prairie_island</t>
-  </si>
-  <si>
     <t>stp</t>
+  </si>
+  <si>
+    <t>davis</t>
+  </si>
+  <si>
+    <t>prairie</t>
   </si>
 </sst>
 </file>
@@ -3947,7 +3947,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B4" s="34">
         <v>10</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B5" s="34">
         <v>10</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B6" s="34">
         <v>10</v>
@@ -4220,7 +4220,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B4" s="34">
         <f>'Sweep values'!B38</f>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B5" s="34">
         <f>'Sweep values'!B39</f>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B6" s="34">
         <f>'Sweep values'!B40</f>
@@ -4495,7 +4495,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B4" s="34">
         <f>'Sweep values'!B30</f>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B5" s="34">
         <f>'Sweep values'!B31</f>
@@ -4717,7 +4717,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B6" s="34">
         <f>'Sweep values'!B32</f>

--- a/use_cases/LWR_MeOH_2023/data/HERON_data.xlsx
+++ b/use_cases/LWR_MeOH_2023/data/HERON_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/LWR_MeOH_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6AB341-C3E2-ED41-834F-4C9C35D27B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2A824C-E8EE-ED45-A4C4-490E518F709E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{3CE7F202-39F9-48AF-B0C7-575379157397}"/>
+    <workbookView xWindow="0" yWindow="1740" windowWidth="35840" windowHeight="20200" activeTab="5" xr2:uid="{3CE7F202-39F9-48AF-B0C7-575379157397}"/>
   </bookViews>
   <sheets>
     <sheet name="Sweep values" sheetId="10" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="198">
   <si>
     <t>Source</t>
   </si>
@@ -626,6 +626,18 @@
   </si>
   <si>
     <t>prairie</t>
+  </si>
+  <si>
+    <t>Fuel products (bbl/d)</t>
+  </si>
+  <si>
+    <t>bbl to liters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jet fuel </t>
+  </si>
+  <si>
+    <t>density (kg/L)</t>
   </si>
 </sst>
 </file>
@@ -1007,9 +1019,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -1047,6 +1057,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -2415,7 +2427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9241F20-95C4-42A2-B03A-23B9DD4DBFA3}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
@@ -2573,37 +2585,37 @@
       </c>
       <c r="B16">
         <f>MeOH!B44</f>
-        <v>24.166666666666664</v>
+        <v>24.583333333333336</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="59"/>
-      <c r="E18" s="58" t="s">
+      <c r="D18" s="57"/>
+      <c r="E18" s="56" t="s">
         <v>180</v>
       </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="58" t="s">
+      <c r="F18" s="57"/>
+      <c r="G18" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="59"/>
+      <c r="H18" s="57"/>
       <c r="I18" s="31"/>
       <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="57"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="11" t="s">
         <v>74</v>
       </c>
@@ -2646,11 +2658,11 @@
       </c>
       <c r="E20" s="39">
         <f>C20*$B$16</f>
-        <v>-24166.666666666664</v>
+        <v>-24583.333333333336</v>
       </c>
       <c r="F20" s="39">
         <f>D20*$B$16</f>
-        <v>-2416.6666666666665</v>
+        <v>-2458.3333333333335</v>
       </c>
       <c r="G20" s="34">
         <f>0</f>
@@ -2658,7 +2670,7 @@
       </c>
       <c r="H20" s="34">
         <f>ABS(E20)*24*I20</f>
-        <v>1160000</v>
+        <v>1180000</v>
       </c>
       <c r="I20">
         <f t="shared" ref="I20:I22" si="0">ROUNDUP(J20*$I$24/$J$24,0)</f>
@@ -2685,11 +2697,11 @@
       </c>
       <c r="E21" s="39">
         <f t="shared" ref="E21:E24" si="3">C21*$B$16</f>
-        <v>-18584.166666666664</v>
+        <v>-18904.583333333336</v>
       </c>
       <c r="F21" s="39">
         <f t="shared" ref="F21:F24" si="4">D21*$B$16</f>
-        <v>-2416.6666666666665</v>
+        <v>-2458.3333333333335</v>
       </c>
       <c r="G21" s="34">
         <f>0</f>
@@ -2697,7 +2709,7 @@
       </c>
       <c r="H21" s="34">
         <f t="shared" ref="H21:H23" si="5">ABS(E21)*24*I21</f>
-        <v>3122139.9999999995</v>
+        <v>3175970.0000000005</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
@@ -2724,11 +2736,11 @@
       </c>
       <c r="E22" s="39">
         <f t="shared" si="3"/>
-        <v>-21604.999999999996</v>
+        <v>-21977.500000000004</v>
       </c>
       <c r="F22" s="39">
         <f t="shared" si="4"/>
-        <v>-2416.6666666666665</v>
+        <v>-2458.3333333333335</v>
       </c>
       <c r="G22" s="34">
         <f>0</f>
@@ -2736,7 +2748,7 @@
       </c>
       <c r="H22" s="34">
         <f t="shared" si="5"/>
-        <v>1037039.9999999998</v>
+        <v>1054920.0000000002</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
@@ -2763,11 +2775,11 @@
       </c>
       <c r="E23" s="39">
         <f t="shared" si="3"/>
-        <v>-12614.999999999998</v>
+        <v>-12832.500000000002</v>
       </c>
       <c r="F23" s="39">
         <f t="shared" si="4"/>
-        <v>-2416.6666666666665</v>
+        <v>-2458.3333333333335</v>
       </c>
       <c r="G23" s="34">
         <f>0</f>
@@ -2775,7 +2787,7 @@
       </c>
       <c r="H23" s="34">
         <f t="shared" si="5"/>
-        <v>302759.99999999994</v>
+        <v>307980.00000000006</v>
       </c>
       <c r="I23">
         <f>ROUNDUP(J23*$I$24/$J$24,0)</f>
@@ -2802,11 +2814,11 @@
       </c>
       <c r="E24" s="40">
         <f t="shared" si="3"/>
-        <v>-24166.666666666664</v>
+        <v>-24583.333333333336</v>
       </c>
       <c r="F24" s="40">
         <f t="shared" si="4"/>
-        <v>-2416.6666666666665</v>
+        <v>-2458.3333333333335</v>
       </c>
       <c r="G24" s="37">
         <f>0</f>
@@ -2814,7 +2826,7 @@
       </c>
       <c r="H24" s="37">
         <f>ABS(E24)*24*I24</f>
-        <v>8120000</v>
+        <v>8260000</v>
       </c>
       <c r="I24" s="19">
         <v>14</v>
@@ -3137,43 +3149,43 @@
       </c>
       <c r="B36" s="33">
         <f>$E20+B$35*ABS($E20-$F20)/9</f>
-        <v>-24166.666666666664</v>
+        <v>-24583.333333333336</v>
       </c>
       <c r="C36" s="34">
         <f t="shared" ref="C36:K36" si="8">$E20+C$35*ABS($E20-$F20)/9</f>
-        <v>-21750</v>
+        <v>-22125</v>
       </c>
       <c r="D36" s="33">
         <f t="shared" si="8"/>
-        <v>-19333.333333333332</v>
+        <v>-19666.666666666668</v>
       </c>
       <c r="E36" s="34">
         <f t="shared" si="8"/>
-        <v>-16916.666666666664</v>
+        <v>-17208.333333333336</v>
       </c>
       <c r="F36" s="33">
         <f t="shared" si="8"/>
-        <v>-14500</v>
+        <v>-14750</v>
       </c>
       <c r="G36" s="34">
         <f t="shared" si="8"/>
-        <v>-12083.333333333332</v>
+        <v>-12291.666666666668</v>
       </c>
       <c r="H36" s="33">
         <f t="shared" si="8"/>
-        <v>-9666.6666666666679</v>
+        <v>-9833.3333333333321</v>
       </c>
       <c r="I36" s="34">
         <f t="shared" si="8"/>
-        <v>-7250</v>
+        <v>-7375</v>
       </c>
       <c r="J36" s="33">
         <f t="shared" si="8"/>
-        <v>-4833.3333333333358</v>
+        <v>-4916.6666666666642</v>
       </c>
       <c r="K36" s="35">
         <f t="shared" si="8"/>
-        <v>-2416.6666666666679</v>
+        <v>-2458.3333333333321</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3182,43 +3194,43 @@
       </c>
       <c r="B37" s="33">
         <f t="shared" ref="B37:K40" si="9">$E21+B$35*ABS($E21-$F21)/9</f>
-        <v>-18584.166666666664</v>
+        <v>-18904.583333333336</v>
       </c>
       <c r="C37" s="34">
         <f t="shared" si="9"/>
-        <v>-16787.777777777774</v>
+        <v>-17077.222222222223</v>
       </c>
       <c r="D37" s="33">
         <f t="shared" si="9"/>
-        <v>-14991.388888888887</v>
+        <v>-15249.861111111113</v>
       </c>
       <c r="E37" s="34">
         <f t="shared" si="9"/>
-        <v>-13194.999999999998</v>
+        <v>-13422.5</v>
       </c>
       <c r="F37" s="33">
         <f t="shared" si="9"/>
-        <v>-11398.611111111109</v>
+        <v>-11595.138888888891</v>
       </c>
       <c r="G37" s="34">
         <f t="shared" si="9"/>
-        <v>-9602.2222222222208</v>
+        <v>-9767.7777777777792</v>
       </c>
       <c r="H37" s="33">
         <f t="shared" si="9"/>
-        <v>-7805.8333333333321</v>
+        <v>-7940.4166666666661</v>
       </c>
       <c r="I37" s="34">
         <f t="shared" si="9"/>
-        <v>-6009.4444444444434</v>
+        <v>-6113.0555555555547</v>
       </c>
       <c r="J37" s="33">
         <f t="shared" si="9"/>
-        <v>-4213.0555555555547</v>
+        <v>-4285.6944444444434</v>
       </c>
       <c r="K37" s="35">
         <f t="shared" si="9"/>
-        <v>-2416.6666666666679</v>
+        <v>-2458.3333333333321</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3227,43 +3239,43 @@
       </c>
       <c r="B38" s="33">
         <f t="shared" si="9"/>
-        <v>-21604.999999999996</v>
+        <v>-21977.500000000004</v>
       </c>
       <c r="C38" s="34">
         <f t="shared" si="9"/>
-        <v>-19472.96296296296</v>
+        <v>-19808.703703703708</v>
       </c>
       <c r="D38" s="33">
         <f t="shared" si="9"/>
-        <v>-17340.925925925923</v>
+        <v>-17639.907407407409</v>
       </c>
       <c r="E38" s="34">
         <f t="shared" si="9"/>
-        <v>-15208.888888888887</v>
+        <v>-15471.111111111113</v>
       </c>
       <c r="F38" s="33">
         <f t="shared" si="9"/>
-        <v>-13076.85185185185</v>
+        <v>-13302.314814814816</v>
       </c>
       <c r="G38" s="34">
         <f t="shared" si="9"/>
-        <v>-10944.814814814814</v>
+        <v>-11133.51851851852</v>
       </c>
       <c r="H38" s="33">
         <f t="shared" si="9"/>
-        <v>-8812.7777777777774</v>
+        <v>-8964.7222222222226</v>
       </c>
       <c r="I38" s="34">
         <f t="shared" si="9"/>
-        <v>-6680.7407407407391</v>
+        <v>-6795.925925925927</v>
       </c>
       <c r="J38" s="33">
         <f t="shared" si="9"/>
-        <v>-4548.7037037037044</v>
+        <v>-4627.1296296296277</v>
       </c>
       <c r="K38" s="35">
         <f t="shared" si="9"/>
-        <v>-2416.6666666666679</v>
+        <v>-2458.3333333333321</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3272,43 +3284,43 @@
       </c>
       <c r="B39" s="33">
         <f t="shared" si="9"/>
-        <v>-12614.999999999998</v>
+        <v>-12832.500000000002</v>
       </c>
       <c r="C39" s="34">
         <f t="shared" si="9"/>
-        <v>-11481.85185185185</v>
+        <v>-11679.814814814818</v>
       </c>
       <c r="D39" s="33">
         <f t="shared" si="9"/>
-        <v>-10348.703703703703</v>
+        <v>-10527.129629629631</v>
       </c>
       <c r="E39" s="34">
         <f t="shared" si="9"/>
-        <v>-9215.5555555555547</v>
+        <v>-9374.4444444444453</v>
       </c>
       <c r="F39" s="33">
         <f t="shared" si="9"/>
-        <v>-8082.407407407406</v>
+        <v>-8221.7592592592609</v>
       </c>
       <c r="G39" s="34">
         <f t="shared" si="9"/>
-        <v>-6949.2592592592582</v>
+        <v>-7069.0740740740748</v>
       </c>
       <c r="H39" s="33">
         <f t="shared" si="9"/>
-        <v>-5816.1111111111104</v>
+        <v>-5916.3888888888896</v>
       </c>
       <c r="I39" s="34">
         <f t="shared" si="9"/>
-        <v>-4682.9629629629617</v>
+        <v>-4763.7037037037053</v>
       </c>
       <c r="J39" s="33">
         <f t="shared" si="9"/>
-        <v>-3549.8148148148139</v>
+        <v>-3611.0185185185201</v>
       </c>
       <c r="K39" s="35">
         <f t="shared" si="9"/>
-        <v>-2416.6666666666661</v>
+        <v>-2458.3333333333339</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3317,43 +3329,43 @@
       </c>
       <c r="B40" s="36">
         <f t="shared" si="9"/>
-        <v>-24166.666666666664</v>
+        <v>-24583.333333333336</v>
       </c>
       <c r="C40" s="37">
         <f t="shared" si="9"/>
-        <v>-21750</v>
+        <v>-22125</v>
       </c>
       <c r="D40" s="36">
         <f t="shared" si="9"/>
-        <v>-19333.333333333332</v>
+        <v>-19666.666666666668</v>
       </c>
       <c r="E40" s="37">
         <f t="shared" si="9"/>
-        <v>-16916.666666666664</v>
+        <v>-17208.333333333336</v>
       </c>
       <c r="F40" s="36">
         <f t="shared" si="9"/>
-        <v>-14500</v>
+        <v>-14750</v>
       </c>
       <c r="G40" s="37">
         <f t="shared" si="9"/>
-        <v>-12083.333333333332</v>
+        <v>-12291.666666666668</v>
       </c>
       <c r="H40" s="36">
         <f t="shared" si="9"/>
-        <v>-9666.6666666666679</v>
+        <v>-9833.3333333333321</v>
       </c>
       <c r="I40" s="37">
         <f t="shared" si="9"/>
-        <v>-7250</v>
+        <v>-7375</v>
       </c>
       <c r="J40" s="36">
         <f t="shared" si="9"/>
-        <v>-4833.3333333333358</v>
+        <v>-4916.6666666666642</v>
       </c>
       <c r="K40" s="38">
         <f t="shared" si="9"/>
-        <v>-2416.6666666666679</v>
+        <v>-2458.3333333333321</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -3406,39 +3418,39 @@
       </c>
       <c r="C44" s="34">
         <f t="shared" ref="C44:J44" si="10">C$43*ABS($G20-$H20)/9</f>
-        <v>128888.88888888889</v>
+        <v>131111.11111111112</v>
       </c>
       <c r="D44" s="33">
         <f t="shared" si="10"/>
-        <v>257777.77777777778</v>
+        <v>262222.22222222225</v>
       </c>
       <c r="E44" s="34">
         <f t="shared" si="10"/>
-        <v>386666.66666666669</v>
+        <v>393333.33333333331</v>
       </c>
       <c r="F44" s="33">
         <f t="shared" si="10"/>
-        <v>515555.55555555556</v>
+        <v>524444.4444444445</v>
       </c>
       <c r="G44" s="34">
         <f t="shared" si="10"/>
-        <v>644444.4444444445</v>
+        <v>655555.5555555555</v>
       </c>
       <c r="H44" s="33">
         <f t="shared" si="10"/>
-        <v>773333.33333333337</v>
+        <v>786666.66666666663</v>
       </c>
       <c r="I44" s="34">
         <f t="shared" si="10"/>
-        <v>902222.22222222225</v>
+        <v>917777.77777777775</v>
       </c>
       <c r="J44" s="33">
         <f t="shared" si="10"/>
-        <v>1031111.1111111111</v>
+        <v>1048888.888888889</v>
       </c>
       <c r="K44" s="35">
         <f>K$43*ABS($G20-$H20)/9</f>
-        <v>1160000</v>
+        <v>1180000</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3451,39 +3463,39 @@
       </c>
       <c r="C45" s="34">
         <f t="shared" si="11"/>
-        <v>346904.44444444438</v>
+        <v>352885.55555555562</v>
       </c>
       <c r="D45" s="33">
         <f t="shared" si="11"/>
-        <v>693808.88888888876</v>
+        <v>705771.11111111124</v>
       </c>
       <c r="E45" s="34">
         <f t="shared" si="11"/>
-        <v>1040713.3333333331</v>
+        <v>1058656.666666667</v>
       </c>
       <c r="F45" s="33">
         <f t="shared" si="11"/>
-        <v>1387617.7777777775</v>
+        <v>1411542.2222222225</v>
       </c>
       <c r="G45" s="34">
         <f t="shared" si="11"/>
-        <v>1734522.222222222</v>
+        <v>1764427.777777778</v>
       </c>
       <c r="H45" s="33">
         <f t="shared" si="11"/>
-        <v>2081426.6666666663</v>
+        <v>2117313.333333334</v>
       </c>
       <c r="I45" s="34">
         <f t="shared" si="11"/>
-        <v>2428331.1111111105</v>
+        <v>2470198.8888888895</v>
       </c>
       <c r="J45" s="33">
         <f t="shared" si="11"/>
-        <v>2775235.555555555</v>
+        <v>2823084.444444445</v>
       </c>
       <c r="K45" s="35">
         <f t="shared" si="11"/>
-        <v>3122139.9999999995</v>
+        <v>3175970.0000000005</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3496,39 +3508,39 @@
       </c>
       <c r="C46" s="34">
         <f t="shared" si="12"/>
-        <v>115226.66666666664</v>
+        <v>117213.33333333336</v>
       </c>
       <c r="D46" s="33">
         <f t="shared" si="12"/>
-        <v>230453.33333333328</v>
+        <v>234426.66666666672</v>
       </c>
       <c r="E46" s="34">
         <f t="shared" si="12"/>
-        <v>345679.99999999988</v>
+        <v>351640.00000000012</v>
       </c>
       <c r="F46" s="33">
         <f t="shared" si="12"/>
-        <v>460906.66666666657</v>
+        <v>468853.33333333343</v>
       </c>
       <c r="G46" s="34">
         <f t="shared" si="12"/>
-        <v>576133.33333333326</v>
+        <v>586066.66666666674</v>
       </c>
       <c r="H46" s="33">
         <f t="shared" si="12"/>
-        <v>691359.99999999977</v>
+        <v>703280.00000000023</v>
       </c>
       <c r="I46" s="34">
         <f t="shared" si="12"/>
-        <v>806586.66666666651</v>
+        <v>820493.33333333349</v>
       </c>
       <c r="J46" s="33">
         <f t="shared" si="12"/>
-        <v>921813.33333333314</v>
+        <v>937706.66666666686</v>
       </c>
       <c r="K46" s="35">
         <f t="shared" si="12"/>
-        <v>1037039.9999999998</v>
+        <v>1054920.0000000002</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3541,39 +3553,39 @@
       </c>
       <c r="C47" s="34">
         <f t="shared" si="13"/>
-        <v>33639.999999999993</v>
+        <v>34220.000000000007</v>
       </c>
       <c r="D47" s="33">
         <f t="shared" si="13"/>
-        <v>67279.999999999985</v>
+        <v>68440.000000000015</v>
       </c>
       <c r="E47" s="34">
         <f t="shared" si="13"/>
-        <v>100919.99999999997</v>
+        <v>102660.00000000003</v>
       </c>
       <c r="F47" s="33">
         <f t="shared" si="13"/>
-        <v>134559.99999999997</v>
+        <v>136880.00000000003</v>
       </c>
       <c r="G47" s="34">
         <f t="shared" si="13"/>
-        <v>168199.99999999997</v>
+        <v>171100.00000000003</v>
       </c>
       <c r="H47" s="33">
         <f t="shared" si="13"/>
-        <v>201839.99999999994</v>
+        <v>205320.00000000006</v>
       </c>
       <c r="I47" s="34">
         <f t="shared" si="13"/>
-        <v>235479.99999999994</v>
+        <v>239540.00000000006</v>
       </c>
       <c r="J47" s="33">
         <f t="shared" si="13"/>
-        <v>269119.99999999994</v>
+        <v>273760.00000000006</v>
       </c>
       <c r="K47" s="35">
         <f t="shared" si="13"/>
-        <v>302759.99999999994</v>
+        <v>307980.00000000006</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -3586,39 +3598,39 @@
       </c>
       <c r="C48" s="37">
         <f t="shared" si="14"/>
-        <v>902222.22222222225</v>
+        <v>917777.77777777775</v>
       </c>
       <c r="D48" s="36">
         <f t="shared" si="14"/>
-        <v>1804444.4444444445</v>
+        <v>1835555.5555555555</v>
       </c>
       <c r="E48" s="37">
         <f t="shared" si="14"/>
-        <v>2706666.6666666665</v>
+        <v>2753333.3333333335</v>
       </c>
       <c r="F48" s="36">
         <f t="shared" si="14"/>
-        <v>3608888.888888889</v>
+        <v>3671111.111111111</v>
       </c>
       <c r="G48" s="37">
         <f t="shared" si="14"/>
-        <v>4511111.111111111</v>
+        <v>4588888.888888889</v>
       </c>
       <c r="H48" s="36">
         <f t="shared" si="14"/>
-        <v>5413333.333333333</v>
+        <v>5506666.666666667</v>
       </c>
       <c r="I48" s="37">
         <f t="shared" si="14"/>
-        <v>6315555.555555556</v>
+        <v>6424444.444444444</v>
       </c>
       <c r="J48" s="36">
         <f t="shared" si="14"/>
-        <v>7217777.777777778</v>
+        <v>7342222.222222222</v>
       </c>
       <c r="K48" s="38">
         <f t="shared" si="14"/>
-        <v>8120000</v>
+        <v>8260000</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
@@ -3946,7 +3958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999CF170-3B2F-5A4A-A635-8F248BA69D8B}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -3996,39 +4008,39 @@
       </c>
       <c r="C2" s="34">
         <f>'Sweep values'!C44</f>
-        <v>128888.88888888889</v>
+        <v>131111.11111111112</v>
       </c>
       <c r="D2" s="34">
         <f>'Sweep values'!D44</f>
-        <v>257777.77777777778</v>
+        <v>262222.22222222225</v>
       </c>
       <c r="E2" s="34">
         <f>'Sweep values'!E44</f>
-        <v>386666.66666666669</v>
+        <v>393333.33333333331</v>
       </c>
       <c r="F2" s="34">
         <f>'Sweep values'!F44</f>
-        <v>515555.55555555556</v>
+        <v>524444.4444444445</v>
       </c>
       <c r="G2" s="34">
         <f>'Sweep values'!G44</f>
-        <v>644444.4444444445</v>
+        <v>655555.5555555555</v>
       </c>
       <c r="H2" s="34">
         <f>'Sweep values'!H44</f>
-        <v>773333.33333333337</v>
+        <v>786666.66666666663</v>
       </c>
       <c r="I2" s="34">
         <f>'Sweep values'!I44</f>
-        <v>902222.22222222225</v>
+        <v>917777.77777777775</v>
       </c>
       <c r="J2" s="34">
         <f>'Sweep values'!J44</f>
-        <v>1031111.1111111111</v>
+        <v>1048888.888888889</v>
       </c>
       <c r="K2" s="34">
         <f>'Sweep values'!K44</f>
-        <v>1160000</v>
+        <v>1180000</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -4040,39 +4052,39 @@
       </c>
       <c r="C3" s="34">
         <f>'Sweep values'!C45</f>
-        <v>346904.44444444438</v>
+        <v>352885.55555555562</v>
       </c>
       <c r="D3" s="34">
         <f>'Sweep values'!D45</f>
-        <v>693808.88888888876</v>
+        <v>705771.11111111124</v>
       </c>
       <c r="E3" s="34">
         <f>'Sweep values'!E45</f>
-        <v>1040713.3333333331</v>
+        <v>1058656.666666667</v>
       </c>
       <c r="F3" s="34">
         <f>'Sweep values'!F45</f>
-        <v>1387617.7777777775</v>
+        <v>1411542.2222222225</v>
       </c>
       <c r="G3" s="34">
         <f>'Sweep values'!G45</f>
-        <v>1734522.222222222</v>
+        <v>1764427.777777778</v>
       </c>
       <c r="H3" s="34">
         <f>'Sweep values'!H45</f>
-        <v>2081426.6666666663</v>
+        <v>2117313.333333334</v>
       </c>
       <c r="I3" s="34">
         <f>'Sweep values'!I45</f>
-        <v>2428331.1111111105</v>
+        <v>2470198.8888888895</v>
       </c>
       <c r="J3" s="34">
         <f>'Sweep values'!J45</f>
-        <v>2775235.555555555</v>
+        <v>2823084.444444445</v>
       </c>
       <c r="K3" s="34">
         <f>'Sweep values'!K45</f>
-        <v>3122139.9999999995</v>
+        <v>3175970.0000000005</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -4084,39 +4096,39 @@
       </c>
       <c r="C4" s="34">
         <f>'Sweep values'!C46</f>
-        <v>115226.66666666664</v>
+        <v>117213.33333333336</v>
       </c>
       <c r="D4" s="34">
         <f>'Sweep values'!D46</f>
-        <v>230453.33333333328</v>
+        <v>234426.66666666672</v>
       </c>
       <c r="E4" s="34">
         <f>'Sweep values'!E46</f>
-        <v>345679.99999999988</v>
+        <v>351640.00000000012</v>
       </c>
       <c r="F4" s="34">
         <f>'Sweep values'!F46</f>
-        <v>460906.66666666657</v>
+        <v>468853.33333333343</v>
       </c>
       <c r="G4" s="34">
         <f>'Sweep values'!G46</f>
-        <v>576133.33333333326</v>
+        <v>586066.66666666674</v>
       </c>
       <c r="H4" s="34">
         <f>'Sweep values'!H46</f>
-        <v>691359.99999999977</v>
+        <v>703280.00000000023</v>
       </c>
       <c r="I4" s="34">
         <f>'Sweep values'!I46</f>
-        <v>806586.66666666651</v>
+        <v>820493.33333333349</v>
       </c>
       <c r="J4" s="34">
         <f>'Sweep values'!J46</f>
-        <v>921813.33333333314</v>
+        <v>937706.66666666686</v>
       </c>
       <c r="K4" s="34">
         <f>'Sweep values'!K46</f>
-        <v>1037039.9999999998</v>
+        <v>1054920.0000000002</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -4128,39 +4140,39 @@
       </c>
       <c r="C5" s="34">
         <f>'Sweep values'!C47</f>
-        <v>33639.999999999993</v>
+        <v>34220.000000000007</v>
       </c>
       <c r="D5" s="34">
         <f>'Sweep values'!D47</f>
-        <v>67279.999999999985</v>
+        <v>68440.000000000015</v>
       </c>
       <c r="E5" s="34">
         <f>'Sweep values'!E47</f>
-        <v>100919.99999999997</v>
+        <v>102660.00000000003</v>
       </c>
       <c r="F5" s="34">
         <f>'Sweep values'!F47</f>
-        <v>134559.99999999997</v>
+        <v>136880.00000000003</v>
       </c>
       <c r="G5" s="34">
         <f>'Sweep values'!G47</f>
-        <v>168199.99999999997</v>
+        <v>171100.00000000003</v>
       </c>
       <c r="H5" s="34">
         <f>'Sweep values'!H47</f>
-        <v>201839.99999999994</v>
+        <v>205320.00000000006</v>
       </c>
       <c r="I5" s="34">
         <f>'Sweep values'!I47</f>
-        <v>235479.99999999994</v>
+        <v>239540.00000000006</v>
       </c>
       <c r="J5" s="34">
         <f>'Sweep values'!J47</f>
-        <v>269119.99999999994</v>
+        <v>273760.00000000006</v>
       </c>
       <c r="K5" s="34">
         <f>'Sweep values'!K47</f>
-        <v>302759.99999999994</v>
+        <v>307980.00000000006</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -4172,39 +4184,39 @@
       </c>
       <c r="C6" s="34">
         <f>'Sweep values'!C48</f>
-        <v>902222.22222222225</v>
+        <v>917777.77777777775</v>
       </c>
       <c r="D6" s="34">
         <f>'Sweep values'!D48</f>
-        <v>1804444.4444444445</v>
+        <v>1835555.5555555555</v>
       </c>
       <c r="E6" s="34">
         <f>'Sweep values'!E48</f>
-        <v>2706666.6666666665</v>
+        <v>2753333.3333333335</v>
       </c>
       <c r="F6" s="34">
         <f>'Sweep values'!F48</f>
-        <v>3608888.888888889</v>
+        <v>3671111.111111111</v>
       </c>
       <c r="G6" s="34">
         <f>'Sweep values'!G48</f>
-        <v>4511111.111111111</v>
+        <v>4588888.888888889</v>
       </c>
       <c r="H6" s="34">
         <f>'Sweep values'!H48</f>
-        <v>5413333.333333333</v>
+        <v>5506666.666666667</v>
       </c>
       <c r="I6" s="34">
         <f>'Sweep values'!I48</f>
-        <v>6315555.555555556</v>
+        <v>6424444.444444444</v>
       </c>
       <c r="J6" s="34">
         <f>'Sweep values'!J48</f>
-        <v>7217777.777777778</v>
+        <v>7342222.222222222</v>
       </c>
       <c r="K6" s="34">
         <f>'Sweep values'!K48</f>
-        <v>8120000</v>
+        <v>8260000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -4266,43 +4278,43 @@
       </c>
       <c r="B2" s="34">
         <f>'Sweep values'!B36</f>
-        <v>-24166.666666666664</v>
+        <v>-24583.333333333336</v>
       </c>
       <c r="C2" s="34">
         <f>'Sweep values'!C36</f>
-        <v>-21750</v>
+        <v>-22125</v>
       </c>
       <c r="D2" s="34">
         <f>'Sweep values'!D36</f>
-        <v>-19333.333333333332</v>
+        <v>-19666.666666666668</v>
       </c>
       <c r="E2" s="34">
         <f>'Sweep values'!E36</f>
-        <v>-16916.666666666664</v>
+        <v>-17208.333333333336</v>
       </c>
       <c r="F2" s="34">
         <f>'Sweep values'!F36</f>
-        <v>-14500</v>
+        <v>-14750</v>
       </c>
       <c r="G2" s="34">
         <f>'Sweep values'!G36</f>
-        <v>-12083.333333333332</v>
+        <v>-12291.666666666668</v>
       </c>
       <c r="H2" s="34">
         <f>'Sweep values'!H36</f>
-        <v>-9666.6666666666679</v>
+        <v>-9833.3333333333321</v>
       </c>
       <c r="I2" s="34">
         <f>'Sweep values'!I36</f>
-        <v>-7250</v>
+        <v>-7375</v>
       </c>
       <c r="J2" s="34">
         <f>'Sweep values'!J36</f>
-        <v>-4833.3333333333358</v>
+        <v>-4916.6666666666642</v>
       </c>
       <c r="K2" s="34">
         <f>'Sweep values'!K36</f>
-        <v>-2416.6666666666679</v>
+        <v>-2458.3333333333321</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -4311,43 +4323,43 @@
       </c>
       <c r="B3" s="34">
         <f>'Sweep values'!B37</f>
-        <v>-18584.166666666664</v>
+        <v>-18904.583333333336</v>
       </c>
       <c r="C3" s="34">
         <f>'Sweep values'!C37</f>
-        <v>-16787.777777777774</v>
+        <v>-17077.222222222223</v>
       </c>
       <c r="D3" s="34">
         <f>'Sweep values'!D37</f>
-        <v>-14991.388888888887</v>
+        <v>-15249.861111111113</v>
       </c>
       <c r="E3" s="34">
         <f>'Sweep values'!E37</f>
-        <v>-13194.999999999998</v>
+        <v>-13422.5</v>
       </c>
       <c r="F3" s="34">
         <f>'Sweep values'!F37</f>
-        <v>-11398.611111111109</v>
+        <v>-11595.138888888891</v>
       </c>
       <c r="G3" s="34">
         <f>'Sweep values'!G37</f>
-        <v>-9602.2222222222208</v>
+        <v>-9767.7777777777792</v>
       </c>
       <c r="H3" s="34">
         <f>'Sweep values'!H37</f>
-        <v>-7805.8333333333321</v>
+        <v>-7940.4166666666661</v>
       </c>
       <c r="I3" s="34">
         <f>'Sweep values'!I37</f>
-        <v>-6009.4444444444434</v>
+        <v>-6113.0555555555547</v>
       </c>
       <c r="J3" s="34">
         <f>'Sweep values'!J37</f>
-        <v>-4213.0555555555547</v>
+        <v>-4285.6944444444434</v>
       </c>
       <c r="K3" s="34">
         <f>'Sweep values'!K37</f>
-        <v>-2416.6666666666679</v>
+        <v>-2458.3333333333321</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -4356,43 +4368,43 @@
       </c>
       <c r="B4" s="34">
         <f>'Sweep values'!B38</f>
-        <v>-21604.999999999996</v>
+        <v>-21977.500000000004</v>
       </c>
       <c r="C4" s="34">
         <f>'Sweep values'!C38</f>
-        <v>-19472.96296296296</v>
+        <v>-19808.703703703708</v>
       </c>
       <c r="D4" s="34">
         <f>'Sweep values'!D38</f>
-        <v>-17340.925925925923</v>
+        <v>-17639.907407407409</v>
       </c>
       <c r="E4" s="34">
         <f>'Sweep values'!E38</f>
-        <v>-15208.888888888887</v>
+        <v>-15471.111111111113</v>
       </c>
       <c r="F4" s="34">
         <f>'Sweep values'!F38</f>
-        <v>-13076.85185185185</v>
+        <v>-13302.314814814816</v>
       </c>
       <c r="G4" s="34">
         <f>'Sweep values'!G38</f>
-        <v>-10944.814814814814</v>
+        <v>-11133.51851851852</v>
       </c>
       <c r="H4" s="34">
         <f>'Sweep values'!H38</f>
-        <v>-8812.7777777777774</v>
+        <v>-8964.7222222222226</v>
       </c>
       <c r="I4" s="34">
         <f>'Sweep values'!I38</f>
-        <v>-6680.7407407407391</v>
+        <v>-6795.925925925927</v>
       </c>
       <c r="J4" s="34">
         <f>'Sweep values'!J38</f>
-        <v>-4548.7037037037044</v>
+        <v>-4627.1296296296277</v>
       </c>
       <c r="K4" s="34">
         <f>'Sweep values'!K38</f>
-        <v>-2416.6666666666679</v>
+        <v>-2458.3333333333321</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -4401,43 +4413,43 @@
       </c>
       <c r="B5" s="34">
         <f>'Sweep values'!B39</f>
-        <v>-12614.999999999998</v>
+        <v>-12832.500000000002</v>
       </c>
       <c r="C5" s="34">
         <f>'Sweep values'!C39</f>
-        <v>-11481.85185185185</v>
+        <v>-11679.814814814818</v>
       </c>
       <c r="D5" s="34">
         <f>'Sweep values'!D39</f>
-        <v>-10348.703703703703</v>
+        <v>-10527.129629629631</v>
       </c>
       <c r="E5" s="34">
         <f>'Sweep values'!E39</f>
-        <v>-9215.5555555555547</v>
+        <v>-9374.4444444444453</v>
       </c>
       <c r="F5" s="34">
         <f>'Sweep values'!F39</f>
-        <v>-8082.407407407406</v>
+        <v>-8221.7592592592609</v>
       </c>
       <c r="G5" s="34">
         <f>'Sweep values'!G39</f>
-        <v>-6949.2592592592582</v>
+        <v>-7069.0740740740748</v>
       </c>
       <c r="H5" s="34">
         <f>'Sweep values'!H39</f>
-        <v>-5816.1111111111104</v>
+        <v>-5916.3888888888896</v>
       </c>
       <c r="I5" s="34">
         <f>'Sweep values'!I39</f>
-        <v>-4682.9629629629617</v>
+        <v>-4763.7037037037053</v>
       </c>
       <c r="J5" s="34">
         <f>'Sweep values'!J39</f>
-        <v>-3549.8148148148139</v>
+        <v>-3611.0185185185201</v>
       </c>
       <c r="K5" s="34">
         <f>'Sweep values'!K39</f>
-        <v>-2416.6666666666661</v>
+        <v>-2458.3333333333339</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -4446,43 +4458,43 @@
       </c>
       <c r="B6" s="34">
         <f>'Sweep values'!B40</f>
-        <v>-24166.666666666664</v>
+        <v>-24583.333333333336</v>
       </c>
       <c r="C6" s="34">
         <f>'Sweep values'!C40</f>
-        <v>-21750</v>
+        <v>-22125</v>
       </c>
       <c r="D6" s="34">
         <f>'Sweep values'!D40</f>
-        <v>-19333.333333333332</v>
+        <v>-19666.666666666668</v>
       </c>
       <c r="E6" s="34">
         <f>'Sweep values'!E40</f>
-        <v>-16916.666666666664</v>
+        <v>-17208.333333333336</v>
       </c>
       <c r="F6" s="34">
         <f>'Sweep values'!F40</f>
-        <v>-14500</v>
+        <v>-14750</v>
       </c>
       <c r="G6" s="34">
         <f>'Sweep values'!G40</f>
-        <v>-12083.333333333332</v>
+        <v>-12291.666666666668</v>
       </c>
       <c r="H6" s="34">
         <f>'Sweep values'!H40</f>
-        <v>-9666.6666666666679</v>
+        <v>-9833.3333333333321</v>
       </c>
       <c r="I6" s="34">
         <f>'Sweep values'!I40</f>
-        <v>-7250</v>
+        <v>-7375</v>
       </c>
       <c r="J6" s="34">
         <f>'Sweep values'!J40</f>
-        <v>-4833.3333333333358</v>
+        <v>-4916.6666666666642</v>
       </c>
       <c r="K6" s="34">
         <f>'Sweep values'!K40</f>
-        <v>-2416.6666666666679</v>
+        <v>-2458.3333333333321</v>
       </c>
     </row>
   </sheetData>
@@ -4791,10 +4803,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="60"/>
+      <c r="B2" s="58"/>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -4926,8 +4938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E49A404-39E7-6B45-B584-7FD70EB84AF5}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5161,13 +5173,13 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="63"/>
-      <c r="F20" s="51" t="s">
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="61"/>
+      <c r="F20" s="49" t="s">
         <v>187</v>
       </c>
       <c r="G20" s="20">
@@ -5186,26 +5198,26 @@
       </c>
       <c r="B21" s="42">
         <f>MeOH_original_data!B18*1000/(24)</f>
-        <v>2416.6666666666665</v>
+        <v>2458.3333333333335</v>
       </c>
       <c r="C21" s="42">
         <f>MeOH_original_data!C18*1000/(24)</f>
-        <v>12125</v>
+        <v>12208.333333333334</v>
       </c>
       <c r="D21" s="43">
         <f>MeOH_original_data!D18*1000/(24)</f>
-        <v>24291.666666666668</v>
-      </c>
-      <c r="F21" s="52" t="s">
+        <v>24375</v>
+      </c>
+      <c r="F21" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G21" s="63">
         <v>1</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="63">
         <v>1</v>
       </c>
-      <c r="I21" s="48">
+      <c r="I21" s="47">
         <v>1</v>
       </c>
     </row>
@@ -5215,30 +5227,30 @@
       </c>
       <c r="B22" s="45">
         <f>MeOH_original_data!B19*1000/(24)</f>
-        <v>14666.666666666666</v>
+        <v>14458.333333333334</v>
       </c>
       <c r="C22" s="45">
         <f>MeOH_original_data!C19*1000/(24)</f>
-        <v>73375</v>
+        <v>72291.666666666672</v>
       </c>
       <c r="D22" s="46">
         <f>MeOH_original_data!D19*1000/(24)</f>
-        <v>146791.66666666666</v>
-      </c>
-      <c r="F22" s="52" t="s">
+        <v>144583.33333333334</v>
+      </c>
+      <c r="F22" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="63">
         <f>G$21*B22/B$21</f>
-        <v>6.068965517241379</v>
-      </c>
-      <c r="H22" s="47">
+        <v>5.8813559322033901</v>
+      </c>
+      <c r="H22" s="63">
         <f t="shared" ref="H22:I23" si="1">H$21*C22/C21</f>
-        <v>6.0515463917525771</v>
-      </c>
-      <c r="I22" s="48">
+        <v>5.9215017064846416</v>
+      </c>
+      <c r="I22" s="47">
         <f>I$21*D22/D21</f>
-        <v>6.0428816466552311</v>
+        <v>5.9316239316239319</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5257,43 +5269,43 @@
         <f>MeOH_original_data!D20</f>
         <v>53</v>
       </c>
-      <c r="F23" s="52" t="s">
+      <c r="F23" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="63">
         <f t="shared" ref="G23" si="2">G$21*B23/B$21</f>
-        <v>2.2758620689655173E-3</v>
-      </c>
-      <c r="H23" s="47">
+        <v>2.2372881355932203E-3</v>
+      </c>
+      <c r="H23" s="63">
         <f t="shared" si="1"/>
-        <v>3.6797274275979556E-4</v>
-      </c>
-      <c r="I23" s="48">
+        <v>3.7348703170028816E-4</v>
+      </c>
+      <c r="I23" s="47">
         <f t="shared" si="1"/>
-        <v>3.6105591825149024E-4</v>
+        <v>3.6657060518731984E-4</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58" t="s">
+      <c r="A24" s="56" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="59"/>
-      <c r="F24" s="52" t="s">
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="57"/>
+      <c r="F24" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="47">
+      <c r="G24" s="63">
         <f>G$21*B25/B$21</f>
-        <v>4.1379310344827586E-2</v>
-      </c>
-      <c r="H24" s="47">
+        <v>1.4462431033898306</v>
+      </c>
+      <c r="H24" s="63">
         <f t="shared" ref="H24:I24" si="3">H$21*C25/C$21</f>
-        <v>4.192439862542955E-2</v>
-      </c>
-      <c r="I24" s="48">
+        <v>1.4552794228668944</v>
+      </c>
+      <c r="I24" s="47">
         <f t="shared" si="3"/>
-        <v>4.1852487135506003E-2</v>
+        <v>9.2287580000000008E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -5302,30 +5314,30 @@
       </c>
       <c r="B25" s="42">
         <f>MeOH_original_data!B22*1000/(24)</f>
-        <v>100</v>
+        <v>3555.347629166667</v>
       </c>
       <c r="C25" s="42">
         <f>MeOH_original_data!C22*1000/(24)</f>
-        <v>508.33333333333331</v>
+        <v>17766.536287500003</v>
       </c>
       <c r="D25" s="43">
         <f>MeOH_original_data!D22*1000/(24)</f>
-        <v>1016.6666666666666</v>
-      </c>
-      <c r="F25" s="52" t="s">
+        <v>2249.5097625000003</v>
+      </c>
+      <c r="F25" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25" s="63">
         <f t="shared" ref="G25:G26" si="4">G$21*B26/B$21</f>
-        <v>0.34655172413793106</v>
-      </c>
-      <c r="H25" s="47">
+        <v>0.40960135593220343</v>
+      </c>
+      <c r="H25" s="63">
         <f t="shared" ref="H25:H26" si="5">H$21*C26/C$21</f>
-        <v>0.3446735395189004</v>
-      </c>
-      <c r="I25" s="48">
+        <v>0.41283137201365194</v>
+      </c>
+      <c r="I25" s="47">
         <f t="shared" ref="I25:I26" si="6">I$21*D26/D$21</f>
-        <v>0.34425385934819897</v>
+        <v>0.41353706666666673</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5334,30 +5346,30 @@
       </c>
       <c r="B26" s="44">
         <f>MeOH_original_data!B23*1000/(24)</f>
-        <v>837.5</v>
+        <v>1006.9366666666668</v>
       </c>
       <c r="C26" s="44">
         <f>MeOH_original_data!C23*1000/(24)</f>
-        <v>4179.166666666667</v>
+        <v>5039.9830000000011</v>
       </c>
       <c r="D26" s="27">
         <f>MeOH_original_data!D23*1000/(24)</f>
-        <v>8362.5</v>
-      </c>
-      <c r="F26" s="53" t="s">
+        <v>10079.966000000002</v>
+      </c>
+      <c r="F26" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="G26" s="49">
+      <c r="G26" s="64">
         <f t="shared" si="4"/>
-        <v>1.4896551724137932</v>
-      </c>
-      <c r="H26" s="49">
+        <v>0.10078349152542374</v>
+      </c>
+      <c r="H26" s="64">
         <f t="shared" si="5"/>
-        <v>1.4838487972508592</v>
-      </c>
-      <c r="I26" s="50">
+        <v>0.10193266723549486</v>
+      </c>
+      <c r="I26" s="48">
         <f t="shared" si="6"/>
-        <v>1.481303602058319</v>
+        <v>1.6096854222222223</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -5366,15 +5378,15 @@
       </c>
       <c r="B27" s="45">
         <f>MeOH_original_data!B24*1000/(24)</f>
-        <v>3600</v>
+        <v>247.75941666666668</v>
       </c>
       <c r="C27" s="45">
         <f>MeOH_original_data!C24*1000/(24)</f>
-        <v>17991.666666666668</v>
+        <v>1244.4279791666665</v>
       </c>
       <c r="D27" s="46">
         <f>MeOH_original_data!D24*1000/(24)</f>
-        <v>35983.333333333336</v>
+        <v>39236.082166666667</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -5520,15 +5532,15 @@
       </c>
       <c r="B43">
         <f>B21/B42</f>
-        <v>24.166666666666664</v>
+        <v>24.583333333333336</v>
       </c>
       <c r="C43">
         <f>C21/C42</f>
-        <v>24.25</v>
+        <v>24.416666666666668</v>
       </c>
       <c r="D43">
         <f>D21/D42</f>
-        <v>24.291666666666668</v>
+        <v>24.375</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -5537,7 +5549,7 @@
       </c>
       <c r="B44">
         <f>B43</f>
-        <v>24.166666666666664</v>
+        <v>24.583333333333336</v>
       </c>
     </row>
   </sheetData>
@@ -5552,10 +5564,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDBD3A5-912B-984E-9A90-BB156C754950}">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5734,13 +5746,13 @@
         <v>144</v>
       </c>
       <c r="B18">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C18">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D18">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -5748,13 +5760,13 @@
         <v>155</v>
       </c>
       <c r="B19">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C19">
-        <v>1761</v>
+        <v>1735</v>
       </c>
       <c r="D19">
-        <v>3523</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -5780,46 +5792,138 @@
       <c r="A22" t="s">
         <v>154</v>
       </c>
-      <c r="B22">
-        <v>2.4</v>
-      </c>
-      <c r="C22">
-        <v>12.2</v>
-      </c>
-      <c r="D22">
-        <v>24.4</v>
+      <c r="B22" s="39">
+        <f>B28*$B$32*$B34/1000</f>
+        <v>85.328343100000012</v>
+      </c>
+      <c r="C22" s="39">
+        <f t="shared" ref="C22:D22" si="0">C28*$B$32*$B34/1000</f>
+        <v>426.39687090000001</v>
+      </c>
+      <c r="D22" s="39">
+        <f t="shared" si="0"/>
+        <v>53.988234300000009</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>156</v>
       </c>
-      <c r="B23">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="C23">
-        <v>100.3</v>
-      </c>
-      <c r="D23">
-        <v>200.7</v>
+      <c r="B23" s="39">
+        <f t="shared" ref="B23:D23" si="1">B29*$B$32*$B35/1000</f>
+        <v>24.166480000000004</v>
+      </c>
+      <c r="C23" s="39">
+        <f t="shared" si="1"/>
+        <v>120.95959200000001</v>
+      </c>
+      <c r="D23" s="39">
+        <f>D29*$B$32*$B35/1000</f>
+        <v>241.91918400000003</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>157</v>
       </c>
-      <c r="B24">
-        <v>86.4</v>
-      </c>
-      <c r="C24">
-        <v>431.8</v>
-      </c>
-      <c r="D24">
-        <v>863.6</v>
+      <c r="B24" s="39">
+        <f t="shared" ref="B24:D24" si="2">B30*$B$32*$B36/1000</f>
+        <v>5.9462260000000002</v>
+      </c>
+      <c r="C24" s="39">
+        <f t="shared" si="2"/>
+        <v>29.8662715</v>
+      </c>
+      <c r="D24" s="39">
+        <f t="shared" si="2"/>
+        <v>941.66597200000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28">
+        <v>697</v>
+      </c>
+      <c r="C28">
+        <v>3483</v>
+      </c>
+      <c r="D28">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>156</v>
+      </c>
+      <c r="B29">
+        <v>190</v>
+      </c>
+      <c r="C29">
+        <v>951</v>
+      </c>
+      <c r="D29">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30">
+        <v>44</v>
+      </c>
+      <c r="C30">
+        <v>221</v>
+      </c>
+      <c r="D30">
+        <v>6968</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32">
+        <v>158.99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B34">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="E5wXOZaLLrrq7SCc6l+P2ZRx9IPEuRyCimf3Z0baz1pnEGajuwEnyXDqCBaOzjtZXMtVpsqDvw4pp6yfyAXdcg==" saltValue="DJDNe6oto2IcuT0txsQDEg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/use_cases/LWR_MeOH_2023/data/HERON_data.xlsx
+++ b/use_cases/LWR_MeOH_2023/data/HERON_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garrm/FORCE/use_cases/LWR_MeOH_2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2A824C-E8EE-ED45-A4C4-490E518F709E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9DA7EC-B411-AD4D-9FC6-79D359DED309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1740" windowWidth="35840" windowHeight="20200" activeTab="5" xr2:uid="{3CE7F202-39F9-48AF-B0C7-575379157397}"/>
+    <workbookView xWindow="0" yWindow="1740" windowWidth="35840" windowHeight="20200" activeTab="1" xr2:uid="{3CE7F202-39F9-48AF-B0C7-575379157397}"/>
   </bookViews>
   <sheets>
     <sheet name="Sweep values" sheetId="10" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Capacity_Market" sheetId="3" r:id="rId9"/>
     <sheet name="NPP_capacities" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1024,6 +1024,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1057,8 +1059,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -2427,8 +2427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9241F20-95C4-42A2-B03A-23B9DD4DBFA3}">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2592,30 +2592,30 @@
       <c r="B17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="56" t="s">
+      <c r="D18" s="59"/>
+      <c r="E18" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="F18" s="57"/>
-      <c r="G18" s="56" t="s">
+      <c r="F18" s="59"/>
+      <c r="G18" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="H18" s="57"/>
+      <c r="H18" s="59"/>
       <c r="I18" s="31"/>
       <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="57"/>
       <c r="C19" s="11" t="s">
         <v>74</v>
       </c>
@@ -2669,8 +2669,8 @@
         <v>0</v>
       </c>
       <c r="H20" s="34">
-        <f>ABS(E20)*24*I20</f>
-        <v>1180000</v>
+        <f>ABS(E20)*24</f>
+        <v>590000</v>
       </c>
       <c r="I20">
         <f t="shared" ref="I20:I22" si="0">ROUNDUP(J20*$I$24/$J$24,0)</f>
@@ -2708,8 +2708,8 @@
         <v>0</v>
       </c>
       <c r="H21" s="34">
-        <f t="shared" ref="H21:H23" si="5">ABS(E21)*24*I21</f>
-        <v>3175970.0000000005</v>
+        <f t="shared" ref="H21:H24" si="5">ABS(E21)*24</f>
+        <v>453710.00000000006</v>
       </c>
       <c r="I21">
         <f t="shared" si="0"/>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="H22" s="34">
         <f t="shared" si="5"/>
-        <v>1054920.0000000002</v>
+        <v>527460.00000000012</v>
       </c>
       <c r="I22">
         <f t="shared" si="0"/>
@@ -2824,9 +2824,9 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="H24" s="37">
-        <f>ABS(E24)*24*I24</f>
-        <v>8260000</v>
+      <c r="H24" s="34">
+        <f t="shared" si="5"/>
+        <v>590000</v>
       </c>
       <c r="I24" s="19">
         <v>14</v>
@@ -3417,40 +3417,40 @@
         <v>0</v>
       </c>
       <c r="C44" s="34">
-        <f t="shared" ref="C44:J44" si="10">C$43*ABS($G20-$H20)/9</f>
+        <f>C$43*ABS($G20-$H20)/9</f>
+        <v>65555.555555555562</v>
+      </c>
+      <c r="D44" s="33">
+        <f t="shared" ref="C44:J44" si="10">D$43*ABS($G20-$H20)/9</f>
         <v>131111.11111111112</v>
       </c>
-      <c r="D44" s="33">
+      <c r="E44" s="34">
+        <f t="shared" si="10"/>
+        <v>196666.66666666666</v>
+      </c>
+      <c r="F44" s="33">
         <f t="shared" si="10"/>
         <v>262222.22222222225</v>
       </c>
-      <c r="E44" s="34">
+      <c r="G44" s="34">
+        <f t="shared" si="10"/>
+        <v>327777.77777777775</v>
+      </c>
+      <c r="H44" s="33">
         <f t="shared" si="10"/>
         <v>393333.33333333331</v>
       </c>
-      <c r="F44" s="33">
+      <c r="I44" s="34">
+        <f t="shared" si="10"/>
+        <v>458888.88888888888</v>
+      </c>
+      <c r="J44" s="33">
         <f t="shared" si="10"/>
         <v>524444.4444444445</v>
       </c>
-      <c r="G44" s="34">
-        <f t="shared" si="10"/>
-        <v>655555.5555555555</v>
-      </c>
-      <c r="H44" s="33">
-        <f t="shared" si="10"/>
-        <v>786666.66666666663</v>
-      </c>
-      <c r="I44" s="34">
-        <f t="shared" si="10"/>
-        <v>917777.77777777775</v>
-      </c>
-      <c r="J44" s="33">
-        <f t="shared" si="10"/>
-        <v>1048888.888888889</v>
-      </c>
       <c r="K44" s="35">
         <f>K$43*ABS($G20-$H20)/9</f>
-        <v>1180000</v>
+        <v>590000</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3463,39 +3463,39 @@
       </c>
       <c r="C45" s="34">
         <f t="shared" si="11"/>
-        <v>352885.55555555562</v>
+        <v>50412.222222222226</v>
       </c>
       <c r="D45" s="33">
         <f t="shared" si="11"/>
-        <v>705771.11111111124</v>
+        <v>100824.44444444445</v>
       </c>
       <c r="E45" s="34">
         <f t="shared" si="11"/>
-        <v>1058656.666666667</v>
+        <v>151236.66666666669</v>
       </c>
       <c r="F45" s="33">
         <f t="shared" si="11"/>
-        <v>1411542.2222222225</v>
+        <v>201648.88888888891</v>
       </c>
       <c r="G45" s="34">
         <f t="shared" si="11"/>
-        <v>1764427.777777778</v>
+        <v>252061.11111111115</v>
       </c>
       <c r="H45" s="33">
         <f t="shared" si="11"/>
-        <v>2117313.333333334</v>
+        <v>302473.33333333337</v>
       </c>
       <c r="I45" s="34">
         <f t="shared" si="11"/>
-        <v>2470198.8888888895</v>
+        <v>352885.55555555562</v>
       </c>
       <c r="J45" s="33">
         <f t="shared" si="11"/>
-        <v>2823084.444444445</v>
+        <v>403297.77777777781</v>
       </c>
       <c r="K45" s="35">
         <f t="shared" si="11"/>
-        <v>3175970.0000000005</v>
+        <v>453710.00000000006</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3508,39 +3508,39 @@
       </c>
       <c r="C46" s="34">
         <f t="shared" si="12"/>
-        <v>117213.33333333336</v>
+        <v>58606.666666666679</v>
       </c>
       <c r="D46" s="33">
         <f t="shared" si="12"/>
-        <v>234426.66666666672</v>
+        <v>117213.33333333336</v>
       </c>
       <c r="E46" s="34">
         <f t="shared" si="12"/>
-        <v>351640.00000000012</v>
+        <v>175820.00000000006</v>
       </c>
       <c r="F46" s="33">
         <f t="shared" si="12"/>
-        <v>468853.33333333343</v>
+        <v>234426.66666666672</v>
       </c>
       <c r="G46" s="34">
         <f t="shared" si="12"/>
-        <v>586066.66666666674</v>
+        <v>293033.33333333337</v>
       </c>
       <c r="H46" s="33">
         <f t="shared" si="12"/>
-        <v>703280.00000000023</v>
+        <v>351640.00000000012</v>
       </c>
       <c r="I46" s="34">
         <f t="shared" si="12"/>
-        <v>820493.33333333349</v>
+        <v>410246.66666666674</v>
       </c>
       <c r="J46" s="33">
         <f t="shared" si="12"/>
-        <v>937706.66666666686</v>
+        <v>468853.33333333343</v>
       </c>
       <c r="K46" s="35">
         <f t="shared" si="12"/>
-        <v>1054920.0000000002</v>
+        <v>527460.00000000012</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -3598,39 +3598,39 @@
       </c>
       <c r="C48" s="37">
         <f t="shared" si="14"/>
-        <v>917777.77777777775</v>
+        <v>65555.555555555562</v>
       </c>
       <c r="D48" s="36">
         <f t="shared" si="14"/>
-        <v>1835555.5555555555</v>
+        <v>131111.11111111112</v>
       </c>
       <c r="E48" s="37">
         <f t="shared" si="14"/>
-        <v>2753333.3333333335</v>
+        <v>196666.66666666666</v>
       </c>
       <c r="F48" s="36">
         <f t="shared" si="14"/>
-        <v>3671111.111111111</v>
+        <v>262222.22222222225</v>
       </c>
       <c r="G48" s="37">
         <f t="shared" si="14"/>
-        <v>4588888.888888889</v>
+        <v>327777.77777777775</v>
       </c>
       <c r="H48" s="36">
         <f t="shared" si="14"/>
-        <v>5506666.666666667</v>
+        <v>393333.33333333331</v>
       </c>
       <c r="I48" s="37">
         <f t="shared" si="14"/>
-        <v>6424444.444444444</v>
+        <v>458888.88888888888</v>
       </c>
       <c r="J48" s="36">
         <f t="shared" si="14"/>
-        <v>7342222.222222222</v>
+        <v>524444.4444444445</v>
       </c>
       <c r="K48" s="38">
         <f t="shared" si="14"/>
-        <v>8260000</v>
+        <v>590000</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="16" x14ac:dyDescent="0.2">
@@ -3958,8 +3958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999CF170-3B2F-5A4A-A635-8F248BA69D8B}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4008,39 +4008,39 @@
       </c>
       <c r="C2" s="34">
         <f>'Sweep values'!C44</f>
-        <v>131111.11111111112</v>
+        <v>65555.555555555562</v>
       </c>
       <c r="D2" s="34">
         <f>'Sweep values'!D44</f>
-        <v>262222.22222222225</v>
+        <v>131111.11111111112</v>
       </c>
       <c r="E2" s="34">
         <f>'Sweep values'!E44</f>
-        <v>393333.33333333331</v>
+        <v>196666.66666666666</v>
       </c>
       <c r="F2" s="34">
         <f>'Sweep values'!F44</f>
-        <v>524444.4444444445</v>
+        <v>262222.22222222225</v>
       </c>
       <c r="G2" s="34">
         <f>'Sweep values'!G44</f>
-        <v>655555.5555555555</v>
+        <v>327777.77777777775</v>
       </c>
       <c r="H2" s="34">
         <f>'Sweep values'!H44</f>
-        <v>786666.66666666663</v>
+        <v>393333.33333333331</v>
       </c>
       <c r="I2" s="34">
         <f>'Sweep values'!I44</f>
-        <v>917777.77777777775</v>
+        <v>458888.88888888888</v>
       </c>
       <c r="J2" s="34">
         <f>'Sweep values'!J44</f>
-        <v>1048888.888888889</v>
+        <v>524444.4444444445</v>
       </c>
       <c r="K2" s="34">
         <f>'Sweep values'!K44</f>
-        <v>1180000</v>
+        <v>590000</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -4052,39 +4052,39 @@
       </c>
       <c r="C3" s="34">
         <f>'Sweep values'!C45</f>
-        <v>352885.55555555562</v>
+        <v>50412.222222222226</v>
       </c>
       <c r="D3" s="34">
         <f>'Sweep values'!D45</f>
-        <v>705771.11111111124</v>
+        <v>100824.44444444445</v>
       </c>
       <c r="E3" s="34">
         <f>'Sweep values'!E45</f>
-        <v>1058656.666666667</v>
+        <v>151236.66666666669</v>
       </c>
       <c r="F3" s="34">
         <f>'Sweep values'!F45</f>
-        <v>1411542.2222222225</v>
+        <v>201648.88888888891</v>
       </c>
       <c r="G3" s="34">
         <f>'Sweep values'!G45</f>
-        <v>1764427.777777778</v>
+        <v>252061.11111111115</v>
       </c>
       <c r="H3" s="34">
         <f>'Sweep values'!H45</f>
-        <v>2117313.333333334</v>
+        <v>302473.33333333337</v>
       </c>
       <c r="I3" s="34">
         <f>'Sweep values'!I45</f>
-        <v>2470198.8888888895</v>
+        <v>352885.55555555562</v>
       </c>
       <c r="J3" s="34">
         <f>'Sweep values'!J45</f>
-        <v>2823084.444444445</v>
+        <v>403297.77777777781</v>
       </c>
       <c r="K3" s="34">
         <f>'Sweep values'!K45</f>
-        <v>3175970.0000000005</v>
+        <v>453710.00000000006</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -4096,39 +4096,39 @@
       </c>
       <c r="C4" s="34">
         <f>'Sweep values'!C46</f>
-        <v>117213.33333333336</v>
+        <v>58606.666666666679</v>
       </c>
       <c r="D4" s="34">
         <f>'Sweep values'!D46</f>
-        <v>234426.66666666672</v>
+        <v>117213.33333333336</v>
       </c>
       <c r="E4" s="34">
         <f>'Sweep values'!E46</f>
-        <v>351640.00000000012</v>
+        <v>175820.00000000006</v>
       </c>
       <c r="F4" s="34">
         <f>'Sweep values'!F46</f>
-        <v>468853.33333333343</v>
+        <v>234426.66666666672</v>
       </c>
       <c r="G4" s="34">
         <f>'Sweep values'!G46</f>
-        <v>586066.66666666674</v>
+        <v>293033.33333333337</v>
       </c>
       <c r="H4" s="34">
         <f>'Sweep values'!H46</f>
-        <v>703280.00000000023</v>
+        <v>351640.00000000012</v>
       </c>
       <c r="I4" s="34">
         <f>'Sweep values'!I46</f>
-        <v>820493.33333333349</v>
+        <v>410246.66666666674</v>
       </c>
       <c r="J4" s="34">
         <f>'Sweep values'!J46</f>
-        <v>937706.66666666686</v>
+        <v>468853.33333333343</v>
       </c>
       <c r="K4" s="34">
         <f>'Sweep values'!K46</f>
-        <v>1054920.0000000002</v>
+        <v>527460.00000000012</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -4184,39 +4184,39 @@
       </c>
       <c r="C6" s="34">
         <f>'Sweep values'!C48</f>
-        <v>917777.77777777775</v>
+        <v>65555.555555555562</v>
       </c>
       <c r="D6" s="34">
         <f>'Sweep values'!D48</f>
-        <v>1835555.5555555555</v>
+        <v>131111.11111111112</v>
       </c>
       <c r="E6" s="34">
         <f>'Sweep values'!E48</f>
-        <v>2753333.3333333335</v>
+        <v>196666.66666666666</v>
       </c>
       <c r="F6" s="34">
         <f>'Sweep values'!F48</f>
-        <v>3671111.111111111</v>
+        <v>262222.22222222225</v>
       </c>
       <c r="G6" s="34">
         <f>'Sweep values'!G48</f>
-        <v>4588888.888888889</v>
+        <v>327777.77777777775</v>
       </c>
       <c r="H6" s="34">
         <f>'Sweep values'!H48</f>
-        <v>5506666.666666667</v>
+        <v>393333.33333333331</v>
       </c>
       <c r="I6" s="34">
         <f>'Sweep values'!I48</f>
-        <v>6424444.444444444</v>
+        <v>458888.88888888888</v>
       </c>
       <c r="J6" s="34">
         <f>'Sweep values'!J48</f>
-        <v>7342222.222222222</v>
+        <v>524444.4444444445</v>
       </c>
       <c r="K6" s="34">
         <f>'Sweep values'!K48</f>
-        <v>8260000</v>
+        <v>590000</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -4803,10 +4803,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="60"/>
       <c r="C2" t="s">
         <v>4</v>
       </c>
@@ -4938,7 +4938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E49A404-39E7-6B45-B584-7FD70EB84AF5}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
@@ -5173,12 +5173,12 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="63"/>
       <c r="F20" s="49" t="s">
         <v>187</v>
       </c>
@@ -5211,10 +5211,10 @@
       <c r="F21" s="50" t="s">
         <v>144</v>
       </c>
-      <c r="G21" s="63">
+      <c r="G21" s="52">
         <v>1</v>
       </c>
-      <c r="H21" s="63">
+      <c r="H21" s="52">
         <v>1</v>
       </c>
       <c r="I21" s="47">
@@ -5240,11 +5240,11 @@
       <c r="F22" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="G22" s="63">
+      <c r="G22" s="52">
         <f>G$21*B22/B$21</f>
         <v>5.8813559322033901</v>
       </c>
-      <c r="H22" s="63">
+      <c r="H22" s="52">
         <f t="shared" ref="H22:I23" si="1">H$21*C22/C21</f>
         <v>5.9215017064846416</v>
       </c>
@@ -5272,11 +5272,11 @@
       <c r="F23" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="G23" s="63">
+      <c r="G23" s="52">
         <f t="shared" ref="G23" si="2">G$21*B23/B$21</f>
         <v>2.2372881355932203E-3</v>
       </c>
-      <c r="H23" s="63">
+      <c r="H23" s="52">
         <f t="shared" si="1"/>
         <v>3.7348703170028816E-4</v>
       </c>
@@ -5286,20 +5286,20 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="57"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="59"/>
       <c r="F24" s="50" t="s">
         <v>167</v>
       </c>
-      <c r="G24" s="63">
+      <c r="G24" s="52">
         <f>G$21*B25/B$21</f>
         <v>1.4462431033898306</v>
       </c>
-      <c r="H24" s="63">
+      <c r="H24" s="52">
         <f t="shared" ref="H24:I24" si="3">H$21*C25/C$21</f>
         <v>1.4552794228668944</v>
       </c>
@@ -5327,11 +5327,11 @@
       <c r="F25" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="G25" s="63">
+      <c r="G25" s="52">
         <f t="shared" ref="G25:G26" si="4">G$21*B26/B$21</f>
         <v>0.40960135593220343</v>
       </c>
-      <c r="H25" s="63">
+      <c r="H25" s="52">
         <f t="shared" ref="H25:H26" si="5">H$21*C26/C$21</f>
         <v>0.41283137201365194</v>
       </c>
@@ -5359,11 +5359,11 @@
       <c r="F26" s="51" t="s">
         <v>157</v>
       </c>
-      <c r="G26" s="64">
+      <c r="G26" s="53">
         <f t="shared" si="4"/>
         <v>0.10078349152542374</v>
       </c>
-      <c r="H26" s="64">
+      <c r="H26" s="53">
         <f t="shared" si="5"/>
         <v>0.10193266723549486</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>156</v>
       </c>
       <c r="B23" s="39">
-        <f t="shared" ref="B23:D23" si="1">B29*$B$32*$B35/1000</f>
+        <f t="shared" ref="B23:C23" si="1">B29*$B$32*$B35/1000</f>
         <v>24.166480000000004</v>
       </c>
       <c r="C23" s="39">
